--- a/data/xuat_nhap/nhap_khau_2024.xlsx
+++ b/data/xuat_nhap/nhap_khau_2024.xlsx
@@ -835,7 +835,11 @@
           <t>TỔNG TRỊ GIÁ</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
         <v>30854857808</v>
@@ -943,7 +947,11 @@
           <t>Trong đó: Doanh nghiệp có vốn đầu tư trực tiếp nước ngoài</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
         <v>19592021390</v>
@@ -1053,7 +1061,11 @@
           <t>Hàng thủy sản</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
         <v>244736410</v>
@@ -1163,7 +1175,11 @@
           <t>Sữa và sản phẩm sữa</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
         <v>81636356</v>
@@ -1273,7 +1289,11 @@
           <t>Hàng rau quả</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
         <v>216220191</v>
@@ -1383,7 +1403,11 @@
           <t>Hạt điều</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Tấn</t>
+        </is>
+      </c>
       <c r="E9" t="n">
         <v>91937</v>
       </c>
@@ -1541,7 +1565,11 @@
           <t>Lúa mì</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Tấn</t>
+        </is>
+      </c>
       <c r="E10" t="n">
         <v>535465</v>
       </c>
@@ -1699,7 +1727,11 @@
           <t>Ngô</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Tấn</t>
+        </is>
+      </c>
       <c r="E11" t="n">
         <v>976666</v>
       </c>
@@ -1857,7 +1889,11 @@
           <t>Đậu tương</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Tấn</t>
+        </is>
+      </c>
       <c r="E12" t="n">
         <v>212228</v>
       </c>
@@ -2015,7 +2051,11 @@
           <t>Dầu mỡ động thực vật</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
         <v>79633001</v>
@@ -2125,7 +2165,11 @@
           <t>Bánh kẹo và các sản phẩm từ ngũ cốc</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
         <v>45805730</v>
@@ -2235,7 +2279,11 @@
           <t>Chế phẩm thực phẩm khác</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
         <v>90769663</v>
@@ -2345,7 +2393,11 @@
           <t>Thức ăn gia súc và nguyên liệu</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
         <v>397939417</v>
@@ -2455,7 +2507,11 @@
           <t>Nguyên phụ liệu thuốc lá</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
         <v>10839349</v>
@@ -2565,7 +2621,11 @@
           <t>Quặng và khoáng sản khác</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Tấn</t>
+        </is>
+      </c>
       <c r="E18" t="n">
         <v>1798222</v>
       </c>
@@ -2723,7 +2783,11 @@
           <t>Than các loại</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Tấn</t>
+        </is>
+      </c>
       <c r="E19" t="n">
         <v>5089276</v>
       </c>
@@ -2881,7 +2945,11 @@
           <t>Dầu thô</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Tấn</t>
+        </is>
+      </c>
       <c r="E20" t="n">
         <v>1347484</v>
       </c>
@@ -3039,7 +3107,11 @@
           <t>Xăng dầu các loại</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Tấn</t>
+        </is>
+      </c>
       <c r="E21" t="n">
         <v>737064</v>
       </c>
@@ -3197,7 +3269,11 @@
           <t>Khí đốt hóa lỏng</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Tấn</t>
+        </is>
+      </c>
       <c r="E22" t="n">
         <v>289018</v>
       </c>
@@ -3355,7 +3431,11 @@
           <t>Sản phẩm khác từ dầu mỏ</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
         <v>195433960</v>
@@ -3465,7 +3545,11 @@
           <t>Hóa chất</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
         <v>678399276</v>
@@ -3575,7 +3659,11 @@
           <t>Sản phẩm hóa chất</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
         <v>668464447</v>
@@ -3685,7 +3773,11 @@
           <t>Nguyên phụ liệu dược phẩm</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
         <v>39663476</v>
@@ -3795,7 +3887,11 @@
           <t>Dược phẩm</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
         <v>340436782</v>
@@ -3905,7 +4001,11 @@
           <t>Phân bón các loại</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Tấn</t>
+        </is>
+      </c>
       <c r="E28" t="n">
         <v>411623</v>
       </c>
@@ -4063,7 +4163,11 @@
           <t>Chất thơm, mỹ phẩm và chế phẩm vệ sinh</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
         <v>104853800</v>
@@ -4173,7 +4277,11 @@
           <t>Thuốc trừ sâu và nguyên liệu</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
         <v>64337187</v>
@@ -4283,7 +4391,11 @@
           <t>Chất dẻo nguyên liệu</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Tấn</t>
+        </is>
+      </c>
       <c r="E31" t="n">
         <v>674388</v>
       </c>
@@ -4441,7 +4553,11 @@
           <t>Sản phẩm từ chất dẻo</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
         <v>738478055</v>
@@ -4551,7 +4667,11 @@
           <t>Cao su</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Tấn</t>
+        </is>
+      </c>
       <c r="E33" t="n">
         <v>188828</v>
       </c>
@@ -4709,7 +4829,11 @@
           <t>Sản phẩm từ cao su</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
         <v>88058196</v>
@@ -4819,7 +4943,11 @@
           <t>Gỗ và sản phẩm gỗ</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
         <v>219844704</v>
@@ -4929,7 +5057,11 @@
           <t>Giấy các loại</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Tấn</t>
+        </is>
+      </c>
       <c r="E36" t="n">
         <v>208647</v>
       </c>
@@ -5087,7 +5219,11 @@
           <t>Sản phẩm từ giấy</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
         <v>82731036</v>
@@ -5197,7 +5333,11 @@
           <t>Bông các loại</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Tấn</t>
+        </is>
+      </c>
       <c r="E38" t="n">
         <v>146255</v>
       </c>
@@ -5355,7 +5495,11 @@
           <t>Xơ, sợi dệt các loại</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Tấn</t>
+        </is>
+      </c>
       <c r="E39" t="n">
         <v>106348</v>
       </c>
@@ -5513,7 +5657,11 @@
           <t>Vải các loại</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="n">
         <v>1173872400</v>
@@ -5623,7 +5771,11 @@
           <t>Nguyên phụ liệu dệt, may, da, giày</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="n">
         <v>564954857</v>
@@ -5733,7 +5885,11 @@
           <t>Thủy tinh và các sản phẩm từ thủy tinh</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="n">
         <v>174542317</v>
@@ -5843,7 +5999,11 @@
           <t>Đá quý, kim loại quý và sản phẩm</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="n">
         <v>81638013</v>
@@ -5953,7 +6113,11 @@
           <t>Phế liệu sắt thép</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Tấn</t>
+        </is>
+      </c>
       <c r="E44" t="n">
         <v>356078</v>
       </c>
@@ -6111,7 +6275,11 @@
           <t>Sắt thép các loại</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Tấn</t>
+        </is>
+      </c>
       <c r="E45" t="n">
         <v>1486502</v>
       </c>
@@ -6269,7 +6437,11 @@
           <t>Sản phẩm từ sắt thép</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="n">
         <v>520234240</v>
@@ -6379,7 +6551,11 @@
           <t>Kim loại thường khác</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Tấn</t>
+        </is>
+      </c>
       <c r="E47" t="n">
         <v>171662</v>
       </c>
@@ -6537,7 +6713,11 @@
           <t>Sản phẩm từ kim loại thường khác</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="n">
         <v>265595257</v>
@@ -6647,7 +6827,11 @@
           <t>Máy vi tính, sản phẩm điện tử và linh kiện</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="n">
         <v>8551893506</v>
@@ -6757,7 +6941,11 @@
           <t>Hàng điện gia dụng và linh kiện</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="n">
         <v>187935832</v>
@@ -6867,7 +7055,11 @@
           <t>Điện thoại các loại và linh kiện</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="n">
         <v>889933832</v>
@@ -6977,7 +7169,11 @@
           <t>Máy ảnh, máy quay phim và linh kiện</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="n">
         <v>216519012</v>
@@ -7087,7 +7283,11 @@
           <t>Máy móc, thiết bị, dụng cụ, phụ tùng khác</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="n">
         <v>3987830287</v>
@@ -7197,7 +7397,11 @@
           <t>Dây điện và dây cáp điện</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="n">
         <v>270469218</v>
@@ -7307,7 +7511,11 @@
           <t>Ô tô nguyên chiếc các loại</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Chiếc</t>
+        </is>
+      </c>
       <c r="E55" t="n">
         <v>6712</v>
       </c>
@@ -7465,7 +7673,11 @@
           <t>Linh kiện, phụ tùng ô tô</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="n">
         <v>342450419</v>
@@ -7575,7 +7787,11 @@
           <t>Xe máy và linh kiện, phụ tùng</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="n">
         <v>48564630</v>
@@ -7685,7 +7901,11 @@
           <t>Phương tiện vận tải khác và phụ tùng</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="n">
         <v>120970776</v>
@@ -7795,7 +8015,11 @@
           <t>Hàng hóa khác</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="n">
         <v>1863177133</v>

--- a/data/xuat_nhap/nhap_khau_2024.xlsx
+++ b/data/xuat_nhap/nhap_khau_2024.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="84">
   <si>
     <t>STT</t>
   </si>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t>Trị giá tháng 12</t>
-  </si>
-  <si>
-    <t>Trong đó: Doanh nghiệp có vốn đầu tư trực tiếp nước ngoài</t>
   </si>
   <si>
     <t>Hàng thủy sản</t>
@@ -627,7 +624,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA56"/>
+  <dimension ref="A1:AA55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -717,146 +714,149 @@
       </c>
     </row>
     <row r="2" spans="1:27">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E2">
-        <v>19592021390</v>
+        <v>244736410</v>
       </c>
       <c r="G2">
-        <v>15390108240</v>
+        <v>158117572</v>
       </c>
       <c r="I2">
-        <v>19357217520</v>
+        <v>215427363</v>
       </c>
       <c r="K2">
-        <v>18500371807</v>
+        <v>171437449</v>
       </c>
       <c r="M2">
-        <v>21231957224</v>
+        <v>212456195</v>
       </c>
       <c r="O2">
-        <v>19476423521</v>
+        <v>203571815</v>
       </c>
       <c r="Q2">
-        <v>22044553384</v>
+        <v>232080229</v>
       </c>
       <c r="S2">
-        <v>21586720176</v>
+        <v>238362023</v>
       </c>
       <c r="U2">
-        <v>20819658093</v>
+        <v>195520509</v>
       </c>
       <c r="W2">
-        <v>20922799274</v>
+        <v>223665834</v>
       </c>
       <c r="Y2">
-        <v>20291716149</v>
+        <v>241232692</v>
       </c>
       <c r="AA2">
-        <v>21005663158</v>
+        <v>306119172</v>
       </c>
     </row>
     <row r="3" spans="1:27">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E3">
-        <v>244736410</v>
+        <v>81636356</v>
       </c>
       <c r="G3">
-        <v>158117572</v>
+        <v>64192668</v>
       </c>
       <c r="I3">
-        <v>215427363</v>
+        <v>98273552</v>
       </c>
       <c r="K3">
-        <v>171437449</v>
+        <v>99416487</v>
       </c>
       <c r="M3">
-        <v>212456195</v>
+        <v>101260323</v>
       </c>
       <c r="O3">
-        <v>203571815</v>
+        <v>89159462</v>
       </c>
       <c r="Q3">
-        <v>232080229</v>
+        <v>101520690</v>
       </c>
       <c r="S3">
-        <v>238362023</v>
+        <v>108856845</v>
       </c>
       <c r="U3">
-        <v>195520509</v>
+        <v>86183247</v>
       </c>
       <c r="W3">
-        <v>223665834</v>
+        <v>96393476</v>
       </c>
       <c r="Y3">
-        <v>241232692</v>
+        <v>102112936</v>
       </c>
       <c r="AA3">
-        <v>306119172</v>
+        <v>99231052</v>
       </c>
     </row>
     <row r="4" spans="1:27">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E4">
-        <v>81636356</v>
+        <v>216220191</v>
       </c>
       <c r="G4">
-        <v>64192668</v>
+        <v>120764176</v>
       </c>
       <c r="I4">
-        <v>98273552</v>
+        <v>155343851</v>
       </c>
       <c r="K4">
-        <v>99416487</v>
+        <v>142855356</v>
       </c>
       <c r="M4">
-        <v>101260323</v>
+        <v>187074147</v>
       </c>
       <c r="O4">
-        <v>89159462</v>
+        <v>198982914</v>
       </c>
       <c r="Q4">
-        <v>101520690</v>
+        <v>205981846</v>
       </c>
       <c r="S4">
-        <v>108856845</v>
+        <v>220351513</v>
       </c>
       <c r="U4">
-        <v>86183247</v>
+        <v>211911074</v>
       </c>
       <c r="W4">
-        <v>96393476</v>
+        <v>211765468</v>
       </c>
       <c r="Y4">
-        <v>102112936</v>
+        <v>250623086</v>
       </c>
       <c r="AA4">
-        <v>99231052</v>
+        <v>304277033</v>
       </c>
     </row>
     <row r="5" spans="1:27">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -864,566 +864,566 @@
       <c r="C5" t="s">
         <v>82</v>
       </c>
+      <c r="D5">
+        <v>91937</v>
+      </c>
       <c r="E5">
-        <v>216220191</v>
+        <v>104219096</v>
+      </c>
+      <c r="F5">
+        <v>131634</v>
       </c>
       <c r="G5">
-        <v>120764176</v>
+        <v>169569827</v>
+      </c>
+      <c r="H5">
+        <v>434579</v>
       </c>
       <c r="I5">
-        <v>155343851</v>
+        <v>544324124</v>
+      </c>
+      <c r="J5">
+        <v>293326</v>
       </c>
       <c r="K5">
-        <v>142855356</v>
+        <v>366347744</v>
+      </c>
+      <c r="L5">
+        <v>257004</v>
       </c>
       <c r="M5">
-        <v>187074147</v>
+        <v>297154109</v>
+      </c>
+      <c r="N5">
+        <v>283187</v>
       </c>
       <c r="O5">
-        <v>198982914</v>
+        <v>320263543</v>
+      </c>
+      <c r="P5">
+        <v>291413</v>
       </c>
       <c r="Q5">
-        <v>205981846</v>
+        <v>346450197</v>
+      </c>
+      <c r="R5">
+        <v>211225</v>
       </c>
       <c r="S5">
-        <v>220351513</v>
+        <v>283332382</v>
+      </c>
+      <c r="T5">
+        <v>169864</v>
       </c>
       <c r="U5">
-        <v>211911074</v>
+        <v>243246431</v>
+      </c>
+      <c r="V5">
+        <v>141184</v>
       </c>
       <c r="W5">
-        <v>211765468</v>
+        <v>220724862</v>
+      </c>
+      <c r="X5">
+        <v>84524</v>
       </c>
       <c r="Y5">
-        <v>250623086</v>
+        <v>139392246</v>
+      </c>
+      <c r="Z5">
+        <v>104546</v>
       </c>
       <c r="AA5">
-        <v>304277033</v>
+        <v>184735768</v>
       </c>
     </row>
     <row r="6" spans="1:27">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6">
-        <v>91937</v>
+        <v>535465</v>
       </c>
       <c r="E6">
-        <v>104219096</v>
+        <v>156383877</v>
       </c>
       <c r="F6">
-        <v>131634</v>
+        <v>502311</v>
       </c>
       <c r="G6">
-        <v>169569827</v>
+        <v>133617354</v>
       </c>
       <c r="H6">
-        <v>434579</v>
+        <v>452368</v>
       </c>
       <c r="I6">
-        <v>544324124</v>
+        <v>127370346</v>
       </c>
       <c r="J6">
-        <v>293326</v>
+        <v>807933</v>
       </c>
       <c r="K6">
-        <v>366347744</v>
+        <v>221040030</v>
       </c>
       <c r="L6">
-        <v>257004</v>
+        <v>537828</v>
       </c>
       <c r="M6">
-        <v>297154109</v>
+        <v>142468996</v>
       </c>
       <c r="N6">
-        <v>283187</v>
+        <v>288077</v>
       </c>
       <c r="O6">
-        <v>320263543</v>
+        <v>81451204</v>
       </c>
       <c r="P6">
-        <v>291413</v>
+        <v>316511</v>
       </c>
       <c r="Q6">
-        <v>346450197</v>
+        <v>92345710</v>
       </c>
       <c r="R6">
-        <v>211225</v>
+        <v>269712</v>
       </c>
       <c r="S6">
-        <v>283332382</v>
+        <v>73247376</v>
       </c>
       <c r="T6">
-        <v>169864</v>
+        <v>843823</v>
       </c>
       <c r="U6">
-        <v>243246431</v>
+        <v>226430606</v>
       </c>
       <c r="V6">
-        <v>141184</v>
+        <v>482707</v>
       </c>
       <c r="W6">
-        <v>220724862</v>
+        <v>128209690</v>
       </c>
       <c r="X6">
-        <v>84524</v>
+        <v>354992</v>
       </c>
       <c r="Y6">
-        <v>139392246</v>
+        <v>101465712</v>
       </c>
       <c r="Z6">
-        <v>104546</v>
+        <v>367333</v>
       </c>
       <c r="AA6">
-        <v>184735768</v>
+        <v>100890792</v>
       </c>
     </row>
     <row r="7" spans="1:27">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7">
-        <v>535465</v>
+        <v>976666</v>
       </c>
       <c r="E7">
-        <v>156383877</v>
+        <v>249306347</v>
       </c>
       <c r="F7">
-        <v>502311</v>
+        <v>929859</v>
       </c>
       <c r="G7">
-        <v>133617354</v>
+        <v>236924202</v>
       </c>
       <c r="H7">
-        <v>452368</v>
+        <v>870717</v>
       </c>
       <c r="I7">
-        <v>127370346</v>
+        <v>216068036</v>
       </c>
       <c r="J7">
-        <v>807933</v>
+        <v>703808</v>
       </c>
       <c r="K7">
-        <v>221040030</v>
+        <v>178207850</v>
       </c>
       <c r="L7">
-        <v>537828</v>
+        <v>713669</v>
       </c>
       <c r="M7">
-        <v>142468996</v>
+        <v>176169488</v>
       </c>
       <c r="N7">
-        <v>288077</v>
+        <v>656913</v>
       </c>
       <c r="O7">
-        <v>81451204</v>
+        <v>159365485</v>
       </c>
       <c r="P7">
-        <v>316511</v>
+        <v>892238</v>
       </c>
       <c r="Q7">
-        <v>92345710</v>
+        <v>214499285</v>
       </c>
       <c r="R7">
-        <v>269712</v>
+        <v>1189316</v>
       </c>
       <c r="S7">
-        <v>73247376</v>
+        <v>284435142</v>
       </c>
       <c r="T7">
-        <v>843823</v>
+        <v>1152681</v>
       </c>
       <c r="U7">
-        <v>226430606</v>
+        <v>268425391</v>
       </c>
       <c r="V7">
-        <v>482707</v>
+        <v>1548762</v>
       </c>
       <c r="W7">
-        <v>128209690</v>
+        <v>360642101</v>
       </c>
       <c r="X7">
-        <v>354992</v>
+        <v>1479583</v>
       </c>
       <c r="Y7">
-        <v>101465712</v>
+        <v>352756483</v>
       </c>
       <c r="Z7">
-        <v>367333</v>
+        <v>1405743</v>
       </c>
       <c r="AA7">
-        <v>100890792</v>
+        <v>343294691</v>
       </c>
     </row>
     <row r="8" spans="1:27">
       <c r="A8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D8">
-        <v>976666</v>
+        <v>212228</v>
       </c>
       <c r="E8">
-        <v>249306347</v>
+        <v>122083763</v>
       </c>
       <c r="F8">
-        <v>929859</v>
+        <v>127057</v>
       </c>
       <c r="G8">
-        <v>236924202</v>
+        <v>70956738</v>
       </c>
       <c r="H8">
-        <v>870717</v>
+        <v>200752</v>
       </c>
       <c r="I8">
-        <v>216068036</v>
+        <v>103491737</v>
       </c>
       <c r="J8">
-        <v>703808</v>
+        <v>222610</v>
       </c>
       <c r="K8">
-        <v>178207850</v>
+        <v>111228929</v>
       </c>
       <c r="L8">
-        <v>713669</v>
+        <v>236886</v>
       </c>
       <c r="M8">
-        <v>176169488</v>
+        <v>120294728</v>
       </c>
       <c r="N8">
-        <v>656913</v>
+        <v>69028</v>
       </c>
       <c r="O8">
-        <v>159365485</v>
+        <v>35420305</v>
       </c>
       <c r="P8">
-        <v>892238</v>
+        <v>245805</v>
       </c>
       <c r="Q8">
-        <v>214499285</v>
+        <v>124774843</v>
       </c>
       <c r="R8">
-        <v>1189316</v>
+        <v>132031</v>
       </c>
       <c r="S8">
-        <v>284435142</v>
+        <v>66239793</v>
       </c>
       <c r="T8">
-        <v>1152681</v>
+        <v>148004</v>
       </c>
       <c r="U8">
-        <v>268425391</v>
+        <v>71800114</v>
       </c>
       <c r="V8">
-        <v>1548762</v>
+        <v>222742</v>
       </c>
       <c r="W8">
-        <v>360642101</v>
+        <v>109836090</v>
       </c>
       <c r="X8">
-        <v>1479583</v>
+        <v>163416</v>
       </c>
       <c r="Y8">
-        <v>352756483</v>
+        <v>81167269</v>
       </c>
       <c r="Z8">
-        <v>1405743</v>
+        <v>239148</v>
       </c>
       <c r="AA8">
-        <v>343294691</v>
+        <v>110579486</v>
       </c>
     </row>
     <row r="9" spans="1:27">
       <c r="A9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9">
-        <v>212228</v>
+        <v>81</v>
       </c>
       <c r="E9">
-        <v>122083763</v>
-      </c>
-      <c r="F9">
-        <v>127057</v>
+        <v>79633001</v>
       </c>
       <c r="G9">
-        <v>70956738</v>
-      </c>
-      <c r="H9">
-        <v>200752</v>
+        <v>64137166</v>
       </c>
       <c r="I9">
-        <v>103491737</v>
-      </c>
-      <c r="J9">
-        <v>222610</v>
+        <v>106180371</v>
       </c>
       <c r="K9">
-        <v>111228929</v>
-      </c>
-      <c r="L9">
-        <v>236886</v>
+        <v>127220771</v>
       </c>
       <c r="M9">
-        <v>120294728</v>
-      </c>
-      <c r="N9">
-        <v>69028</v>
+        <v>84457650</v>
       </c>
       <c r="O9">
-        <v>35420305</v>
-      </c>
-      <c r="P9">
-        <v>245805</v>
+        <v>97466901</v>
       </c>
       <c r="Q9">
-        <v>124774843</v>
-      </c>
-      <c r="R9">
-        <v>132031</v>
+        <v>112542253</v>
       </c>
       <c r="S9">
-        <v>66239793</v>
-      </c>
-      <c r="T9">
-        <v>148004</v>
+        <v>144915345</v>
       </c>
       <c r="U9">
-        <v>71800114</v>
-      </c>
-      <c r="V9">
-        <v>222742</v>
+        <v>133438152</v>
       </c>
       <c r="W9">
-        <v>109836090</v>
-      </c>
-      <c r="X9">
-        <v>163416</v>
+        <v>156992202</v>
       </c>
       <c r="Y9">
-        <v>81167269</v>
-      </c>
-      <c r="Z9">
-        <v>239148</v>
+        <v>135566463</v>
       </c>
       <c r="AA9">
-        <v>110579486</v>
+        <v>142204237</v>
       </c>
     </row>
     <row r="10" spans="1:27">
       <c r="A10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E10">
-        <v>79633001</v>
+        <v>45805730</v>
       </c>
       <c r="G10">
-        <v>64137166</v>
+        <v>28120604</v>
       </c>
       <c r="I10">
-        <v>106180371</v>
+        <v>39523822</v>
       </c>
       <c r="K10">
-        <v>127220771</v>
+        <v>33981129</v>
       </c>
       <c r="M10">
-        <v>84457650</v>
+        <v>46898417</v>
       </c>
       <c r="O10">
-        <v>97466901</v>
+        <v>42015886</v>
       </c>
       <c r="Q10">
-        <v>112542253</v>
+        <v>52211490</v>
       </c>
       <c r="S10">
-        <v>144915345</v>
+        <v>56128734</v>
       </c>
       <c r="U10">
-        <v>133438152</v>
+        <v>63823375</v>
       </c>
       <c r="W10">
-        <v>156992202</v>
+        <v>72813831</v>
       </c>
       <c r="Y10">
-        <v>135566463</v>
+        <v>72578716</v>
       </c>
       <c r="AA10">
-        <v>142204237</v>
+        <v>75215541</v>
       </c>
     </row>
     <row r="11" spans="1:27">
       <c r="A11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E11">
-        <v>45805730</v>
+        <v>90769663</v>
       </c>
       <c r="G11">
-        <v>28120604</v>
+        <v>79396810</v>
       </c>
       <c r="I11">
-        <v>39523822</v>
+        <v>98396813</v>
       </c>
       <c r="K11">
-        <v>33981129</v>
+        <v>103272949</v>
       </c>
       <c r="M11">
-        <v>46898417</v>
+        <v>120864101</v>
       </c>
       <c r="O11">
-        <v>42015886</v>
+        <v>108197232</v>
       </c>
       <c r="Q11">
-        <v>52211490</v>
+        <v>140369090</v>
       </c>
       <c r="S11">
-        <v>56128734</v>
+        <v>121629822</v>
       </c>
       <c r="U11">
-        <v>63823375</v>
+        <v>126314526</v>
       </c>
       <c r="W11">
-        <v>72813831</v>
+        <v>108859538</v>
       </c>
       <c r="Y11">
-        <v>72578716</v>
+        <v>121964200</v>
       </c>
       <c r="AA11">
-        <v>75215541</v>
+        <v>123137642</v>
       </c>
     </row>
     <row r="12" spans="1:27">
       <c r="A12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E12">
-        <v>90769663</v>
+        <v>397939417</v>
       </c>
       <c r="G12">
-        <v>79396810</v>
+        <v>341821507</v>
       </c>
       <c r="I12">
-        <v>98396813</v>
+        <v>447566939</v>
       </c>
       <c r="K12">
-        <v>103272949</v>
+        <v>455548560</v>
       </c>
       <c r="M12">
-        <v>120864101</v>
+        <v>453806526</v>
       </c>
       <c r="O12">
-        <v>108197232</v>
+        <v>425581360</v>
       </c>
       <c r="Q12">
-        <v>140369090</v>
+        <v>352520463</v>
       </c>
       <c r="S12">
-        <v>121629822</v>
+        <v>453860896</v>
       </c>
       <c r="U12">
-        <v>126314526</v>
+        <v>290377918</v>
       </c>
       <c r="W12">
-        <v>108859538</v>
+        <v>403717086</v>
       </c>
       <c r="Y12">
-        <v>121964200</v>
+        <v>420564858</v>
       </c>
       <c r="AA12">
-        <v>123137642</v>
+        <v>456998003</v>
       </c>
     </row>
     <row r="13" spans="1:27">
       <c r="A13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E13">
-        <v>397939417</v>
+        <v>10839349</v>
       </c>
       <c r="G13">
-        <v>341821507</v>
+        <v>7000310</v>
       </c>
       <c r="I13">
-        <v>447566939</v>
+        <v>10093090</v>
       </c>
       <c r="K13">
-        <v>455548560</v>
+        <v>10491934</v>
       </c>
       <c r="M13">
-        <v>453806526</v>
+        <v>58577167</v>
       </c>
       <c r="O13">
-        <v>425581360</v>
+        <v>55559518</v>
       </c>
       <c r="Q13">
-        <v>352520463</v>
+        <v>63401660</v>
       </c>
       <c r="S13">
-        <v>453860896</v>
+        <v>40547138</v>
       </c>
       <c r="U13">
-        <v>290377918</v>
+        <v>40992018</v>
       </c>
       <c r="W13">
-        <v>403717086</v>
+        <v>38949702</v>
       </c>
       <c r="Y13">
-        <v>420564858</v>
+        <v>67859287</v>
       </c>
       <c r="AA13">
-        <v>456998003</v>
+        <v>105331836</v>
       </c>
     </row>
     <row r="14" spans="1:27">
       <c r="A14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
@@ -1431,649 +1431,649 @@
       <c r="C14" t="s">
         <v>82</v>
       </c>
+      <c r="D14">
+        <v>1798222</v>
+      </c>
       <c r="E14">
-        <v>10839349</v>
+        <v>228406571</v>
+      </c>
+      <c r="F14">
+        <v>1694597</v>
       </c>
       <c r="G14">
-        <v>7000310</v>
+        <v>206929606</v>
+      </c>
+      <c r="H14">
+        <v>2412691</v>
       </c>
       <c r="I14">
-        <v>10093090</v>
+        <v>267326136</v>
+      </c>
+      <c r="J14">
+        <v>2214676</v>
       </c>
       <c r="K14">
-        <v>10491934</v>
+        <v>232350430</v>
+      </c>
+      <c r="L14">
+        <v>2261474</v>
       </c>
       <c r="M14">
-        <v>58577167</v>
+        <v>247826173</v>
+      </c>
+      <c r="N14">
+        <v>2242607</v>
       </c>
       <c r="O14">
-        <v>55559518</v>
+        <v>223319502</v>
+      </c>
+      <c r="P14">
+        <v>2546909</v>
       </c>
       <c r="Q14">
-        <v>63401660</v>
+        <v>278590906</v>
+      </c>
+      <c r="R14">
+        <v>2651958</v>
       </c>
       <c r="S14">
-        <v>40547138</v>
+        <v>279016385</v>
+      </c>
+      <c r="T14">
+        <v>1629102</v>
       </c>
       <c r="U14">
-        <v>40992018</v>
+        <v>175853302</v>
+      </c>
+      <c r="V14">
+        <v>2388725</v>
       </c>
       <c r="W14">
-        <v>38949702</v>
+        <v>257491930</v>
+      </c>
+      <c r="X14">
+        <v>2150728</v>
       </c>
       <c r="Y14">
-        <v>67859287</v>
+        <v>221021647</v>
+      </c>
+      <c r="Z14">
+        <v>2175033</v>
       </c>
       <c r="AA14">
-        <v>105331836</v>
+        <v>233998600</v>
       </c>
     </row>
     <row r="15" spans="1:27">
       <c r="A15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D15">
-        <v>1798222</v>
+        <v>5089276</v>
       </c>
       <c r="E15">
-        <v>228406571</v>
+        <v>669636315</v>
       </c>
       <c r="F15">
-        <v>1694597</v>
+        <v>4165319</v>
       </c>
       <c r="G15">
-        <v>206929606</v>
+        <v>610634714</v>
       </c>
       <c r="H15">
-        <v>2412691</v>
+        <v>5553407</v>
       </c>
       <c r="I15">
-        <v>267326136</v>
+        <v>689502656</v>
       </c>
       <c r="J15">
-        <v>2214676</v>
+        <v>5897141</v>
       </c>
       <c r="K15">
-        <v>232350430</v>
+        <v>745985760</v>
       </c>
       <c r="L15">
-        <v>2261474</v>
+        <v>6503575</v>
       </c>
       <c r="M15">
-        <v>247826173</v>
+        <v>770520195</v>
       </c>
       <c r="N15">
-        <v>2242607</v>
+        <v>6365335</v>
       </c>
       <c r="O15">
-        <v>223319502</v>
+        <v>733098690</v>
       </c>
       <c r="P15">
-        <v>2546909</v>
+        <v>7051461</v>
       </c>
       <c r="Q15">
-        <v>278590906</v>
+        <v>838257851</v>
       </c>
       <c r="R15">
-        <v>2651958</v>
+        <v>5379197</v>
       </c>
       <c r="S15">
-        <v>279016385</v>
+        <v>684860537</v>
       </c>
       <c r="T15">
-        <v>1629102</v>
+        <v>3971181</v>
       </c>
       <c r="U15">
-        <v>175853302</v>
+        <v>440722643</v>
       </c>
       <c r="V15">
-        <v>2388725</v>
+        <v>4339475</v>
       </c>
       <c r="W15">
-        <v>257491930</v>
+        <v>461176985</v>
       </c>
       <c r="X15">
-        <v>2150728</v>
+        <v>4008716</v>
       </c>
       <c r="Y15">
-        <v>221021647</v>
+        <v>411605308</v>
       </c>
       <c r="Z15">
-        <v>2175033</v>
+        <v>5513483</v>
       </c>
       <c r="AA15">
-        <v>233998600</v>
+        <v>593089551</v>
       </c>
     </row>
     <row r="16" spans="1:27">
       <c r="A16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D16">
-        <v>5089276</v>
+        <v>1347484</v>
       </c>
       <c r="E16">
-        <v>669636315</v>
+        <v>828731603</v>
       </c>
       <c r="F16">
-        <v>4165319</v>
+        <v>902546</v>
       </c>
       <c r="G16">
-        <v>610634714</v>
+        <v>547211804</v>
       </c>
       <c r="H16">
-        <v>5553407</v>
+        <v>1094660</v>
       </c>
       <c r="I16">
-        <v>689502656</v>
+        <v>668730149</v>
       </c>
       <c r="J16">
-        <v>5897141</v>
+        <v>1090734</v>
       </c>
       <c r="K16">
-        <v>745985760</v>
+        <v>701018362</v>
       </c>
       <c r="L16">
-        <v>6503575</v>
+        <v>1396932</v>
       </c>
       <c r="M16">
-        <v>770520195</v>
+        <v>934488572</v>
       </c>
       <c r="N16">
-        <v>6365335</v>
+        <v>977835</v>
       </c>
       <c r="O16">
-        <v>733098690</v>
+        <v>607719942</v>
       </c>
       <c r="P16">
-        <v>7051461</v>
+        <v>1227646</v>
       </c>
       <c r="Q16">
-        <v>838257851</v>
+        <v>781729501</v>
       </c>
       <c r="R16">
-        <v>5379197</v>
+        <v>1082368</v>
       </c>
       <c r="S16">
-        <v>684860537</v>
+        <v>684010763</v>
       </c>
       <c r="T16">
-        <v>3971181</v>
+        <v>1168734</v>
       </c>
       <c r="U16">
-        <v>440722643</v>
+        <v>669255032</v>
       </c>
       <c r="V16">
-        <v>4339475</v>
+        <v>1096144</v>
       </c>
       <c r="W16">
-        <v>461176985</v>
+        <v>621729897</v>
       </c>
       <c r="X16">
-        <v>4008716</v>
+        <v>863555</v>
       </c>
       <c r="Y16">
-        <v>411605308</v>
+        <v>482351239</v>
       </c>
       <c r="Z16">
-        <v>5513483</v>
+        <v>1163407</v>
       </c>
       <c r="AA16">
-        <v>593089551</v>
+        <v>636960522</v>
       </c>
     </row>
     <row r="17" spans="1:27">
       <c r="A17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D17">
-        <v>1347484</v>
+        <v>737064</v>
       </c>
       <c r="E17">
-        <v>828731603</v>
+        <v>585307382</v>
       </c>
       <c r="F17">
-        <v>902546</v>
+        <v>744975</v>
       </c>
       <c r="G17">
-        <v>547211804</v>
+        <v>616146046</v>
       </c>
       <c r="H17">
-        <v>1094660</v>
+        <v>1063707</v>
       </c>
       <c r="I17">
-        <v>668730149</v>
+        <v>889175400</v>
       </c>
       <c r="J17">
-        <v>1090734</v>
+        <v>1155587</v>
       </c>
       <c r="K17">
-        <v>701018362</v>
+        <v>973280478</v>
       </c>
       <c r="L17">
-        <v>1396932</v>
+        <v>967499</v>
       </c>
       <c r="M17">
-        <v>934488572</v>
+        <v>742206238</v>
       </c>
       <c r="N17">
-        <v>977835</v>
+        <v>770988</v>
       </c>
       <c r="O17">
-        <v>607719942</v>
+        <v>590135064</v>
       </c>
       <c r="P17">
-        <v>1227646</v>
+        <v>750576</v>
       </c>
       <c r="Q17">
-        <v>781729501</v>
+        <v>598274832</v>
       </c>
       <c r="R17">
-        <v>1082368</v>
+        <v>691085</v>
       </c>
       <c r="S17">
-        <v>684010763</v>
+        <v>514532482</v>
       </c>
       <c r="T17">
-        <v>1168734</v>
+        <v>647398</v>
       </c>
       <c r="U17">
-        <v>669255032</v>
+        <v>437223266</v>
       </c>
       <c r="V17">
-        <v>1096144</v>
+        <v>938163</v>
       </c>
       <c r="W17">
-        <v>621729897</v>
+        <v>659007645</v>
       </c>
       <c r="X17">
-        <v>863555</v>
+        <v>793955</v>
       </c>
       <c r="Y17">
-        <v>482351239</v>
+        <v>564615360</v>
       </c>
       <c r="Z17">
-        <v>1163407</v>
+        <v>1157605</v>
       </c>
       <c r="AA17">
-        <v>636960522</v>
+        <v>836519217</v>
       </c>
     </row>
     <row r="18" spans="1:27">
       <c r="A18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D18">
-        <v>737064</v>
+        <v>289018</v>
       </c>
       <c r="E18">
-        <v>585307382</v>
+        <v>200851548</v>
       </c>
       <c r="F18">
-        <v>744975</v>
+        <v>214040</v>
       </c>
       <c r="G18">
-        <v>616146046</v>
+        <v>146523016</v>
       </c>
       <c r="H18">
-        <v>1063707</v>
+        <v>225606</v>
       </c>
       <c r="I18">
-        <v>889175400</v>
+        <v>153774126</v>
       </c>
       <c r="J18">
-        <v>1155587</v>
+        <v>255131</v>
       </c>
       <c r="K18">
-        <v>973280478</v>
+        <v>143886139</v>
       </c>
       <c r="L18">
-        <v>967499</v>
+        <v>285150</v>
       </c>
       <c r="M18">
-        <v>742206238</v>
+        <v>178447540</v>
       </c>
       <c r="N18">
-        <v>770988</v>
+        <v>292838</v>
       </c>
       <c r="O18">
-        <v>590135064</v>
+        <v>183536279</v>
       </c>
       <c r="P18">
-        <v>750576</v>
+        <v>292345</v>
       </c>
       <c r="Q18">
-        <v>598274832</v>
+        <v>186364698</v>
       </c>
       <c r="R18">
-        <v>691085</v>
+        <v>326480</v>
       </c>
       <c r="S18">
-        <v>514532482</v>
+        <v>209514555</v>
       </c>
       <c r="T18">
-        <v>647398</v>
+        <v>208338</v>
       </c>
       <c r="U18">
-        <v>437223266</v>
+        <v>136037689</v>
       </c>
       <c r="V18">
-        <v>938163</v>
+        <v>269655</v>
       </c>
       <c r="W18">
-        <v>659007645</v>
+        <v>184148257</v>
       </c>
       <c r="X18">
-        <v>793955</v>
+        <v>264454</v>
       </c>
       <c r="Y18">
-        <v>564615360</v>
+        <v>183658174</v>
       </c>
       <c r="Z18">
-        <v>1157605</v>
+        <v>198268</v>
       </c>
       <c r="AA18">
-        <v>836519217</v>
+        <v>138052771</v>
       </c>
     </row>
     <row r="19" spans="1:27">
       <c r="A19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19">
-        <v>289018</v>
+        <v>81</v>
       </c>
       <c r="E19">
-        <v>200851548</v>
-      </c>
-      <c r="F19">
-        <v>214040</v>
+        <v>195433960</v>
       </c>
       <c r="G19">
-        <v>146523016</v>
-      </c>
-      <c r="H19">
-        <v>225606</v>
+        <v>192847076</v>
       </c>
       <c r="I19">
-        <v>153774126</v>
-      </c>
-      <c r="J19">
-        <v>255131</v>
+        <v>152394773</v>
       </c>
       <c r="K19">
-        <v>143886139</v>
-      </c>
-      <c r="L19">
-        <v>285150</v>
+        <v>109996514</v>
       </c>
       <c r="M19">
-        <v>178447540</v>
-      </c>
-      <c r="N19">
-        <v>292838</v>
+        <v>130019859</v>
       </c>
       <c r="O19">
-        <v>183536279</v>
-      </c>
-      <c r="P19">
-        <v>292345</v>
+        <v>99227548</v>
       </c>
       <c r="Q19">
-        <v>186364698</v>
-      </c>
-      <c r="R19">
-        <v>326480</v>
+        <v>112210379</v>
       </c>
       <c r="S19">
-        <v>209514555</v>
-      </c>
-      <c r="T19">
-        <v>208338</v>
+        <v>158347106</v>
       </c>
       <c r="U19">
-        <v>136037689</v>
-      </c>
-      <c r="V19">
-        <v>269655</v>
+        <v>114332072</v>
       </c>
       <c r="W19">
-        <v>184148257</v>
-      </c>
-      <c r="X19">
-        <v>264454</v>
+        <v>125595098</v>
       </c>
       <c r="Y19">
-        <v>183658174</v>
-      </c>
-      <c r="Z19">
-        <v>198268</v>
+        <v>119125126</v>
       </c>
       <c r="AA19">
-        <v>138052771</v>
+        <v>183484127</v>
       </c>
     </row>
     <row r="20" spans="1:27">
       <c r="A20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E20">
-        <v>195433960</v>
+        <v>678399276</v>
       </c>
       <c r="G20">
-        <v>192847076</v>
+        <v>560385432</v>
       </c>
       <c r="I20">
-        <v>152394773</v>
+        <v>696894526</v>
       </c>
       <c r="K20">
-        <v>109996514</v>
+        <v>721461452</v>
       </c>
       <c r="M20">
-        <v>130019859</v>
+        <v>841599860</v>
       </c>
       <c r="O20">
-        <v>99227548</v>
+        <v>672636399</v>
       </c>
       <c r="Q20">
-        <v>112210379</v>
+        <v>724244982</v>
       </c>
       <c r="S20">
-        <v>158347106</v>
+        <v>744701822</v>
       </c>
       <c r="U20">
-        <v>114332072</v>
+        <v>645080169</v>
       </c>
       <c r="W20">
-        <v>125595098</v>
+        <v>647690449</v>
       </c>
       <c r="Y20">
-        <v>119125126</v>
+        <v>643446920</v>
       </c>
       <c r="AA20">
-        <v>183484127</v>
+        <v>710704765</v>
       </c>
     </row>
     <row r="21" spans="1:27">
       <c r="A21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E21">
-        <v>678399276</v>
+        <v>668464447</v>
       </c>
       <c r="G21">
-        <v>560385432</v>
+        <v>440340683</v>
       </c>
       <c r="I21">
-        <v>696894526</v>
+        <v>661868833</v>
       </c>
       <c r="K21">
-        <v>721461452</v>
+        <v>627426949</v>
       </c>
       <c r="M21">
-        <v>841599860</v>
+        <v>698986115</v>
       </c>
       <c r="O21">
-        <v>672636399</v>
+        <v>616501804</v>
       </c>
       <c r="Q21">
-        <v>724244982</v>
+        <v>694947519</v>
       </c>
       <c r="S21">
-        <v>744701822</v>
+        <v>666567681</v>
       </c>
       <c r="U21">
-        <v>645080169</v>
+        <v>594868934</v>
       </c>
       <c r="W21">
-        <v>647690449</v>
+        <v>636205913</v>
       </c>
       <c r="Y21">
-        <v>643446920</v>
+        <v>661864913</v>
       </c>
       <c r="AA21">
-        <v>710704765</v>
+        <v>699246125</v>
       </c>
     </row>
     <row r="22" spans="1:27">
       <c r="A22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E22">
-        <v>668464447</v>
+        <v>39663476</v>
       </c>
       <c r="G22">
-        <v>440340683</v>
+        <v>26738787</v>
       </c>
       <c r="I22">
-        <v>661868833</v>
+        <v>40013295</v>
       </c>
       <c r="K22">
-        <v>627426949</v>
+        <v>46403680</v>
       </c>
       <c r="M22">
-        <v>698986115</v>
+        <v>42847731</v>
       </c>
       <c r="O22">
-        <v>616501804</v>
+        <v>37864991</v>
       </c>
       <c r="Q22">
-        <v>694947519</v>
+        <v>42420105</v>
       </c>
       <c r="S22">
-        <v>666567681</v>
+        <v>39748574</v>
       </c>
       <c r="U22">
-        <v>594868934</v>
+        <v>31635060</v>
       </c>
       <c r="W22">
-        <v>636205913</v>
+        <v>40580488</v>
       </c>
       <c r="Y22">
-        <v>661864913</v>
+        <v>39405869</v>
       </c>
       <c r="AA22">
-        <v>699246125</v>
+        <v>53394508</v>
       </c>
     </row>
     <row r="23" spans="1:27">
       <c r="A23">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E23">
-        <v>39663476</v>
+        <v>340436782</v>
       </c>
       <c r="G23">
-        <v>26738787</v>
+        <v>256743477</v>
       </c>
       <c r="I23">
-        <v>40013295</v>
+        <v>336893846</v>
       </c>
       <c r="K23">
-        <v>46403680</v>
+        <v>347756866</v>
       </c>
       <c r="M23">
-        <v>42847731</v>
+        <v>376316761</v>
       </c>
       <c r="O23">
-        <v>37864991</v>
+        <v>348664534</v>
       </c>
       <c r="Q23">
-        <v>42420105</v>
+        <v>392381241</v>
       </c>
       <c r="S23">
-        <v>39748574</v>
+        <v>349628251</v>
       </c>
       <c r="U23">
-        <v>31635060</v>
+        <v>373924656</v>
       </c>
       <c r="W23">
-        <v>40580488</v>
+        <v>433420542</v>
       </c>
       <c r="Y23">
-        <v>39405869</v>
+        <v>307401437</v>
       </c>
       <c r="AA23">
-        <v>53394508</v>
+        <v>518165974</v>
       </c>
     </row>
     <row r="24" spans="1:27">
       <c r="A24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
@@ -2081,176 +2081,176 @@
       <c r="C24" t="s">
         <v>82</v>
       </c>
+      <c r="D24">
+        <v>411623</v>
+      </c>
       <c r="E24">
-        <v>340436782</v>
+        <v>137587259</v>
+      </c>
+      <c r="F24">
+        <v>286262</v>
       </c>
       <c r="G24">
-        <v>256743477</v>
+        <v>93401695</v>
+      </c>
+      <c r="H24">
+        <v>421652</v>
       </c>
       <c r="I24">
-        <v>336893846</v>
+        <v>120429650</v>
+      </c>
+      <c r="J24">
+        <v>494846</v>
       </c>
       <c r="K24">
-        <v>347756866</v>
+        <v>163172518</v>
+      </c>
+      <c r="L24">
+        <v>538426</v>
       </c>
       <c r="M24">
-        <v>376316761</v>
+        <v>178915003</v>
+      </c>
+      <c r="N24">
+        <v>452823</v>
       </c>
       <c r="O24">
-        <v>348664534</v>
+        <v>153409729</v>
+      </c>
+      <c r="P24">
+        <v>424319</v>
       </c>
       <c r="Q24">
-        <v>392381241</v>
+        <v>137149725</v>
+      </c>
+      <c r="R24">
+        <v>448923</v>
       </c>
       <c r="S24">
-        <v>349628251</v>
+        <v>157532357</v>
+      </c>
+      <c r="T24">
+        <v>378158</v>
       </c>
       <c r="U24">
-        <v>373924656</v>
+        <v>140349453</v>
+      </c>
+      <c r="V24">
+        <v>515096</v>
       </c>
       <c r="W24">
-        <v>433420542</v>
+        <v>158660284</v>
+      </c>
+      <c r="X24">
+        <v>474847</v>
       </c>
       <c r="Y24">
-        <v>307401437</v>
+        <v>157049754</v>
+      </c>
+      <c r="Z24">
+        <v>429891</v>
       </c>
       <c r="AA24">
-        <v>518165974</v>
+        <v>124343250</v>
       </c>
     </row>
     <row r="25" spans="1:27">
       <c r="A25">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25">
-        <v>411623</v>
+        <v>81</v>
       </c>
       <c r="E25">
-        <v>137587259</v>
-      </c>
-      <c r="F25">
-        <v>286262</v>
+        <v>104853800</v>
       </c>
       <c r="G25">
-        <v>93401695</v>
-      </c>
-      <c r="H25">
-        <v>421652</v>
+        <v>94014240</v>
       </c>
       <c r="I25">
-        <v>120429650</v>
-      </c>
-      <c r="J25">
-        <v>494846</v>
+        <v>113017973</v>
       </c>
       <c r="K25">
-        <v>163172518</v>
-      </c>
-      <c r="L25">
-        <v>538426</v>
+        <v>116494728</v>
       </c>
       <c r="M25">
-        <v>178915003</v>
-      </c>
-      <c r="N25">
-        <v>452823</v>
+        <v>131056058</v>
       </c>
       <c r="O25">
-        <v>153409729</v>
-      </c>
-      <c r="P25">
-        <v>424319</v>
+        <v>120799833</v>
       </c>
       <c r="Q25">
-        <v>137149725</v>
-      </c>
-      <c r="R25">
-        <v>448923</v>
+        <v>119662551</v>
       </c>
       <c r="S25">
-        <v>157532357</v>
-      </c>
-      <c r="T25">
-        <v>378158</v>
+        <v>133109072</v>
       </c>
       <c r="U25">
-        <v>140349453</v>
-      </c>
-      <c r="V25">
-        <v>515096</v>
+        <v>115913375</v>
       </c>
       <c r="W25">
-        <v>158660284</v>
-      </c>
-      <c r="X25">
-        <v>474847</v>
+        <v>116065257</v>
       </c>
       <c r="Y25">
-        <v>157049754</v>
-      </c>
-      <c r="Z25">
-        <v>429891</v>
+        <v>128742693</v>
       </c>
       <c r="AA25">
-        <v>124343250</v>
+        <v>132969644</v>
       </c>
     </row>
     <row r="26" spans="1:27">
       <c r="A26">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E26">
-        <v>104853800</v>
+        <v>64337187</v>
       </c>
       <c r="G26">
-        <v>94014240</v>
+        <v>46412502</v>
       </c>
       <c r="I26">
-        <v>113017973</v>
+        <v>81777677</v>
       </c>
       <c r="K26">
-        <v>116494728</v>
+        <v>81888937</v>
       </c>
       <c r="M26">
-        <v>131056058</v>
+        <v>110410871</v>
       </c>
       <c r="O26">
-        <v>120799833</v>
+        <v>79966767</v>
       </c>
       <c r="Q26">
-        <v>119662551</v>
+        <v>81972866</v>
       </c>
       <c r="S26">
-        <v>133109072</v>
+        <v>83658699</v>
       </c>
       <c r="U26">
-        <v>115913375</v>
+        <v>65040257</v>
       </c>
       <c r="W26">
-        <v>116065257</v>
+        <v>81403445</v>
       </c>
       <c r="Y26">
-        <v>128742693</v>
+        <v>75043808</v>
       </c>
       <c r="AA26">
-        <v>132969644</v>
+        <v>97059719</v>
       </c>
     </row>
     <row r="27" spans="1:27">
       <c r="A27">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
@@ -2258,129 +2258,129 @@
       <c r="C27" t="s">
         <v>82</v>
       </c>
+      <c r="D27">
+        <v>674388</v>
+      </c>
       <c r="E27">
-        <v>64337187</v>
+        <v>917396726</v>
+      </c>
+      <c r="F27">
+        <v>463597</v>
       </c>
       <c r="G27">
-        <v>46412502</v>
+        <v>632529491</v>
+      </c>
+      <c r="H27">
+        <v>686310</v>
       </c>
       <c r="I27">
-        <v>81777677</v>
+        <v>953940051</v>
+      </c>
+      <c r="J27">
+        <v>664336</v>
       </c>
       <c r="K27">
-        <v>81888937</v>
+        <v>924250990</v>
+      </c>
+      <c r="L27">
+        <v>799136</v>
       </c>
       <c r="M27">
-        <v>110410871</v>
+        <v>1110128581</v>
+      </c>
+      <c r="N27">
+        <v>637615</v>
       </c>
       <c r="O27">
-        <v>79966767</v>
+        <v>907174182</v>
+      </c>
+      <c r="P27">
+        <v>716589</v>
       </c>
       <c r="Q27">
-        <v>81972866</v>
+        <v>1019474639</v>
+      </c>
+      <c r="R27">
+        <v>758996</v>
       </c>
       <c r="S27">
-        <v>83658699</v>
+        <v>1069576599</v>
+      </c>
+      <c r="T27">
+        <v>678691</v>
       </c>
       <c r="U27">
-        <v>65040257</v>
+        <v>936635931</v>
+      </c>
+      <c r="V27">
+        <v>732564</v>
       </c>
       <c r="W27">
-        <v>81403445</v>
+        <v>1006868064</v>
+      </c>
+      <c r="X27">
+        <v>742635</v>
       </c>
       <c r="Y27">
-        <v>75043808</v>
+        <v>1028067165</v>
+      </c>
+      <c r="Z27">
+        <v>821455</v>
       </c>
       <c r="AA27">
-        <v>97059719</v>
+        <v>1115656038</v>
       </c>
     </row>
     <row r="28" spans="1:27">
       <c r="A28">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28">
-        <v>674388</v>
+        <v>81</v>
       </c>
       <c r="E28">
-        <v>917396726</v>
-      </c>
-      <c r="F28">
-        <v>463597</v>
+        <v>738478055</v>
       </c>
       <c r="G28">
-        <v>632529491</v>
-      </c>
-      <c r="H28">
-        <v>686310</v>
+        <v>482419141</v>
       </c>
       <c r="I28">
-        <v>953940051</v>
-      </c>
-      <c r="J28">
-        <v>664336</v>
+        <v>688789235</v>
       </c>
       <c r="K28">
-        <v>924250990</v>
-      </c>
-      <c r="L28">
-        <v>799136</v>
+        <v>692130572</v>
       </c>
       <c r="M28">
-        <v>1110128581</v>
-      </c>
-      <c r="N28">
-        <v>637615</v>
+        <v>799833331</v>
       </c>
       <c r="O28">
-        <v>907174182</v>
-      </c>
-      <c r="P28">
-        <v>716589</v>
+        <v>712101688</v>
       </c>
       <c r="Q28">
-        <v>1019474639</v>
-      </c>
-      <c r="R28">
-        <v>758996</v>
+        <v>807324682</v>
       </c>
       <c r="S28">
-        <v>1069576599</v>
-      </c>
-      <c r="T28">
-        <v>678691</v>
+        <v>782847540</v>
       </c>
       <c r="U28">
-        <v>936635931</v>
-      </c>
-      <c r="V28">
-        <v>732564</v>
+        <v>727918881</v>
       </c>
       <c r="W28">
-        <v>1006868064</v>
-      </c>
-      <c r="X28">
-        <v>742635</v>
+        <v>749729436</v>
       </c>
       <c r="Y28">
-        <v>1028067165</v>
-      </c>
-      <c r="Z28">
-        <v>821455</v>
+        <v>792887494</v>
       </c>
       <c r="AA28">
-        <v>1115656038</v>
+        <v>833222659</v>
       </c>
     </row>
     <row r="29" spans="1:27">
       <c r="A29">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
@@ -2388,176 +2388,176 @@
       <c r="C29" t="s">
         <v>82</v>
       </c>
+      <c r="D29">
+        <v>188828</v>
+      </c>
       <c r="E29">
-        <v>738478055</v>
+        <v>248695066</v>
+      </c>
+      <c r="F29">
+        <v>105146</v>
       </c>
       <c r="G29">
-        <v>482419141</v>
+        <v>146002343</v>
+      </c>
+      <c r="H29">
+        <v>104809</v>
       </c>
       <c r="I29">
-        <v>688789235</v>
+        <v>168778597</v>
+      </c>
+      <c r="J29">
+        <v>104249</v>
       </c>
       <c r="K29">
-        <v>692130572</v>
+        <v>168684074</v>
+      </c>
+      <c r="L29">
+        <v>135555</v>
       </c>
       <c r="M29">
-        <v>799833331</v>
+        <v>216186381</v>
+      </c>
+      <c r="N29">
+        <v>146805</v>
       </c>
       <c r="O29">
-        <v>712101688</v>
+        <v>230459844</v>
+      </c>
+      <c r="P29">
+        <v>158271</v>
       </c>
       <c r="Q29">
-        <v>807324682</v>
+        <v>249902953</v>
+      </c>
+      <c r="R29">
+        <v>188619</v>
       </c>
       <c r="S29">
-        <v>782847540</v>
+        <v>289029184</v>
+      </c>
+      <c r="T29">
+        <v>157629</v>
       </c>
       <c r="U29">
-        <v>727918881</v>
+        <v>256918466</v>
+      </c>
+      <c r="V29">
+        <v>187321</v>
       </c>
       <c r="W29">
-        <v>749729436</v>
+        <v>320340698</v>
+      </c>
+      <c r="X29">
+        <v>194539</v>
       </c>
       <c r="Y29">
-        <v>792887494</v>
+        <v>328641956</v>
+      </c>
+      <c r="Z29">
+        <v>229668</v>
       </c>
       <c r="AA29">
-        <v>833222659</v>
+        <v>380030584</v>
       </c>
     </row>
     <row r="30" spans="1:27">
       <c r="A30">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30">
-        <v>188828</v>
+        <v>81</v>
       </c>
       <c r="E30">
-        <v>248695066</v>
-      </c>
-      <c r="F30">
-        <v>105146</v>
+        <v>88058196</v>
       </c>
       <c r="G30">
-        <v>146002343</v>
-      </c>
-      <c r="H30">
-        <v>104809</v>
+        <v>59489509</v>
       </c>
       <c r="I30">
-        <v>168778597</v>
-      </c>
-      <c r="J30">
-        <v>104249</v>
+        <v>83402527</v>
       </c>
       <c r="K30">
-        <v>168684074</v>
-      </c>
-      <c r="L30">
-        <v>135555</v>
+        <v>84451273</v>
       </c>
       <c r="M30">
-        <v>216186381</v>
-      </c>
-      <c r="N30">
-        <v>146805</v>
+        <v>94953241</v>
       </c>
       <c r="O30">
-        <v>230459844</v>
-      </c>
-      <c r="P30">
-        <v>158271</v>
+        <v>86444593</v>
       </c>
       <c r="Q30">
-        <v>249902953</v>
-      </c>
-      <c r="R30">
-        <v>188619</v>
+        <v>96374523</v>
       </c>
       <c r="S30">
-        <v>289029184</v>
-      </c>
-      <c r="T30">
-        <v>157629</v>
+        <v>98044393</v>
       </c>
       <c r="U30">
-        <v>256918466</v>
-      </c>
-      <c r="V30">
-        <v>187321</v>
+        <v>88779319</v>
       </c>
       <c r="W30">
-        <v>320340698</v>
-      </c>
-      <c r="X30">
-        <v>194539</v>
+        <v>94636481</v>
       </c>
       <c r="Y30">
-        <v>328641956</v>
-      </c>
-      <c r="Z30">
-        <v>229668</v>
+        <v>102249246</v>
       </c>
       <c r="AA30">
-        <v>380030584</v>
+        <v>105477075</v>
       </c>
     </row>
     <row r="31" spans="1:27">
       <c r="A31">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E31">
-        <v>88058196</v>
+        <v>219844704</v>
       </c>
       <c r="G31">
-        <v>59489509</v>
+        <v>122300375</v>
       </c>
       <c r="I31">
-        <v>83402527</v>
+        <v>193255767</v>
       </c>
       <c r="K31">
-        <v>84451273</v>
+        <v>232653367</v>
       </c>
       <c r="M31">
-        <v>94953241</v>
+        <v>259401982</v>
       </c>
       <c r="O31">
-        <v>86444593</v>
+        <v>232197850</v>
       </c>
       <c r="Q31">
-        <v>96374523</v>
+        <v>262626191</v>
       </c>
       <c r="S31">
-        <v>98044393</v>
+        <v>270704994</v>
       </c>
       <c r="U31">
-        <v>88779319</v>
+        <v>234463878</v>
       </c>
       <c r="W31">
-        <v>94636481</v>
+        <v>235914933</v>
       </c>
       <c r="Y31">
-        <v>102249246</v>
+        <v>231009914</v>
       </c>
       <c r="AA31">
-        <v>105477075</v>
+        <v>257341223</v>
       </c>
     </row>
     <row r="32" spans="1:27">
       <c r="A32">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
@@ -2565,129 +2565,129 @@
       <c r="C32" t="s">
         <v>82</v>
       </c>
+      <c r="D32">
+        <v>208647</v>
+      </c>
       <c r="E32">
-        <v>219844704</v>
+        <v>186132502</v>
+      </c>
+      <c r="F32">
+        <v>131887</v>
       </c>
       <c r="G32">
-        <v>122300375</v>
+        <v>119295038</v>
+      </c>
+      <c r="H32">
+        <v>200509</v>
       </c>
       <c r="I32">
-        <v>193255767</v>
+        <v>177407615</v>
+      </c>
+      <c r="J32">
+        <v>193180</v>
       </c>
       <c r="K32">
-        <v>232653367</v>
+        <v>171875889</v>
+      </c>
+      <c r="L32">
+        <v>234310</v>
       </c>
       <c r="M32">
-        <v>259401982</v>
+        <v>206719053</v>
+      </c>
+      <c r="N32">
+        <v>211498</v>
       </c>
       <c r="O32">
-        <v>232197850</v>
+        <v>186940811</v>
+      </c>
+      <c r="P32">
+        <v>233403</v>
       </c>
       <c r="Q32">
-        <v>262626191</v>
+        <v>204654020</v>
+      </c>
+      <c r="R32">
+        <v>222422</v>
       </c>
       <c r="S32">
-        <v>270704994</v>
+        <v>195760110</v>
+      </c>
+      <c r="T32">
+        <v>216020</v>
       </c>
       <c r="U32">
-        <v>234463878</v>
+        <v>186608855</v>
+      </c>
+      <c r="V32">
+        <v>225154</v>
       </c>
       <c r="W32">
-        <v>235914933</v>
+        <v>196431361</v>
+      </c>
+      <c r="X32">
+        <v>225671</v>
       </c>
       <c r="Y32">
-        <v>231009914</v>
+        <v>194465775</v>
+      </c>
+      <c r="Z32">
+        <v>240230</v>
       </c>
       <c r="AA32">
-        <v>257341223</v>
+        <v>209007037</v>
       </c>
     </row>
     <row r="33" spans="1:27">
       <c r="A33">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33" t="s">
-        <v>83</v>
-      </c>
-      <c r="D33">
-        <v>208647</v>
+        <v>81</v>
       </c>
       <c r="E33">
-        <v>186132502</v>
-      </c>
-      <c r="F33">
-        <v>131887</v>
+        <v>82731036</v>
       </c>
       <c r="G33">
-        <v>119295038</v>
-      </c>
-      <c r="H33">
-        <v>200509</v>
+        <v>47299123</v>
       </c>
       <c r="I33">
-        <v>177407615</v>
-      </c>
-      <c r="J33">
-        <v>193180</v>
+        <v>85002135</v>
       </c>
       <c r="K33">
-        <v>171875889</v>
-      </c>
-      <c r="L33">
-        <v>234310</v>
+        <v>85725970</v>
       </c>
       <c r="M33">
-        <v>206719053</v>
-      </c>
-      <c r="N33">
-        <v>211498</v>
+        <v>96310287</v>
       </c>
       <c r="O33">
-        <v>186940811</v>
-      </c>
-      <c r="P33">
-        <v>233403</v>
+        <v>88225514</v>
       </c>
       <c r="Q33">
-        <v>204654020</v>
-      </c>
-      <c r="R33">
-        <v>222422</v>
+        <v>96460400</v>
       </c>
       <c r="S33">
-        <v>195760110</v>
-      </c>
-      <c r="T33">
-        <v>216020</v>
+        <v>102753896</v>
       </c>
       <c r="U33">
-        <v>186608855</v>
-      </c>
-      <c r="V33">
-        <v>225154</v>
+        <v>105762059</v>
       </c>
       <c r="W33">
-        <v>196431361</v>
-      </c>
-      <c r="X33">
-        <v>225671</v>
+        <v>105112588</v>
       </c>
       <c r="Y33">
-        <v>194465775</v>
-      </c>
-      <c r="Z33">
-        <v>240230</v>
+        <v>100300181</v>
       </c>
       <c r="AA33">
-        <v>209007037</v>
+        <v>104997168</v>
       </c>
     </row>
     <row r="34" spans="1:27">
       <c r="A34">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
@@ -2695,353 +2695,353 @@
       <c r="C34" t="s">
         <v>82</v>
       </c>
+      <c r="D34">
+        <v>146255</v>
+      </c>
       <c r="E34">
-        <v>82731036</v>
+        <v>289570323</v>
+      </c>
+      <c r="F34">
+        <v>97431</v>
       </c>
       <c r="G34">
-        <v>47299123</v>
+        <v>191103409</v>
+      </c>
+      <c r="H34">
+        <v>127753</v>
       </c>
       <c r="I34">
-        <v>85002135</v>
+        <v>248671866</v>
+      </c>
+      <c r="J34">
+        <v>132859</v>
       </c>
       <c r="K34">
-        <v>85725970</v>
+        <v>270781652</v>
+      </c>
+      <c r="L34">
+        <v>156658</v>
       </c>
       <c r="M34">
-        <v>96310287</v>
+        <v>319048094</v>
+      </c>
+      <c r="N34">
+        <v>87474</v>
       </c>
       <c r="O34">
-        <v>88225514</v>
+        <v>179311872</v>
+      </c>
+      <c r="P34">
+        <v>110667</v>
       </c>
       <c r="Q34">
-        <v>96460400</v>
+        <v>219344586</v>
+      </c>
+      <c r="R34">
+        <v>131433</v>
       </c>
       <c r="S34">
-        <v>102753896</v>
+        <v>253832363</v>
+      </c>
+      <c r="T34">
+        <v>119341</v>
       </c>
       <c r="U34">
-        <v>105762059</v>
+        <v>217834675</v>
+      </c>
+      <c r="V34">
+        <v>129883</v>
       </c>
       <c r="W34">
-        <v>105112588</v>
+        <v>232811247</v>
+      </c>
+      <c r="X34">
+        <v>131875</v>
       </c>
       <c r="Y34">
-        <v>100300181</v>
+        <v>231984583</v>
+      </c>
+      <c r="Z34">
+        <v>133383</v>
       </c>
       <c r="AA34">
-        <v>104997168</v>
+        <v>233376725</v>
       </c>
     </row>
     <row r="35" spans="1:27">
       <c r="A35">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D35">
-        <v>146255</v>
+        <v>106348</v>
       </c>
       <c r="E35">
-        <v>289570323</v>
+        <v>222112831</v>
       </c>
       <c r="F35">
-        <v>97431</v>
+        <v>61459</v>
       </c>
       <c r="G35">
-        <v>191103409</v>
+        <v>131248577</v>
       </c>
       <c r="H35">
-        <v>127753</v>
+        <v>105436</v>
       </c>
       <c r="I35">
-        <v>248671866</v>
+        <v>220770478</v>
       </c>
       <c r="J35">
-        <v>132859</v>
+        <v>104604</v>
       </c>
       <c r="K35">
-        <v>270781652</v>
+        <v>231827618</v>
       </c>
       <c r="L35">
-        <v>156658</v>
+        <v>113709</v>
       </c>
       <c r="M35">
-        <v>319048094</v>
+        <v>250983615</v>
       </c>
       <c r="N35">
-        <v>87474</v>
+        <v>94721</v>
       </c>
       <c r="O35">
-        <v>179311872</v>
+        <v>219836225</v>
       </c>
       <c r="P35">
-        <v>110667</v>
+        <v>106485</v>
       </c>
       <c r="Q35">
-        <v>219344586</v>
+        <v>243862885</v>
       </c>
       <c r="R35">
-        <v>131433</v>
+        <v>114303</v>
       </c>
       <c r="S35">
-        <v>253832363</v>
+        <v>263812883</v>
       </c>
       <c r="T35">
-        <v>119341</v>
+        <v>96325</v>
       </c>
       <c r="U35">
-        <v>217834675</v>
+        <v>218101911</v>
       </c>
       <c r="V35">
-        <v>129883</v>
+        <v>111363</v>
       </c>
       <c r="W35">
-        <v>232811247</v>
+        <v>237466312</v>
       </c>
       <c r="X35">
-        <v>131875</v>
+        <v>111873</v>
       </c>
       <c r="Y35">
-        <v>231984583</v>
+        <v>234167358</v>
       </c>
       <c r="Z35">
-        <v>133383</v>
+        <v>116879</v>
       </c>
       <c r="AA35">
-        <v>233376725</v>
+        <v>238312729</v>
       </c>
     </row>
     <row r="36" spans="1:27">
       <c r="A36">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36" t="s">
-        <v>83</v>
-      </c>
-      <c r="D36">
-        <v>106348</v>
+        <v>81</v>
       </c>
       <c r="E36">
-        <v>222112831</v>
-      </c>
-      <c r="F36">
-        <v>61459</v>
+        <v>1173872400</v>
       </c>
       <c r="G36">
-        <v>131248577</v>
-      </c>
-      <c r="H36">
-        <v>105436</v>
+        <v>790138597</v>
       </c>
       <c r="I36">
-        <v>220770478</v>
-      </c>
-      <c r="J36">
-        <v>104604</v>
+        <v>1184535164</v>
       </c>
       <c r="K36">
-        <v>231827618</v>
-      </c>
-      <c r="L36">
-        <v>113709</v>
+        <v>1340608344</v>
       </c>
       <c r="M36">
-        <v>250983615</v>
-      </c>
-      <c r="N36">
-        <v>94721</v>
+        <v>1524525612</v>
       </c>
       <c r="O36">
-        <v>219836225</v>
-      </c>
-      <c r="P36">
-        <v>106485</v>
+        <v>1243506468</v>
       </c>
       <c r="Q36">
-        <v>243862885</v>
-      </c>
-      <c r="R36">
-        <v>114303</v>
+        <v>1195511486</v>
       </c>
       <c r="S36">
-        <v>263812883</v>
-      </c>
-      <c r="T36">
-        <v>96325</v>
+        <v>1239094767</v>
       </c>
       <c r="U36">
-        <v>218101911</v>
-      </c>
-      <c r="V36">
-        <v>111363</v>
+        <v>1254140896</v>
       </c>
       <c r="W36">
-        <v>237466312</v>
-      </c>
-      <c r="X36">
-        <v>111873</v>
+        <v>1316387571</v>
       </c>
       <c r="Y36">
-        <v>234167358</v>
-      </c>
-      <c r="Z36">
-        <v>116879</v>
+        <v>1289475499</v>
       </c>
       <c r="AA36">
-        <v>238312729</v>
+        <v>1330217118</v>
       </c>
     </row>
     <row r="37" spans="1:27">
       <c r="A37">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E37">
-        <v>1173872400</v>
+        <v>564954857</v>
       </c>
       <c r="G37">
-        <v>790138597</v>
+        <v>377561949</v>
       </c>
       <c r="I37">
-        <v>1184535164</v>
+        <v>610468283</v>
       </c>
       <c r="K37">
-        <v>1340608344</v>
+        <v>628989892</v>
       </c>
       <c r="M37">
-        <v>1524525612</v>
+        <v>676095841</v>
       </c>
       <c r="O37">
-        <v>1243506468</v>
+        <v>558704069</v>
       </c>
       <c r="Q37">
-        <v>1195511486</v>
+        <v>572963776</v>
       </c>
       <c r="S37">
-        <v>1239094767</v>
+        <v>603714244</v>
       </c>
       <c r="U37">
-        <v>1254140896</v>
+        <v>653070683</v>
       </c>
       <c r="W37">
-        <v>1316387571</v>
+        <v>631906454</v>
       </c>
       <c r="Y37">
-        <v>1289475499</v>
+        <v>604891983</v>
       </c>
       <c r="AA37">
-        <v>1330217118</v>
+        <v>643601847</v>
       </c>
     </row>
     <row r="38" spans="1:27">
       <c r="A38">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E38">
-        <v>564954857</v>
+        <v>174542317</v>
       </c>
       <c r="G38">
-        <v>377561949</v>
+        <v>117278654</v>
       </c>
       <c r="I38">
-        <v>610468283</v>
+        <v>139303492</v>
       </c>
       <c r="K38">
-        <v>628989892</v>
+        <v>131132663</v>
       </c>
       <c r="M38">
-        <v>676095841</v>
+        <v>158495644</v>
       </c>
       <c r="O38">
-        <v>558704069</v>
+        <v>126855644</v>
       </c>
       <c r="Q38">
-        <v>572963776</v>
+        <v>122748353</v>
       </c>
       <c r="S38">
-        <v>603714244</v>
+        <v>108992937</v>
       </c>
       <c r="U38">
-        <v>653070683</v>
+        <v>94476714</v>
       </c>
       <c r="W38">
-        <v>631906454</v>
+        <v>99012340</v>
       </c>
       <c r="Y38">
-        <v>604891983</v>
+        <v>104982235</v>
       </c>
       <c r="AA38">
-        <v>643601847</v>
+        <v>120063745</v>
       </c>
     </row>
     <row r="39" spans="1:27">
       <c r="A39">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E39">
-        <v>174542317</v>
+        <v>81638013</v>
       </c>
       <c r="G39">
-        <v>117278654</v>
+        <v>53699453</v>
       </c>
       <c r="I39">
-        <v>139303492</v>
+        <v>66442369</v>
       </c>
       <c r="K39">
-        <v>131132663</v>
+        <v>58467544</v>
       </c>
       <c r="M39">
-        <v>158495644</v>
+        <v>75295264</v>
       </c>
       <c r="O39">
-        <v>126855644</v>
+        <v>56797746</v>
       </c>
       <c r="Q39">
-        <v>122748353</v>
+        <v>77440106</v>
       </c>
       <c r="S39">
-        <v>108992937</v>
+        <v>72875274</v>
       </c>
       <c r="U39">
-        <v>94476714</v>
+        <v>79630902</v>
       </c>
       <c r="W39">
-        <v>99012340</v>
+        <v>84799981</v>
       </c>
       <c r="Y39">
-        <v>104982235</v>
+        <v>85147753</v>
       </c>
       <c r="AA39">
-        <v>120063745</v>
+        <v>87641377</v>
       </c>
     </row>
     <row r="40" spans="1:27">
       <c r="A40">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
@@ -3049,212 +3049,212 @@
       <c r="C40" t="s">
         <v>82</v>
       </c>
+      <c r="D40">
+        <v>356078</v>
+      </c>
       <c r="E40">
-        <v>81638013</v>
+        <v>140940471</v>
+      </c>
+      <c r="F40">
+        <v>463450</v>
       </c>
       <c r="G40">
-        <v>53699453</v>
+        <v>176389338</v>
+      </c>
+      <c r="H40">
+        <v>460914</v>
       </c>
       <c r="I40">
-        <v>66442369</v>
+        <v>178059876</v>
+      </c>
+      <c r="J40">
+        <v>408998</v>
       </c>
       <c r="K40">
-        <v>58467544</v>
+        <v>150794877</v>
+      </c>
+      <c r="L40">
+        <v>298081</v>
       </c>
       <c r="M40">
-        <v>75295264</v>
+        <v>112511187</v>
+      </c>
+      <c r="N40">
+        <v>456408</v>
       </c>
       <c r="O40">
-        <v>56797746</v>
+        <v>164977538</v>
+      </c>
+      <c r="P40">
+        <v>369028</v>
       </c>
       <c r="Q40">
-        <v>77440106</v>
+        <v>137991770</v>
+      </c>
+      <c r="R40">
+        <v>429547</v>
       </c>
       <c r="S40">
-        <v>72875274</v>
+        <v>161553063</v>
+      </c>
+      <c r="T40">
+        <v>308803</v>
       </c>
       <c r="U40">
-        <v>79630902</v>
+        <v>113934462</v>
+      </c>
+      <c r="V40">
+        <v>346153</v>
       </c>
       <c r="W40">
-        <v>84799981</v>
+        <v>122500320</v>
+      </c>
+      <c r="X40">
+        <v>448937</v>
       </c>
       <c r="Y40">
-        <v>85147753</v>
+        <v>152310917</v>
+      </c>
+      <c r="Z40">
+        <v>602245</v>
       </c>
       <c r="AA40">
-        <v>87641377</v>
+        <v>210833561</v>
       </c>
     </row>
     <row r="41" spans="1:27">
       <c r="A41">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D41">
-        <v>356078</v>
+        <v>1486502</v>
       </c>
       <c r="E41">
-        <v>140940471</v>
+        <v>1058616836</v>
       </c>
       <c r="F41">
-        <v>463450</v>
+        <v>1165117</v>
       </c>
       <c r="G41">
-        <v>176389338</v>
+        <v>823779742</v>
       </c>
       <c r="H41">
-        <v>460914</v>
+        <v>1435818</v>
       </c>
       <c r="I41">
-        <v>178059876</v>
+        <v>1043717909</v>
       </c>
       <c r="J41">
-        <v>408998</v>
+        <v>1282046</v>
       </c>
       <c r="K41">
-        <v>150794877</v>
+        <v>957967742</v>
       </c>
       <c r="L41">
-        <v>298081</v>
+        <v>1572285</v>
       </c>
       <c r="M41">
-        <v>112511187</v>
+        <v>1151158519</v>
       </c>
       <c r="N41">
-        <v>456408</v>
+        <v>1283189</v>
       </c>
       <c r="O41">
-        <v>164977538</v>
+        <v>933775512</v>
       </c>
       <c r="P41">
-        <v>369028</v>
+        <v>1186116</v>
       </c>
       <c r="Q41">
-        <v>137991770</v>
+        <v>918078696</v>
       </c>
       <c r="R41">
-        <v>429547</v>
+        <v>1340998</v>
       </c>
       <c r="S41">
-        <v>161553063</v>
+        <v>1020440092</v>
       </c>
       <c r="T41">
-        <v>308803</v>
+        <v>1547165</v>
       </c>
       <c r="U41">
-        <v>113934462</v>
+        <v>1064543106</v>
       </c>
       <c r="V41">
-        <v>346153</v>
+        <v>2412410</v>
       </c>
       <c r="W41">
-        <v>122500320</v>
+        <v>1508877331</v>
       </c>
       <c r="X41">
-        <v>448937</v>
+        <v>1462514</v>
       </c>
       <c r="Y41">
-        <v>152310917</v>
+        <v>1027784307</v>
       </c>
       <c r="Z41">
-        <v>602245</v>
+        <v>1554921</v>
       </c>
       <c r="AA41">
-        <v>210833561</v>
+        <v>1080665390</v>
       </c>
     </row>
     <row r="42" spans="1:27">
       <c r="A42">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42" t="s">
-        <v>83</v>
-      </c>
-      <c r="D42">
-        <v>1486502</v>
+        <v>81</v>
       </c>
       <c r="E42">
-        <v>1058616836</v>
-      </c>
-      <c r="F42">
-        <v>1165117</v>
+        <v>520234240</v>
       </c>
       <c r="G42">
-        <v>823779742</v>
-      </c>
-      <c r="H42">
-        <v>1435818</v>
+        <v>335403249</v>
       </c>
       <c r="I42">
-        <v>1043717909</v>
-      </c>
-      <c r="J42">
-        <v>1282046</v>
+        <v>478537741</v>
       </c>
       <c r="K42">
-        <v>957967742</v>
-      </c>
-      <c r="L42">
-        <v>1572285</v>
+        <v>539332237</v>
       </c>
       <c r="M42">
-        <v>1151158519</v>
-      </c>
-      <c r="N42">
-        <v>1283189</v>
+        <v>619060282</v>
       </c>
       <c r="O42">
-        <v>933775512</v>
-      </c>
-      <c r="P42">
-        <v>1186116</v>
+        <v>549941144</v>
       </c>
       <c r="Q42">
-        <v>918078696</v>
-      </c>
-      <c r="R42">
-        <v>1340998</v>
+        <v>588805209</v>
       </c>
       <c r="S42">
-        <v>1020440092</v>
-      </c>
-      <c r="T42">
-        <v>1547165</v>
+        <v>559558020</v>
       </c>
       <c r="U42">
-        <v>1064543106</v>
-      </c>
-      <c r="V42">
-        <v>2412410</v>
+        <v>525915025</v>
       </c>
       <c r="W42">
-        <v>1508877331</v>
-      </c>
-      <c r="X42">
-        <v>1462514</v>
+        <v>567077173</v>
       </c>
       <c r="Y42">
-        <v>1027784307</v>
-      </c>
-      <c r="Z42">
-        <v>1554921</v>
+        <v>583024172</v>
       </c>
       <c r="AA42">
-        <v>1080665390</v>
+        <v>609842971</v>
       </c>
     </row>
     <row r="43" spans="1:27">
       <c r="A43">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>68</v>
@@ -3262,723 +3262,676 @@
       <c r="C43" t="s">
         <v>82</v>
       </c>
+      <c r="D43">
+        <v>171662</v>
+      </c>
       <c r="E43">
-        <v>520234240</v>
+        <v>720478978</v>
+      </c>
+      <c r="F43">
+        <v>131337</v>
       </c>
       <c r="G43">
-        <v>335403249</v>
+        <v>560489057</v>
+      </c>
+      <c r="H43">
+        <v>186475</v>
       </c>
       <c r="I43">
-        <v>478537741</v>
+        <v>760945772</v>
+      </c>
+      <c r="J43">
+        <v>165030</v>
       </c>
       <c r="K43">
-        <v>539332237</v>
+        <v>699705389</v>
+      </c>
+      <c r="L43">
+        <v>207638</v>
       </c>
       <c r="M43">
-        <v>619060282</v>
+        <v>953824507</v>
+      </c>
+      <c r="N43">
+        <v>185004</v>
       </c>
       <c r="O43">
-        <v>549941144</v>
+        <v>859152769</v>
+      </c>
+      <c r="P43">
+        <v>190246</v>
       </c>
       <c r="Q43">
-        <v>588805209</v>
+        <v>867690697</v>
+      </c>
+      <c r="R43">
+        <v>187684</v>
       </c>
       <c r="S43">
-        <v>559558020</v>
+        <v>823616873</v>
+      </c>
+      <c r="T43">
+        <v>171463</v>
       </c>
       <c r="U43">
-        <v>525915025</v>
+        <v>753142650</v>
+      </c>
+      <c r="V43">
+        <v>180657</v>
       </c>
       <c r="W43">
-        <v>567077173</v>
+        <v>819729289</v>
+      </c>
+      <c r="X43">
+        <v>183037</v>
       </c>
       <c r="Y43">
-        <v>583024172</v>
+        <v>834857842</v>
+      </c>
+      <c r="Z43">
+        <v>192402</v>
       </c>
       <c r="AA43">
-        <v>609842971</v>
+        <v>902312960</v>
       </c>
     </row>
     <row r="44" spans="1:27">
       <c r="A44">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>69</v>
       </c>
       <c r="C44" t="s">
-        <v>83</v>
-      </c>
-      <c r="D44">
-        <v>171662</v>
+        <v>81</v>
       </c>
       <c r="E44">
-        <v>720478978</v>
-      </c>
-      <c r="F44">
-        <v>131337</v>
+        <v>265595257</v>
       </c>
       <c r="G44">
-        <v>560489057</v>
-      </c>
-      <c r="H44">
-        <v>186475</v>
+        <v>162606572</v>
       </c>
       <c r="I44">
-        <v>760945772</v>
-      </c>
-      <c r="J44">
-        <v>165030</v>
+        <v>249579992</v>
       </c>
       <c r="K44">
-        <v>699705389</v>
-      </c>
-      <c r="L44">
-        <v>207638</v>
+        <v>236075807</v>
       </c>
       <c r="M44">
-        <v>953824507</v>
-      </c>
-      <c r="N44">
-        <v>185004</v>
+        <v>314605601</v>
       </c>
       <c r="O44">
-        <v>859152769</v>
-      </c>
-      <c r="P44">
-        <v>190246</v>
+        <v>264816025</v>
       </c>
       <c r="Q44">
-        <v>867690697</v>
-      </c>
-      <c r="R44">
-        <v>187684</v>
+        <v>300748960</v>
       </c>
       <c r="S44">
-        <v>823616873</v>
-      </c>
-      <c r="T44">
-        <v>171463</v>
+        <v>285765379</v>
       </c>
       <c r="U44">
-        <v>753142650</v>
-      </c>
-      <c r="V44">
-        <v>180657</v>
+        <v>255537912</v>
       </c>
       <c r="W44">
-        <v>819729289</v>
-      </c>
-      <c r="X44">
-        <v>183037</v>
+        <v>259987460</v>
       </c>
       <c r="Y44">
-        <v>834857842</v>
-      </c>
-      <c r="Z44">
-        <v>192402</v>
+        <v>292582854</v>
       </c>
       <c r="AA44">
-        <v>902312960</v>
+        <v>308847820</v>
       </c>
     </row>
     <row r="45" spans="1:27">
       <c r="A45">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>70</v>
       </c>
       <c r="C45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E45">
-        <v>265595257</v>
+        <v>8551893506</v>
       </c>
       <c r="G45">
-        <v>162606572</v>
+        <v>7083181628</v>
       </c>
       <c r="I45">
-        <v>249579992</v>
+        <v>8423484752</v>
       </c>
       <c r="K45">
-        <v>236075807</v>
+        <v>7609241683</v>
       </c>
       <c r="M45">
-        <v>314605601</v>
+        <v>8910986998</v>
       </c>
       <c r="O45">
-        <v>264816025</v>
+        <v>8890464343</v>
       </c>
       <c r="Q45">
-        <v>300748960</v>
+        <v>10083981444</v>
       </c>
       <c r="S45">
-        <v>285765379</v>
+        <v>9811965038</v>
       </c>
       <c r="U45">
-        <v>255537912</v>
+        <v>9707688278</v>
       </c>
       <c r="W45">
-        <v>259987460</v>
+        <v>9409212378</v>
       </c>
       <c r="Y45">
-        <v>292582854</v>
+        <v>9258234337</v>
       </c>
       <c r="AA45">
-        <v>308847820</v>
+        <v>9322183671</v>
       </c>
     </row>
     <row r="46" spans="1:27">
       <c r="A46">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>71</v>
       </c>
       <c r="C46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E46">
-        <v>8551893506</v>
+        <v>187935832</v>
       </c>
       <c r="G46">
-        <v>7083181628</v>
+        <v>167678685</v>
       </c>
       <c r="I46">
-        <v>8423484752</v>
+        <v>228782003</v>
       </c>
       <c r="K46">
-        <v>7609241683</v>
+        <v>213418206</v>
       </c>
       <c r="M46">
-        <v>8910986998</v>
+        <v>258086335</v>
       </c>
       <c r="O46">
-        <v>8890464343</v>
+        <v>189762266</v>
       </c>
       <c r="Q46">
-        <v>10083981444</v>
+        <v>162025636</v>
       </c>
       <c r="S46">
-        <v>9811965038</v>
+        <v>140305108</v>
       </c>
       <c r="U46">
-        <v>9707688278</v>
+        <v>148943176</v>
       </c>
       <c r="W46">
-        <v>9409212378</v>
+        <v>159756856</v>
       </c>
       <c r="Y46">
-        <v>9258234337</v>
+        <v>163245783</v>
       </c>
       <c r="AA46">
-        <v>9322183671</v>
+        <v>208943470</v>
       </c>
     </row>
     <row r="47" spans="1:27">
       <c r="A47">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>72</v>
       </c>
       <c r="C47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E47">
-        <v>187935832</v>
+        <v>889933832</v>
       </c>
       <c r="G47">
-        <v>167678685</v>
+        <v>589365997</v>
       </c>
       <c r="I47">
-        <v>228782003</v>
+        <v>797933448</v>
       </c>
       <c r="K47">
-        <v>213418206</v>
+        <v>789305519</v>
       </c>
       <c r="M47">
-        <v>258086335</v>
+        <v>677704255</v>
       </c>
       <c r="O47">
-        <v>189762266</v>
+        <v>751686330</v>
       </c>
       <c r="Q47">
-        <v>162025636</v>
+        <v>923200179</v>
       </c>
       <c r="S47">
-        <v>140305108</v>
+        <v>909038996</v>
       </c>
       <c r="U47">
-        <v>148943176</v>
+        <v>1044739526</v>
       </c>
       <c r="W47">
-        <v>159756856</v>
+        <v>1071250576</v>
       </c>
       <c r="Y47">
-        <v>163245783</v>
+        <v>969459986</v>
       </c>
       <c r="AA47">
-        <v>208943470</v>
+        <v>973970092</v>
       </c>
     </row>
     <row r="48" spans="1:27">
       <c r="A48">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>73</v>
       </c>
       <c r="C48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E48">
-        <v>889933832</v>
+        <v>216519012</v>
       </c>
       <c r="G48">
-        <v>589365997</v>
+        <v>152756470</v>
       </c>
       <c r="I48">
-        <v>797933448</v>
+        <v>186256485</v>
       </c>
       <c r="K48">
-        <v>789305519</v>
+        <v>179264441</v>
       </c>
       <c r="M48">
-        <v>677704255</v>
+        <v>182448864</v>
       </c>
       <c r="O48">
-        <v>751686330</v>
+        <v>175728581</v>
       </c>
       <c r="Q48">
-        <v>923200179</v>
+        <v>188688029</v>
       </c>
       <c r="S48">
-        <v>909038996</v>
+        <v>186309329</v>
       </c>
       <c r="U48">
-        <v>1044739526</v>
+        <v>174892200</v>
       </c>
       <c r="W48">
-        <v>1071250576</v>
+        <v>191298594</v>
       </c>
       <c r="Y48">
-        <v>969459986</v>
+        <v>178063968</v>
       </c>
       <c r="AA48">
-        <v>973970092</v>
+        <v>195265139</v>
       </c>
     </row>
     <row r="49" spans="1:27">
       <c r="A49">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>74</v>
       </c>
       <c r="C49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E49">
-        <v>216519012</v>
+        <v>3987830287</v>
       </c>
       <c r="G49">
-        <v>152756470</v>
+        <v>2582515140</v>
       </c>
       <c r="I49">
-        <v>186256485</v>
+        <v>3779124689</v>
       </c>
       <c r="K49">
-        <v>179264441</v>
+        <v>3795390287</v>
       </c>
       <c r="M49">
-        <v>182448864</v>
+        <v>4453717380</v>
       </c>
       <c r="O49">
-        <v>175728581</v>
+        <v>3836190676</v>
       </c>
       <c r="Q49">
-        <v>188688029</v>
+        <v>4437029138</v>
       </c>
       <c r="S49">
-        <v>186309329</v>
+        <v>4537047241</v>
       </c>
       <c r="U49">
-        <v>174892200</v>
+        <v>4038482853</v>
       </c>
       <c r="W49">
-        <v>191298594</v>
+        <v>4295944755</v>
       </c>
       <c r="Y49">
-        <v>178063968</v>
+        <v>4431094308</v>
       </c>
       <c r="AA49">
-        <v>195265139</v>
+        <v>4685472325</v>
       </c>
     </row>
     <row r="50" spans="1:27">
       <c r="A50">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>75</v>
       </c>
       <c r="C50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E50">
-        <v>3987830287</v>
+        <v>270469218</v>
       </c>
       <c r="G50">
-        <v>2582515140</v>
+        <v>183570788</v>
       </c>
       <c r="I50">
-        <v>3779124689</v>
+        <v>243006321</v>
       </c>
       <c r="K50">
-        <v>3795390287</v>
+        <v>250832852</v>
       </c>
       <c r="M50">
-        <v>4453717380</v>
+        <v>302105629</v>
       </c>
       <c r="O50">
-        <v>3836190676</v>
+        <v>270816087</v>
       </c>
       <c r="Q50">
-        <v>4437029138</v>
+        <v>304668375</v>
       </c>
       <c r="S50">
-        <v>4537047241</v>
+        <v>330072399</v>
       </c>
       <c r="U50">
-        <v>4038482853</v>
+        <v>265119616</v>
       </c>
       <c r="W50">
-        <v>4295944755</v>
+        <v>300920507</v>
       </c>
       <c r="Y50">
-        <v>4431094308</v>
+        <v>318061004</v>
       </c>
       <c r="AA50">
-        <v>4685472325</v>
+        <v>348344743</v>
       </c>
     </row>
     <row r="51" spans="1:27">
       <c r="A51">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>76</v>
       </c>
       <c r="C51" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="D51">
+        <v>6712</v>
       </c>
       <c r="E51">
-        <v>270469218</v>
+        <v>139537549</v>
+      </c>
+      <c r="F51">
+        <v>9638</v>
       </c>
       <c r="G51">
-        <v>183570788</v>
+        <v>203223137</v>
+      </c>
+      <c r="H51">
+        <v>15857</v>
       </c>
       <c r="I51">
-        <v>243006321</v>
+        <v>330667671</v>
+      </c>
+      <c r="J51">
+        <v>11549</v>
       </c>
       <c r="K51">
-        <v>250832852</v>
+        <v>255654018</v>
+      </c>
+      <c r="L51">
+        <v>14913</v>
       </c>
       <c r="M51">
-        <v>302105629</v>
+        <v>310880701</v>
+      </c>
+      <c r="N51">
+        <v>15708</v>
       </c>
       <c r="O51">
-        <v>270816087</v>
+        <v>308058781</v>
+      </c>
+      <c r="P51">
+        <v>17233</v>
       </c>
       <c r="Q51">
-        <v>304668375</v>
+        <v>343821514</v>
+      </c>
+      <c r="R51">
+        <v>15061</v>
       </c>
       <c r="S51">
-        <v>330072399</v>
+        <v>298813687</v>
+      </c>
+      <c r="T51">
+        <v>18405</v>
       </c>
       <c r="U51">
-        <v>265119616</v>
+        <v>377776949</v>
+      </c>
+      <c r="V51">
+        <v>17706</v>
       </c>
       <c r="W51">
-        <v>300920507</v>
+        <v>374112694</v>
+      </c>
+      <c r="X51">
+        <v>17855</v>
       </c>
       <c r="Y51">
-        <v>318061004</v>
+        <v>375902061</v>
+      </c>
+      <c r="Z51">
+        <v>12881</v>
       </c>
       <c r="AA51">
-        <v>348344743</v>
+        <v>303571525</v>
       </c>
     </row>
     <row r="52" spans="1:27">
       <c r="A52">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>77</v>
       </c>
       <c r="C52" t="s">
-        <v>84</v>
-      </c>
-      <c r="D52">
-        <v>6712</v>
+        <v>81</v>
       </c>
       <c r="E52">
-        <v>139537549</v>
-      </c>
-      <c r="F52">
-        <v>9638</v>
+        <v>342450419</v>
       </c>
       <c r="G52">
-        <v>203223137</v>
-      </c>
-      <c r="H52">
-        <v>15857</v>
+        <v>260140638</v>
       </c>
       <c r="I52">
-        <v>330667671</v>
-      </c>
-      <c r="J52">
-        <v>11549</v>
+        <v>318246934</v>
       </c>
       <c r="K52">
-        <v>255654018</v>
-      </c>
-      <c r="L52">
-        <v>14913</v>
+        <v>379054663</v>
       </c>
       <c r="M52">
-        <v>310880701</v>
-      </c>
-      <c r="N52">
-        <v>15708</v>
+        <v>390528580</v>
       </c>
       <c r="O52">
-        <v>308058781</v>
-      </c>
-      <c r="P52">
-        <v>17233</v>
+        <v>363706278</v>
       </c>
       <c r="Q52">
-        <v>343821514</v>
-      </c>
-      <c r="R52">
-        <v>15061</v>
+        <v>440896821</v>
       </c>
       <c r="S52">
-        <v>298813687</v>
-      </c>
-      <c r="T52">
-        <v>18405</v>
+        <v>425781861</v>
       </c>
       <c r="U52">
-        <v>377776949</v>
-      </c>
-      <c r="V52">
-        <v>17706</v>
+        <v>447986951</v>
       </c>
       <c r="W52">
-        <v>374112694</v>
-      </c>
-      <c r="X52">
-        <v>17855</v>
+        <v>545061799</v>
       </c>
       <c r="Y52">
-        <v>375902061</v>
-      </c>
-      <c r="Z52">
-        <v>12881</v>
+        <v>474202741</v>
       </c>
       <c r="AA52">
-        <v>303571525</v>
+        <v>478983075</v>
       </c>
     </row>
     <row r="53" spans="1:27">
       <c r="A53">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>78</v>
       </c>
       <c r="C53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E53">
-        <v>342450419</v>
+        <v>48564630</v>
       </c>
       <c r="G53">
-        <v>260140638</v>
+        <v>29483489</v>
       </c>
       <c r="I53">
-        <v>318246934</v>
+        <v>45793222</v>
       </c>
       <c r="K53">
-        <v>379054663</v>
+        <v>42255248</v>
       </c>
       <c r="M53">
-        <v>390528580</v>
+        <v>59608106</v>
       </c>
       <c r="O53">
-        <v>363706278</v>
+        <v>53005474</v>
       </c>
       <c r="Q53">
-        <v>440896821</v>
+        <v>60924942</v>
       </c>
       <c r="S53">
-        <v>425781861</v>
+        <v>59878944</v>
       </c>
       <c r="U53">
-        <v>447986951</v>
+        <v>56917693</v>
       </c>
       <c r="W53">
-        <v>545061799</v>
+        <v>60067600</v>
       </c>
       <c r="Y53">
-        <v>474202741</v>
+        <v>55927222</v>
       </c>
       <c r="AA53">
-        <v>478983075</v>
+        <v>60646829</v>
       </c>
     </row>
     <row r="54" spans="1:27">
       <c r="A54">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>79</v>
       </c>
       <c r="C54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E54">
-        <v>48564630</v>
+        <v>120970776</v>
       </c>
       <c r="G54">
-        <v>29483489</v>
+        <v>80774811</v>
       </c>
       <c r="I54">
-        <v>45793222</v>
+        <v>152792728</v>
       </c>
       <c r="K54">
-        <v>42255248</v>
+        <v>96612857</v>
       </c>
       <c r="M54">
-        <v>59608106</v>
+        <v>131858576</v>
       </c>
       <c r="O54">
-        <v>53005474</v>
+        <v>128527724</v>
       </c>
       <c r="Q54">
-        <v>60924942</v>
+        <v>110869981</v>
       </c>
       <c r="S54">
-        <v>59878944</v>
+        <v>128781684</v>
       </c>
       <c r="U54">
-        <v>56917693</v>
+        <v>94406189</v>
       </c>
       <c r="W54">
-        <v>60067600</v>
+        <v>223696037</v>
       </c>
       <c r="Y54">
-        <v>55927222</v>
+        <v>147763670</v>
       </c>
       <c r="AA54">
-        <v>60646829</v>
+        <v>260012285</v>
       </c>
     </row>
     <row r="55" spans="1:27">
       <c r="A55">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>80</v>
       </c>
       <c r="C55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E55">
-        <v>120970776</v>
+        <v>1863177133</v>
       </c>
       <c r="G55">
-        <v>80774811</v>
+        <v>1354931529</v>
       </c>
       <c r="I55">
-        <v>152792728</v>
+        <v>1919797308</v>
       </c>
       <c r="K55">
-        <v>96612857</v>
+        <v>1739114589</v>
       </c>
       <c r="M55">
-        <v>131858576</v>
+        <v>1805083005</v>
       </c>
       <c r="O55">
-        <v>128527724</v>
+        <v>1633277468</v>
       </c>
       <c r="Q55">
-        <v>110869981</v>
+        <v>1815192934</v>
       </c>
       <c r="S55">
-        <v>128781684</v>
+        <v>1915260976</v>
       </c>
       <c r="U55">
-        <v>94406189</v>
+        <v>1735384068</v>
       </c>
       <c r="W55">
-        <v>223696037</v>
+        <v>1823952596</v>
       </c>
       <c r="Y55">
-        <v>147763670</v>
+        <v>1993843510</v>
       </c>
       <c r="AA55">
-        <v>260012285</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27">
-      <c r="A56">
-        <v>54</v>
-      </c>
-      <c r="B56" t="s">
-        <v>81</v>
-      </c>
-      <c r="C56" t="s">
-        <v>82</v>
-      </c>
-      <c r="E56">
-        <v>1863177133</v>
-      </c>
-      <c r="G56">
-        <v>1354931529</v>
-      </c>
-      <c r="I56">
-        <v>1919797308</v>
-      </c>
-      <c r="K56">
-        <v>1739114589</v>
-      </c>
-      <c r="M56">
-        <v>1805083005</v>
-      </c>
-      <c r="O56">
-        <v>1633277468</v>
-      </c>
-      <c r="Q56">
-        <v>1815192934</v>
-      </c>
-      <c r="S56">
-        <v>1915260976</v>
-      </c>
-      <c r="U56">
-        <v>1735384068</v>
-      </c>
-      <c r="W56">
-        <v>1823952596</v>
-      </c>
-      <c r="Y56">
-        <v>1993843510</v>
-      </c>
-      <c r="AA56">
         <v>2086161708</v>
       </c>
     </row>
@@ -3989,7 +3942,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA56"/>
+  <dimension ref="A1:AA55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4079,146 +4032,149 @@
       </c>
     </row>
     <row r="2" spans="1:27">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E2">
-        <v>26.1</v>
+        <v>31.1</v>
       </c>
       <c r="G2">
-        <v>13.4</v>
+        <v>-3.5</v>
       </c>
       <c r="I2">
-        <v>11.7</v>
+        <v>-6.7</v>
       </c>
       <c r="K2">
-        <v>12.3</v>
+        <v>-7.6</v>
       </c>
       <c r="M2">
-        <v>15.2</v>
+        <v>-4.6</v>
       </c>
       <c r="O2">
-        <v>14.9</v>
+        <v>-5.5</v>
       </c>
       <c r="Q2">
-        <v>17.3</v>
+        <v>-3.9</v>
       </c>
       <c r="S2">
-        <v>16.9</v>
+        <v>-3.4</v>
       </c>
       <c r="U2">
-        <v>16.5</v>
+        <v>-3.8</v>
       </c>
       <c r="W2">
-        <v>15.8</v>
+        <v>-2.4</v>
       </c>
       <c r="Y2">
-        <v>15.2</v>
+        <v>-1.6</v>
       </c>
       <c r="AA2">
-        <v>15.1</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="3" spans="1:27">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E3">
-        <v>31.1</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="G3">
-        <v>-3.5</v>
+        <v>-25</v>
       </c>
       <c r="I3">
-        <v>-6.7</v>
+        <v>-22.8</v>
       </c>
       <c r="K3">
-        <v>-7.6</v>
+        <v>-15.4</v>
       </c>
       <c r="M3">
-        <v>-4.6</v>
+        <v>-14.2</v>
       </c>
       <c r="O3">
-        <v>-5.5</v>
+        <v>-12.6</v>
       </c>
       <c r="Q3">
-        <v>-3.9</v>
+        <v>-10.4</v>
       </c>
       <c r="S3">
-        <v>-3.4</v>
+        <v>-6.9</v>
       </c>
       <c r="U3">
-        <v>-3.8</v>
+        <v>-4</v>
       </c>
       <c r="W3">
-        <v>-2.4</v>
+        <v>-2.5</v>
       </c>
       <c r="Y3">
-        <v>-1.6</v>
+        <v>-2.9</v>
       </c>
       <c r="AA3">
-        <v>1.8</v>
+        <v>-2.8</v>
       </c>
     </row>
     <row r="4" spans="1:27">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E4">
-        <v>-8.199999999999999</v>
+        <v>44.7</v>
       </c>
       <c r="G4">
-        <v>-25</v>
+        <v>23.2</v>
       </c>
       <c r="I4">
-        <v>-22.8</v>
+        <v>17.6</v>
       </c>
       <c r="K4">
-        <v>-15.4</v>
+        <v>13.6</v>
       </c>
       <c r="M4">
-        <v>-14.2</v>
+        <v>14.1</v>
       </c>
       <c r="O4">
-        <v>-12.6</v>
+        <v>15</v>
       </c>
       <c r="Q4">
-        <v>-10.4</v>
+        <v>13.2</v>
       </c>
       <c r="S4">
-        <v>-6.9</v>
+        <v>13</v>
       </c>
       <c r="U4">
-        <v>-4</v>
+        <v>14</v>
       </c>
       <c r="W4">
-        <v>-2.5</v>
+        <v>15.7</v>
       </c>
       <c r="Y4">
-        <v>-2.9</v>
+        <v>18.7</v>
       </c>
       <c r="AA4">
-        <v>-2.8</v>
+        <v>23.7</v>
       </c>
     </row>
     <row r="5" spans="1:27">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
@@ -4226,566 +4182,566 @@
       <c r="C5" t="s">
         <v>82</v>
       </c>
+      <c r="D5">
+        <v>-11.4</v>
+      </c>
       <c r="E5">
-        <v>44.7</v>
+        <v>-19.1</v>
+      </c>
+      <c r="F5">
+        <v>-18.6</v>
       </c>
       <c r="G5">
-        <v>23.2</v>
+        <v>-24.3</v>
+      </c>
+      <c r="H5">
+        <v>13.2</v>
       </c>
       <c r="I5">
-        <v>17.6</v>
+        <v>5.6</v>
+      </c>
+      <c r="J5">
+        <v>17.9</v>
       </c>
       <c r="K5">
-        <v>13.6</v>
+        <v>10.3</v>
+      </c>
+      <c r="L5">
+        <v>13.5</v>
       </c>
       <c r="M5">
-        <v>14.1</v>
+        <v>6.3</v>
+      </c>
+      <c r="N5">
+        <v>8.4</v>
       </c>
       <c r="O5">
-        <v>15</v>
+        <v>3.3</v>
+      </c>
+      <c r="P5">
+        <v>2.5</v>
       </c>
       <c r="Q5">
-        <v>13.2</v>
+        <v>0.6</v>
+      </c>
+      <c r="R5">
+        <v>-4.1</v>
       </c>
       <c r="S5">
-        <v>13</v>
+        <v>-2.2</v>
+      </c>
+      <c r="T5">
+        <v>-7.1</v>
       </c>
       <c r="U5">
-        <v>14</v>
+        <v>-2.2</v>
+      </c>
+      <c r="V5">
+        <v>-8.5</v>
       </c>
       <c r="W5">
-        <v>15.7</v>
+        <v>-1.1</v>
+      </c>
+      <c r="X5">
+        <v>-10.2</v>
       </c>
       <c r="Y5">
-        <v>18.7</v>
+        <v>-1.3</v>
+      </c>
+      <c r="Z5">
+        <v>-10</v>
       </c>
       <c r="AA5">
-        <v>23.7</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="6" spans="1:27">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6">
-        <v>-11.4</v>
+        <v>126.4</v>
       </c>
       <c r="E6">
-        <v>-19.1</v>
+        <v>80.7</v>
       </c>
       <c r="F6">
-        <v>-18.6</v>
+        <v>67.2</v>
       </c>
       <c r="G6">
-        <v>-24.3</v>
+        <v>26.4</v>
       </c>
       <c r="H6">
-        <v>13.2</v>
+        <v>22.8</v>
       </c>
       <c r="I6">
-        <v>5.6</v>
+        <v>-6.1</v>
       </c>
       <c r="J6">
-        <v>17.9</v>
+        <v>41.6</v>
       </c>
       <c r="K6">
-        <v>10.3</v>
+        <v>8</v>
       </c>
       <c r="L6">
-        <v>13.5</v>
+        <v>43.5</v>
       </c>
       <c r="M6">
-        <v>6.3</v>
+        <v>8.4</v>
       </c>
       <c r="N6">
-        <v>8.4</v>
+        <v>28.9</v>
       </c>
       <c r="O6">
-        <v>3.3</v>
+        <v>-1</v>
       </c>
       <c r="P6">
-        <v>2.5</v>
+        <v>24.8</v>
       </c>
       <c r="Q6">
-        <v>0.6</v>
+        <v>-2.8</v>
       </c>
       <c r="R6">
-        <v>-4.1</v>
+        <v>20.5</v>
       </c>
       <c r="S6">
-        <v>-2.2</v>
+        <v>-5.3</v>
       </c>
       <c r="T6">
-        <v>-7.1</v>
+        <v>37.9</v>
       </c>
       <c r="U6">
-        <v>-2.2</v>
+        <v>8.6</v>
       </c>
       <c r="V6">
-        <v>-8.5</v>
+        <v>34.9</v>
       </c>
       <c r="W6">
-        <v>-1.1</v>
+        <v>7.1</v>
       </c>
       <c r="X6">
-        <v>-10.2</v>
+        <v>34.8</v>
       </c>
       <c r="Y6">
-        <v>-1.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="Z6">
-        <v>-10</v>
+        <v>22.5</v>
       </c>
       <c r="AA6">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="7" spans="1:27">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7">
-        <v>126.4</v>
+        <v>24.9</v>
       </c>
       <c r="E7">
-        <v>80.7</v>
+        <v>-4.9</v>
       </c>
       <c r="F7">
-        <v>67.2</v>
+        <v>34.2</v>
       </c>
       <c r="G7">
-        <v>26.4</v>
+        <v>1.8</v>
       </c>
       <c r="H7">
-        <v>22.8</v>
+        <v>27</v>
       </c>
       <c r="I7">
-        <v>-6.1</v>
+        <v>-4.9</v>
       </c>
       <c r="J7">
-        <v>41.6</v>
+        <v>23.9</v>
       </c>
       <c r="K7">
-        <v>8</v>
+        <v>-7.2</v>
       </c>
       <c r="L7">
-        <v>43.5</v>
+        <v>30.7</v>
       </c>
       <c r="M7">
-        <v>8.4</v>
+        <v>-2.2</v>
       </c>
       <c r="N7">
+        <v>31.8</v>
+      </c>
+      <c r="O7">
+        <v>-0.9</v>
+      </c>
+      <c r="P7">
+        <v>34.3</v>
+      </c>
+      <c r="Q7">
+        <v>1.9</v>
+      </c>
+      <c r="R7">
+        <v>29.5</v>
+      </c>
+      <c r="S7">
+        <v>0.1</v>
+      </c>
+      <c r="T7">
+        <v>24.3</v>
+      </c>
+      <c r="U7">
+        <v>-2.3</v>
+      </c>
+      <c r="V7">
+        <v>24.7</v>
+      </c>
+      <c r="W7">
+        <v>-0.4</v>
+      </c>
+      <c r="X7">
+        <v>32.9</v>
+      </c>
+      <c r="Y7">
+        <v>7</v>
+      </c>
+      <c r="Z7">
         <v>28.9</v>
       </c>
-      <c r="O7">
-        <v>-1</v>
-      </c>
-      <c r="P7">
-        <v>24.8</v>
-      </c>
-      <c r="Q7">
-        <v>-2.8</v>
-      </c>
-      <c r="R7">
-        <v>20.5</v>
-      </c>
-      <c r="S7">
-        <v>-5.3</v>
-      </c>
-      <c r="T7">
-        <v>37.9</v>
-      </c>
-      <c r="U7">
-        <v>8.6</v>
-      </c>
-      <c r="V7">
-        <v>34.9</v>
-      </c>
-      <c r="W7">
-        <v>7.1</v>
-      </c>
-      <c r="X7">
-        <v>34.8</v>
-      </c>
-      <c r="Y7">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="Z7">
-        <v>22.5</v>
-      </c>
       <c r="AA7">
-        <v>1.2</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="8" spans="1:27">
       <c r="A8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D8">
-        <v>24.9</v>
+        <v>208.8</v>
       </c>
       <c r="E8">
-        <v>-4.9</v>
+        <v>164.5</v>
       </c>
       <c r="F8">
-        <v>34.2</v>
+        <v>12.4</v>
       </c>
       <c r="G8">
-        <v>1.8</v>
+        <v>-9.5</v>
       </c>
       <c r="H8">
-        <v>27</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I8">
-        <v>-4.9</v>
+        <v>-14.4</v>
       </c>
       <c r="J8">
-        <v>23.9</v>
+        <v>3.5</v>
       </c>
       <c r="K8">
-        <v>-7.2</v>
+        <v>-18.7</v>
       </c>
       <c r="L8">
-        <v>30.7</v>
+        <v>13.9</v>
       </c>
       <c r="M8">
-        <v>-2.2</v>
+        <v>-10.2</v>
       </c>
       <c r="N8">
-        <v>31.8</v>
+        <v>-4.4</v>
       </c>
       <c r="O8">
-        <v>-0.9</v>
+        <v>-22.6</v>
       </c>
       <c r="P8">
-        <v>34.3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="Q8">
-        <v>1.9</v>
+        <v>-11.9</v>
       </c>
       <c r="R8">
-        <v>29.5</v>
+        <v>5.2</v>
       </c>
       <c r="S8">
-        <v>0.1</v>
+        <v>-13.9</v>
       </c>
       <c r="T8">
-        <v>24.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="U8">
-        <v>-2.3</v>
+        <v>-11.7</v>
       </c>
       <c r="V8">
-        <v>24.7</v>
+        <v>12.8</v>
       </c>
       <c r="W8">
-        <v>-0.4</v>
+        <v>-8.1</v>
       </c>
       <c r="X8">
-        <v>32.9</v>
+        <v>19.6</v>
       </c>
       <c r="Y8">
-        <v>7</v>
+        <v>-3</v>
       </c>
       <c r="Z8">
-        <v>28.9</v>
+        <v>19.4</v>
       </c>
       <c r="AA8">
-        <v>6.1</v>
+        <v>-3.6</v>
       </c>
     </row>
     <row r="9" spans="1:27">
       <c r="A9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9">
-        <v>208.8</v>
+        <v>81</v>
       </c>
       <c r="E9">
-        <v>164.5</v>
-      </c>
-      <c r="F9">
-        <v>12.4</v>
+        <v>16.9</v>
       </c>
       <c r="G9">
-        <v>-9.5</v>
-      </c>
-      <c r="H9">
-        <v>8.300000000000001</v>
+        <v>-10.1</v>
       </c>
       <c r="I9">
-        <v>-14.4</v>
-      </c>
-      <c r="J9">
-        <v>3.5</v>
+        <v>-6.6</v>
       </c>
       <c r="K9">
-        <v>-18.7</v>
-      </c>
-      <c r="L9">
-        <v>13.9</v>
+        <v>-1.9</v>
       </c>
       <c r="M9">
-        <v>-10.2</v>
-      </c>
-      <c r="N9">
-        <v>-4.4</v>
+        <v>0.9</v>
       </c>
       <c r="O9">
-        <v>-22.6</v>
-      </c>
-      <c r="P9">
-        <v>8.699999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="Q9">
-        <v>-11.9</v>
-      </c>
-      <c r="R9">
-        <v>5.2</v>
+        <v>2.4</v>
       </c>
       <c r="S9">
-        <v>-13.9</v>
-      </c>
-      <c r="T9">
-        <v>8.300000000000001</v>
+        <v>4.8</v>
       </c>
       <c r="U9">
-        <v>-11.7</v>
-      </c>
-      <c r="V9">
-        <v>12.8</v>
+        <v>2.4</v>
       </c>
       <c r="W9">
-        <v>-8.1</v>
-      </c>
-      <c r="X9">
-        <v>19.6</v>
+        <v>2.8</v>
       </c>
       <c r="Y9">
-        <v>-3</v>
-      </c>
-      <c r="Z9">
-        <v>19.4</v>
+        <v>4</v>
       </c>
       <c r="AA9">
-        <v>-3.6</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="10" spans="1:27">
       <c r="A10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E10">
-        <v>16.9</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="G10">
-        <v>-10.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I10">
-        <v>-6.6</v>
+        <v>3.9</v>
       </c>
       <c r="K10">
-        <v>-1.9</v>
+        <v>0.7</v>
       </c>
       <c r="M10">
-        <v>0.9</v>
+        <v>5.4</v>
       </c>
       <c r="O10">
-        <v>1.1</v>
+        <v>7.8</v>
       </c>
       <c r="Q10">
-        <v>2.4</v>
+        <v>10.3</v>
       </c>
       <c r="S10">
-        <v>4.8</v>
+        <v>10.9</v>
       </c>
       <c r="U10">
-        <v>2.4</v>
+        <v>11.9</v>
       </c>
       <c r="W10">
-        <v>2.8</v>
+        <v>12</v>
       </c>
       <c r="Y10">
-        <v>4</v>
+        <v>13.1</v>
       </c>
       <c r="AA10">
-        <v>4.5</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="11" spans="1:27">
       <c r="A11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E11">
-        <v>64.59999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="G11">
-        <v>8.699999999999999</v>
+        <v>-6.3</v>
       </c>
       <c r="I11">
-        <v>3.9</v>
+        <v>-12.6</v>
       </c>
       <c r="K11">
-        <v>0.7</v>
+        <v>-10.2</v>
       </c>
       <c r="M11">
+        <v>-7.5</v>
+      </c>
+      <c r="O11">
+        <v>-6.2</v>
+      </c>
+      <c r="Q11">
+        <v>-2</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>6</v>
+      </c>
+      <c r="W11">
         <v>5.4</v>
       </c>
-      <c r="O11">
-        <v>7.8</v>
-      </c>
-      <c r="Q11">
-        <v>10.3</v>
-      </c>
-      <c r="S11">
-        <v>10.9</v>
-      </c>
-      <c r="U11">
-        <v>11.9</v>
-      </c>
-      <c r="W11">
-        <v>12</v>
-      </c>
       <c r="Y11">
-        <v>13.1</v>
+        <v>7.9</v>
       </c>
       <c r="AA11">
-        <v>17.4</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="12" spans="1:27">
       <c r="A12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E12">
-        <v>9.6</v>
+        <v>5.7</v>
       </c>
       <c r="G12">
-        <v>-6.3</v>
+        <v>-0.7</v>
       </c>
       <c r="I12">
-        <v>-12.6</v>
+        <v>1.8</v>
       </c>
       <c r="K12">
-        <v>-10.2</v>
+        <v>6.9</v>
       </c>
       <c r="M12">
-        <v>-7.5</v>
+        <v>8.6</v>
       </c>
       <c r="O12">
-        <v>-6.2</v>
+        <v>7.9</v>
       </c>
       <c r="Q12">
-        <v>-2</v>
+        <v>2.2</v>
       </c>
       <c r="S12">
-        <v>1</v>
+        <v>-2.1</v>
       </c>
       <c r="U12">
-        <v>6</v>
+        <v>-5.2</v>
       </c>
       <c r="W12">
-        <v>5.4</v>
+        <v>-5.8</v>
       </c>
       <c r="Y12">
-        <v>7.9</v>
+        <v>-3.3</v>
       </c>
       <c r="AA12">
-        <v>8.6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:27">
       <c r="A13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E13">
-        <v>5.7</v>
+        <v>442.5</v>
       </c>
       <c r="G13">
-        <v>-0.7</v>
+        <v>219.9</v>
       </c>
       <c r="I13">
-        <v>1.8</v>
+        <v>171.3</v>
       </c>
       <c r="K13">
-        <v>6.9</v>
+        <v>109.7</v>
       </c>
       <c r="M13">
-        <v>8.6</v>
+        <v>204.1</v>
       </c>
       <c r="O13">
-        <v>7.9</v>
+        <v>121.2</v>
       </c>
       <c r="Q13">
-        <v>2.2</v>
+        <v>71</v>
       </c>
       <c r="S13">
-        <v>-2.1</v>
+        <v>46.2</v>
       </c>
       <c r="U13">
-        <v>-5.2</v>
+        <v>42.3</v>
       </c>
       <c r="W13">
-        <v>-5.8</v>
+        <v>35.7</v>
       </c>
       <c r="Y13">
-        <v>-3.3</v>
+        <v>27.8</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="14" spans="1:27">
       <c r="A14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
@@ -4793,649 +4749,649 @@
       <c r="C14" t="s">
         <v>82</v>
       </c>
+      <c r="D14">
+        <v>21.6</v>
+      </c>
       <c r="E14">
-        <v>442.5</v>
+        <v>28.9</v>
+      </c>
+      <c r="F14">
+        <v>34</v>
       </c>
       <c r="G14">
-        <v>219.9</v>
+        <v>39.7</v>
+      </c>
+      <c r="H14">
+        <v>46</v>
       </c>
       <c r="I14">
-        <v>171.3</v>
+        <v>47.6</v>
+      </c>
+      <c r="J14">
+        <v>32.4</v>
       </c>
       <c r="K14">
-        <v>109.7</v>
+        <v>32.4</v>
+      </c>
+      <c r="L14">
+        <v>35.1</v>
       </c>
       <c r="M14">
-        <v>204.1</v>
+        <v>36.8</v>
+      </c>
+      <c r="N14">
+        <v>31.7</v>
       </c>
       <c r="O14">
-        <v>121.2</v>
+        <v>31.2</v>
+      </c>
+      <c r="P14">
+        <v>30.8</v>
       </c>
       <c r="Q14">
-        <v>71</v>
+        <v>31.5</v>
+      </c>
+      <c r="R14">
+        <v>28.6</v>
       </c>
       <c r="S14">
-        <v>46.2</v>
+        <v>29.3</v>
+      </c>
+      <c r="T14">
+        <v>26.7</v>
       </c>
       <c r="U14">
-        <v>42.3</v>
+        <v>25.2</v>
+      </c>
+      <c r="V14">
+        <v>29.9</v>
       </c>
       <c r="W14">
-        <v>35.7</v>
+        <v>27.5</v>
+      </c>
+      <c r="X14">
+        <v>27.9</v>
       </c>
       <c r="Y14">
-        <v>27.8</v>
+        <v>24.3</v>
+      </c>
+      <c r="Z14">
+        <v>24.6</v>
       </c>
       <c r="AA14">
-        <v>27.2</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="15" spans="1:27">
       <c r="A15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D15">
-        <v>21.6</v>
+        <v>209</v>
       </c>
       <c r="E15">
-        <v>28.9</v>
+        <v>150</v>
       </c>
       <c r="F15">
-        <v>34</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="G15">
-        <v>39.7</v>
+        <v>60.1</v>
       </c>
       <c r="H15">
-        <v>46</v>
+        <v>76.7</v>
       </c>
       <c r="I15">
-        <v>47.6</v>
+        <v>36.8</v>
       </c>
       <c r="J15">
-        <v>32.4</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="K15">
-        <v>32.4</v>
+        <v>34.8</v>
       </c>
       <c r="L15">
-        <v>35.1</v>
+        <v>60.9</v>
       </c>
       <c r="M15">
-        <v>36.8</v>
+        <v>30</v>
       </c>
       <c r="N15">
-        <v>31.7</v>
+        <v>39.2</v>
       </c>
       <c r="O15">
-        <v>31.2</v>
+        <v>15.1</v>
       </c>
       <c r="P15">
-        <v>30.8</v>
+        <v>36.9</v>
       </c>
       <c r="Q15">
-        <v>31.5</v>
+        <v>16.1</v>
       </c>
       <c r="R15">
-        <v>28.6</v>
+        <v>32.7</v>
       </c>
       <c r="S15">
-        <v>29.3</v>
+        <v>16</v>
       </c>
       <c r="T15">
-        <v>26.7</v>
+        <v>32.2</v>
       </c>
       <c r="U15">
-        <v>25.2</v>
+        <v>14.9</v>
       </c>
       <c r="V15">
-        <v>29.9</v>
+        <v>31.1</v>
       </c>
       <c r="W15">
-        <v>27.5</v>
+        <v>13.1</v>
       </c>
       <c r="X15">
-        <v>27.9</v>
+        <v>25.8</v>
       </c>
       <c r="Y15">
-        <v>24.3</v>
+        <v>7.6</v>
       </c>
       <c r="Z15">
-        <v>24.6</v>
+        <v>24.9</v>
       </c>
       <c r="AA15">
-        <v>20.5</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="16" spans="1:27">
       <c r="A16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D16">
-        <v>209</v>
+        <v>24.8</v>
       </c>
       <c r="E16">
-        <v>150</v>
+        <v>21.1</v>
       </c>
       <c r="F16">
-        <v>94.09999999999999</v>
+        <v>13.3</v>
       </c>
       <c r="G16">
-        <v>60.1</v>
+        <v>10.4</v>
       </c>
       <c r="H16">
-        <v>76.7</v>
+        <v>23.6</v>
       </c>
       <c r="I16">
-        <v>36.8</v>
+        <v>21</v>
       </c>
       <c r="J16">
-        <v>73.40000000000001</v>
+        <v>21.1</v>
       </c>
       <c r="K16">
-        <v>34.8</v>
+        <v>20.2</v>
       </c>
       <c r="L16">
-        <v>60.9</v>
+        <v>17.4</v>
       </c>
       <c r="M16">
-        <v>30</v>
+        <v>19.5</v>
       </c>
       <c r="N16">
-        <v>39.2</v>
+        <v>16</v>
       </c>
       <c r="O16">
-        <v>15.1</v>
+        <v>19.3</v>
       </c>
       <c r="P16">
-        <v>36.9</v>
+        <v>15.9</v>
       </c>
       <c r="Q16">
-        <v>16.1</v>
+        <v>19.7</v>
       </c>
       <c r="R16">
-        <v>32.7</v>
+        <v>23.3</v>
       </c>
       <c r="S16">
-        <v>16</v>
+        <v>26.7</v>
       </c>
       <c r="T16">
-        <v>32.2</v>
+        <v>31.9</v>
       </c>
       <c r="U16">
-        <v>14.9</v>
+        <v>32.5</v>
       </c>
       <c r="V16">
-        <v>31.1</v>
+        <v>26.6</v>
       </c>
       <c r="W16">
-        <v>13.1</v>
+        <v>23.1</v>
       </c>
       <c r="X16">
-        <v>25.8</v>
+        <v>24.2</v>
       </c>
       <c r="Y16">
-        <v>7.6</v>
+        <v>19.4</v>
       </c>
       <c r="Z16">
-        <v>24.9</v>
+        <v>20</v>
       </c>
       <c r="AA16">
-        <v>6.6</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="17" spans="1:27">
       <c r="A17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D17">
-        <v>24.8</v>
+        <v>-26.9</v>
       </c>
       <c r="E17">
-        <v>21.1</v>
+        <v>-35.5</v>
       </c>
       <c r="F17">
-        <v>13.3</v>
+        <v>-19.5</v>
       </c>
       <c r="G17">
-        <v>10.4</v>
+        <v>-26.3</v>
       </c>
       <c r="H17">
-        <v>23.6</v>
+        <v>-1.7</v>
       </c>
       <c r="I17">
-        <v>21</v>
+        <v>-6.5</v>
       </c>
       <c r="J17">
-        <v>21.1</v>
+        <v>13.6</v>
       </c>
       <c r="K17">
-        <v>20.2</v>
+        <v>10.7</v>
       </c>
       <c r="L17">
-        <v>17.4</v>
+        <v>12</v>
       </c>
       <c r="M17">
-        <v>19.5</v>
+        <v>11.7</v>
       </c>
       <c r="N17">
-        <v>16</v>
+        <v>4.3</v>
       </c>
       <c r="O17">
-        <v>19.3</v>
+        <v>5.6</v>
       </c>
       <c r="P17">
-        <v>15.9</v>
+        <v>1.1</v>
       </c>
       <c r="Q17">
-        <v>19.7</v>
+        <v>2.1</v>
       </c>
       <c r="R17">
-        <v>23.3</v>
+        <v>-4.3</v>
       </c>
       <c r="S17">
-        <v>26.7</v>
+        <v>-6.1</v>
       </c>
       <c r="T17">
-        <v>31.9</v>
+        <v>-6.1</v>
       </c>
       <c r="U17">
-        <v>32.5</v>
+        <v>-10.7</v>
       </c>
       <c r="V17">
-        <v>26.6</v>
+        <v>-3.6</v>
       </c>
       <c r="W17">
-        <v>23.1</v>
+        <v>-10.1</v>
       </c>
       <c r="X17">
-        <v>24.2</v>
+        <v>-1.3</v>
       </c>
       <c r="Y17">
-        <v>19.4</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="Z17">
-        <v>20</v>
+        <v>3.6</v>
       </c>
       <c r="AA17">
-        <v>14.6</v>
+        <v>-4.6</v>
       </c>
     </row>
     <row r="18" spans="1:27">
       <c r="A18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D18">
-        <v>-26.9</v>
+        <v>10.3</v>
       </c>
       <c r="E18">
-        <v>-35.5</v>
+        <v>12.5</v>
       </c>
       <c r="F18">
-        <v>-19.5</v>
+        <v>30.1</v>
       </c>
       <c r="G18">
-        <v>-26.3</v>
+        <v>23.3</v>
       </c>
       <c r="H18">
-        <v>-1.7</v>
+        <v>27.5</v>
       </c>
       <c r="I18">
-        <v>-6.5</v>
+        <v>17.4</v>
       </c>
       <c r="J18">
-        <v>13.6</v>
+        <v>21.1</v>
       </c>
       <c r="K18">
-        <v>10.7</v>
+        <v>12.5</v>
       </c>
       <c r="L18">
-        <v>12</v>
+        <v>25.9</v>
       </c>
       <c r="M18">
-        <v>11.7</v>
+        <v>21.3</v>
       </c>
       <c r="N18">
-        <v>4.3</v>
+        <v>35.8</v>
       </c>
       <c r="O18">
-        <v>5.6</v>
+        <v>34.2</v>
       </c>
       <c r="P18">
-        <v>1.1</v>
+        <v>24</v>
       </c>
       <c r="Q18">
-        <v>2.1</v>
+        <v>30.9</v>
       </c>
       <c r="R18">
-        <v>-4.3</v>
+        <v>26.7</v>
       </c>
       <c r="S18">
-        <v>-6.1</v>
+        <v>35.6</v>
       </c>
       <c r="T18">
-        <v>-6.1</v>
+        <v>24.7</v>
       </c>
       <c r="U18">
-        <v>-10.7</v>
+        <v>33.8</v>
       </c>
       <c r="V18">
-        <v>-3.6</v>
+        <v>25.6</v>
       </c>
       <c r="W18">
-        <v>-10.1</v>
+        <v>34.3</v>
       </c>
       <c r="X18">
-        <v>-1.3</v>
+        <v>27.4</v>
       </c>
       <c r="Y18">
-        <v>-8.800000000000001</v>
+        <v>35.9</v>
       </c>
       <c r="Z18">
-        <v>3.6</v>
+        <v>24</v>
       </c>
       <c r="AA18">
-        <v>-4.6</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="19" spans="1:27">
       <c r="A19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19">
-        <v>10.3</v>
+        <v>81</v>
       </c>
       <c r="E19">
-        <v>12.5</v>
-      </c>
-      <c r="F19">
-        <v>30.1</v>
+        <v>90.3</v>
       </c>
       <c r="G19">
-        <v>23.3</v>
-      </c>
-      <c r="H19">
-        <v>27.5</v>
+        <v>98.3</v>
       </c>
       <c r="I19">
-        <v>17.4</v>
-      </c>
-      <c r="J19">
-        <v>21.1</v>
+        <v>62.6</v>
       </c>
       <c r="K19">
-        <v>12.5</v>
-      </c>
-      <c r="L19">
-        <v>25.9</v>
+        <v>33</v>
       </c>
       <c r="M19">
-        <v>21.3</v>
-      </c>
-      <c r="N19">
-        <v>35.8</v>
+        <v>29</v>
       </c>
       <c r="O19">
-        <v>34.2</v>
-      </c>
-      <c r="P19">
-        <v>24</v>
+        <v>18.7</v>
       </c>
       <c r="Q19">
-        <v>30.9</v>
-      </c>
-      <c r="R19">
-        <v>26.7</v>
+        <v>11.4</v>
       </c>
       <c r="S19">
-        <v>35.6</v>
-      </c>
-      <c r="T19">
-        <v>24.7</v>
+        <v>13.4</v>
       </c>
       <c r="U19">
-        <v>33.8</v>
-      </c>
-      <c r="V19">
-        <v>25.6</v>
+        <v>12.4</v>
       </c>
       <c r="W19">
-        <v>34.3</v>
-      </c>
-      <c r="X19">
-        <v>27.4</v>
+        <v>3</v>
       </c>
       <c r="Y19">
-        <v>35.9</v>
-      </c>
-      <c r="Z19">
-        <v>24</v>
+        <v>1.9</v>
       </c>
       <c r="AA19">
-        <v>31.5</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="20" spans="1:27">
       <c r="A20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E20">
-        <v>90.3</v>
+        <v>41.2</v>
       </c>
       <c r="G20">
-        <v>98.3</v>
+        <v>16</v>
       </c>
       <c r="I20">
-        <v>62.6</v>
+        <v>4.7</v>
       </c>
       <c r="K20">
-        <v>33</v>
+        <v>6.8</v>
       </c>
       <c r="M20">
-        <v>29</v>
+        <v>9.1</v>
       </c>
       <c r="O20">
-        <v>18.7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="Q20">
         <v>11.4</v>
       </c>
       <c r="S20">
-        <v>13.4</v>
+        <v>12.2</v>
       </c>
       <c r="U20">
-        <v>12.4</v>
+        <v>10.6</v>
       </c>
       <c r="W20">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="Y20">
-        <v>1.9</v>
+        <v>7.8</v>
       </c>
       <c r="AA20">
-        <v>3.9</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="21" spans="1:27">
       <c r="A21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E21">
-        <v>41.2</v>
+        <v>33.2</v>
       </c>
       <c r="G21">
-        <v>16</v>
+        <v>3.5</v>
       </c>
       <c r="I21">
-        <v>4.7</v>
+        <v>-0.3</v>
       </c>
       <c r="K21">
-        <v>6.8</v>
+        <v>0.6</v>
       </c>
       <c r="M21">
-        <v>9.1</v>
+        <v>1.3</v>
       </c>
       <c r="O21">
-        <v>9.300000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="Q21">
-        <v>11.4</v>
+        <v>3</v>
       </c>
       <c r="S21">
-        <v>12.2</v>
+        <v>2.4</v>
       </c>
       <c r="U21">
-        <v>10.6</v>
+        <v>1.4</v>
       </c>
       <c r="W21">
-        <v>9</v>
+        <v>1.2</v>
       </c>
       <c r="Y21">
-        <v>7.8</v>
+        <v>1.3</v>
       </c>
       <c r="AA21">
-        <v>7.3</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="22" spans="1:27">
       <c r="A22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E22">
-        <v>33.2</v>
+        <v>31.5</v>
       </c>
       <c r="G22">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I22">
-        <v>-0.3</v>
+        <v>-2.3</v>
       </c>
       <c r="K22">
-        <v>0.6</v>
+        <v>3.7</v>
       </c>
       <c r="M22">
-        <v>1.3</v>
+        <v>5.8</v>
       </c>
       <c r="O22">
-        <v>1.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q22">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="S22">
-        <v>2.4</v>
+        <v>5.1</v>
       </c>
       <c r="U22">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="W22">
-        <v>1.2</v>
+        <v>5.4</v>
       </c>
       <c r="Y22">
-        <v>1.3</v>
+        <v>6</v>
       </c>
       <c r="AA22">
-        <v>1.7</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="23" spans="1:27">
       <c r="A23">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E23">
-        <v>31.5</v>
+        <v>40.5</v>
       </c>
       <c r="G23">
-        <v>3</v>
+        <v>16.5</v>
       </c>
       <c r="I23">
-        <v>-2.3</v>
+        <v>15.5</v>
       </c>
       <c r="K23">
-        <v>3.7</v>
+        <v>19.8</v>
       </c>
       <c r="M23">
-        <v>5.8</v>
+        <v>24.4</v>
       </c>
       <c r="O23">
-        <v>3.3</v>
+        <v>24.7</v>
       </c>
       <c r="Q23">
-        <v>3.3</v>
+        <v>26</v>
       </c>
       <c r="S23">
-        <v>5.1</v>
+        <v>25.2</v>
       </c>
       <c r="U23">
-        <v>4</v>
+        <v>24.2</v>
       </c>
       <c r="W23">
-        <v>5.4</v>
+        <v>26.9</v>
       </c>
       <c r="Y23">
-        <v>6</v>
+        <v>23.3</v>
       </c>
       <c r="AA23">
-        <v>9.4</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="24" spans="1:27">
       <c r="A24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
@@ -5443,176 +5399,176 @@
       <c r="C24" t="s">
         <v>82</v>
       </c>
+      <c r="D24">
+        <v>196.3</v>
+      </c>
       <c r="E24">
-        <v>40.5</v>
+        <v>142.3</v>
+      </c>
+      <c r="F24">
+        <v>117.2</v>
       </c>
       <c r="G24">
-        <v>16.5</v>
+        <v>85.8</v>
+      </c>
+      <c r="H24">
+        <v>82.7</v>
       </c>
       <c r="I24">
-        <v>15.5</v>
+        <v>48</v>
+      </c>
+      <c r="J24">
+        <v>76.7</v>
       </c>
       <c r="K24">
-        <v>19.8</v>
+        <v>49.5</v>
+      </c>
+      <c r="L24">
+        <v>74.40000000000001</v>
       </c>
       <c r="M24">
-        <v>24.4</v>
+        <v>53.7</v>
+      </c>
+      <c r="N24">
+        <v>57.6</v>
       </c>
       <c r="O24">
-        <v>24.7</v>
+        <v>45.4</v>
+      </c>
+      <c r="P24">
+        <v>55.5</v>
       </c>
       <c r="Q24">
-        <v>26</v>
+        <v>46.3</v>
+      </c>
+      <c r="R24">
+        <v>43.6</v>
       </c>
       <c r="S24">
-        <v>25.2</v>
+        <v>36.9</v>
+      </c>
+      <c r="T24">
+        <v>32.3</v>
       </c>
       <c r="U24">
-        <v>24.2</v>
+        <v>29.7</v>
+      </c>
+      <c r="V24">
+        <v>31.1</v>
       </c>
       <c r="W24">
-        <v>26.9</v>
+        <v>27.1</v>
+      </c>
+      <c r="X24">
+        <v>30.9</v>
       </c>
       <c r="Y24">
-        <v>23.3</v>
+        <v>25.6</v>
+      </c>
+      <c r="Z24">
+        <v>27.2</v>
       </c>
       <c r="AA24">
-        <v>27.9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:27">
       <c r="A25">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25">
-        <v>196.3</v>
+        <v>81</v>
       </c>
       <c r="E25">
-        <v>142.3</v>
-      </c>
-      <c r="F25">
-        <v>117.2</v>
+        <v>56.5</v>
       </c>
       <c r="G25">
-        <v>85.8</v>
-      </c>
-      <c r="H25">
-        <v>82.7</v>
+        <v>19.2</v>
       </c>
       <c r="I25">
-        <v>48</v>
-      </c>
-      <c r="J25">
-        <v>76.7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="K25">
-        <v>49.5</v>
-      </c>
-      <c r="L25">
-        <v>74.40000000000001</v>
+        <v>10.8</v>
       </c>
       <c r="M25">
-        <v>53.7</v>
-      </c>
-      <c r="N25">
-        <v>57.6</v>
+        <v>12.8</v>
       </c>
       <c r="O25">
-        <v>45.4</v>
-      </c>
-      <c r="P25">
-        <v>55.5</v>
+        <v>14.3</v>
       </c>
       <c r="Q25">
-        <v>46.3</v>
-      </c>
-      <c r="R25">
-        <v>43.6</v>
+        <v>14.8</v>
       </c>
       <c r="S25">
-        <v>36.9</v>
-      </c>
-      <c r="T25">
-        <v>32.3</v>
+        <v>16.7</v>
       </c>
       <c r="U25">
-        <v>29.7</v>
-      </c>
-      <c r="V25">
-        <v>31.1</v>
+        <v>17.1</v>
       </c>
       <c r="W25">
-        <v>27.1</v>
-      </c>
-      <c r="X25">
-        <v>30.9</v>
+        <v>16.5</v>
       </c>
       <c r="Y25">
-        <v>25.6</v>
-      </c>
-      <c r="Z25">
-        <v>27.2</v>
+        <v>16.8</v>
       </c>
       <c r="AA25">
-        <v>21</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="26" spans="1:27">
       <c r="A26">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E26">
-        <v>56.5</v>
+        <v>50.3</v>
       </c>
       <c r="G26">
-        <v>19.2</v>
+        <v>2.3</v>
       </c>
       <c r="I26">
-        <v>8.699999999999999</v>
+        <v>-0.3</v>
       </c>
       <c r="K26">
-        <v>10.8</v>
+        <v>7.4</v>
       </c>
       <c r="M26">
+        <v>16</v>
+      </c>
+      <c r="O26">
+        <v>14.5</v>
+      </c>
+      <c r="Q26">
+        <v>16.3</v>
+      </c>
+      <c r="S26">
+        <v>16.9</v>
+      </c>
+      <c r="U26">
+        <v>13.5</v>
+      </c>
+      <c r="W26">
         <v>12.8</v>
       </c>
-      <c r="O26">
-        <v>14.3</v>
-      </c>
-      <c r="Q26">
-        <v>14.8</v>
-      </c>
-      <c r="S26">
-        <v>16.7</v>
-      </c>
-      <c r="U26">
-        <v>17.1</v>
-      </c>
-      <c r="W26">
-        <v>16.5</v>
-      </c>
       <c r="Y26">
-        <v>16.8</v>
+        <v>11.9</v>
       </c>
       <c r="AA26">
-        <v>17.4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:27">
       <c r="A27">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
@@ -5620,129 +5576,129 @@
       <c r="C27" t="s">
         <v>82</v>
       </c>
+      <c r="D27">
+        <v>74.5</v>
+      </c>
       <c r="E27">
-        <v>50.3</v>
+        <v>55.6</v>
+      </c>
+      <c r="F27">
+        <v>22.9</v>
       </c>
       <c r="G27">
-        <v>2.3</v>
+        <v>12.7</v>
+      </c>
+      <c r="H27">
+        <v>18.3</v>
       </c>
       <c r="I27">
-        <v>-0.3</v>
+        <v>8.9</v>
+      </c>
+      <c r="J27">
+        <v>23.5</v>
       </c>
       <c r="K27">
-        <v>7.4</v>
+        <v>13.5</v>
+      </c>
+      <c r="L27">
+        <v>27.9</v>
       </c>
       <c r="M27">
-        <v>16</v>
+        <v>17.8</v>
+      </c>
+      <c r="N27">
+        <v>25.1</v>
       </c>
       <c r="O27">
-        <v>14.5</v>
+        <v>16.6</v>
+      </c>
+      <c r="P27">
+        <v>24.8</v>
       </c>
       <c r="Q27">
-        <v>16.3</v>
+        <v>18.5</v>
+      </c>
+      <c r="R27">
+        <v>23.4</v>
       </c>
       <c r="S27">
-        <v>16.9</v>
+        <v>18.8</v>
+      </c>
+      <c r="T27">
+        <v>22</v>
       </c>
       <c r="U27">
-        <v>13.5</v>
+        <v>18.1</v>
+      </c>
+      <c r="V27">
+        <v>21.3</v>
       </c>
       <c r="W27">
-        <v>12.8</v>
+        <v>17.9</v>
+      </c>
+      <c r="X27">
+        <v>21.3</v>
       </c>
       <c r="Y27">
-        <v>11.9</v>
+        <v>18.4</v>
+      </c>
+      <c r="Z27">
+        <v>23.3</v>
       </c>
       <c r="AA27">
-        <v>13</v>
+        <v>20.7</v>
       </c>
     </row>
     <row r="28" spans="1:27">
       <c r="A28">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28">
-        <v>74.5</v>
+        <v>81</v>
       </c>
       <c r="E28">
-        <v>55.6</v>
-      </c>
-      <c r="F28">
-        <v>22.9</v>
+        <v>44</v>
       </c>
       <c r="G28">
-        <v>12.7</v>
-      </c>
-      <c r="H28">
-        <v>18.3</v>
+        <v>20.5</v>
       </c>
       <c r="I28">
-        <v>8.9</v>
-      </c>
-      <c r="J28">
-        <v>23.5</v>
+        <v>15.4</v>
       </c>
       <c r="K28">
-        <v>13.5</v>
-      </c>
-      <c r="L28">
-        <v>27.9</v>
+        <v>16</v>
       </c>
       <c r="M28">
-        <v>17.8</v>
-      </c>
-      <c r="N28">
-        <v>25.1</v>
+        <v>17.6</v>
       </c>
       <c r="O28">
+        <v>16.7</v>
+      </c>
+      <c r="Q28">
+        <v>17.9</v>
+      </c>
+      <c r="S28">
+        <v>17.3</v>
+      </c>
+      <c r="U28">
+        <v>16.5</v>
+      </c>
+      <c r="W28">
         <v>16.6</v>
       </c>
-      <c r="P28">
-        <v>24.8</v>
-      </c>
-      <c r="Q28">
-        <v>18.5</v>
-      </c>
-      <c r="R28">
-        <v>23.4</v>
-      </c>
-      <c r="S28">
-        <v>18.8</v>
-      </c>
-      <c r="T28">
-        <v>22</v>
-      </c>
-      <c r="U28">
-        <v>18.1</v>
-      </c>
-      <c r="V28">
-        <v>21.3</v>
-      </c>
-      <c r="W28">
+      <c r="Y28">
+        <v>16.9</v>
+      </c>
+      <c r="AA28">
         <v>17.9</v>
-      </c>
-      <c r="X28">
-        <v>21.3</v>
-      </c>
-      <c r="Y28">
-        <v>18.4</v>
-      </c>
-      <c r="Z28">
-        <v>23.3</v>
-      </c>
-      <c r="AA28">
-        <v>20.7</v>
       </c>
     </row>
     <row r="29" spans="1:27">
       <c r="A29">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
@@ -5750,176 +5706,176 @@
       <c r="C29" t="s">
         <v>82</v>
       </c>
+      <c r="D29">
+        <v>32.7</v>
+      </c>
       <c r="E29">
-        <v>44</v>
+        <v>49.6</v>
+      </c>
+      <c r="F29">
+        <v>17.9</v>
       </c>
       <c r="G29">
-        <v>20.5</v>
+        <v>22.3</v>
+      </c>
+      <c r="H29">
+        <v>10.5</v>
       </c>
       <c r="I29">
+        <v>13.8</v>
+      </c>
+      <c r="J29">
+        <v>9</v>
+      </c>
+      <c r="K29">
         <v>15.4</v>
       </c>
-      <c r="K29">
-        <v>16</v>
+      <c r="L29">
+        <v>7.3</v>
       </c>
       <c r="M29">
-        <v>17.6</v>
+        <v>17</v>
+      </c>
+      <c r="N29">
+        <v>6.6</v>
       </c>
       <c r="O29">
-        <v>16.7</v>
+        <v>18.8</v>
+      </c>
+      <c r="P29">
+        <v>7.7</v>
       </c>
       <c r="Q29">
-        <v>17.9</v>
+        <v>22.3</v>
+      </c>
+      <c r="R29">
+        <v>7.8</v>
       </c>
       <c r="S29">
-        <v>17.3</v>
+        <v>24.5</v>
+      </c>
+      <c r="T29">
+        <v>7.4</v>
       </c>
       <c r="U29">
-        <v>16.5</v>
+        <v>25.9</v>
+      </c>
+      <c r="V29">
+        <v>8.9</v>
       </c>
       <c r="W29">
-        <v>16.6</v>
+        <v>30.1</v>
+      </c>
+      <c r="X29">
+        <v>7.7</v>
       </c>
       <c r="Y29">
-        <v>16.9</v>
+        <v>31.1</v>
+      </c>
+      <c r="Z29">
+        <v>8.199999999999999</v>
       </c>
       <c r="AA29">
-        <v>17.9</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="30" spans="1:27">
       <c r="A30">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30">
-        <v>32.7</v>
+        <v>81</v>
       </c>
       <c r="E30">
-        <v>49.6</v>
-      </c>
-      <c r="F30">
-        <v>17.9</v>
+        <v>38.9</v>
       </c>
       <c r="G30">
-        <v>22.3</v>
-      </c>
-      <c r="H30">
+        <v>16.3</v>
+      </c>
+      <c r="I30">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="K30">
         <v>10.5</v>
       </c>
-      <c r="I30">
-        <v>13.8</v>
-      </c>
-      <c r="J30">
-        <v>9</v>
-      </c>
-      <c r="K30">
-        <v>15.4</v>
-      </c>
-      <c r="L30">
-        <v>7.3</v>
-      </c>
       <c r="M30">
-        <v>17</v>
-      </c>
-      <c r="N30">
-        <v>6.6</v>
+        <v>12.4</v>
       </c>
       <c r="O30">
-        <v>18.8</v>
-      </c>
-      <c r="P30">
-        <v>7.7</v>
+        <v>12.3</v>
       </c>
       <c r="Q30">
-        <v>22.3</v>
-      </c>
-      <c r="R30">
-        <v>7.8</v>
+        <v>13.5</v>
       </c>
       <c r="S30">
-        <v>24.5</v>
-      </c>
-      <c r="T30">
-        <v>7.4</v>
+        <v>15.1</v>
       </c>
       <c r="U30">
-        <v>25.9</v>
-      </c>
-      <c r="V30">
-        <v>8.9</v>
+        <v>15.5</v>
       </c>
       <c r="W30">
-        <v>30.1</v>
-      </c>
-      <c r="X30">
-        <v>7.7</v>
+        <v>16.2</v>
       </c>
       <c r="Y30">
-        <v>31.1</v>
-      </c>
-      <c r="Z30">
-        <v>8.199999999999999</v>
+        <v>17.4</v>
       </c>
       <c r="AA30">
-        <v>33.3</v>
+        <v>18.6</v>
       </c>
     </row>
     <row r="31" spans="1:27">
       <c r="A31">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E31">
-        <v>38.9</v>
+        <v>83</v>
       </c>
       <c r="G31">
-        <v>16.3</v>
+        <v>26.3</v>
       </c>
       <c r="I31">
-        <v>8.800000000000001</v>
+        <v>15.3</v>
       </c>
       <c r="K31">
-        <v>10.5</v>
+        <v>21.2</v>
       </c>
       <c r="M31">
-        <v>12.4</v>
+        <v>20.9</v>
       </c>
       <c r="O31">
-        <v>12.3</v>
+        <v>21.1</v>
       </c>
       <c r="Q31">
-        <v>13.5</v>
+        <v>23.7</v>
       </c>
       <c r="S31">
-        <v>15.1</v>
+        <v>26.6</v>
       </c>
       <c r="U31">
-        <v>15.5</v>
+        <v>26.2</v>
       </c>
       <c r="W31">
-        <v>16.2</v>
+        <v>27</v>
       </c>
       <c r="Y31">
-        <v>17.4</v>
+        <v>25.7</v>
       </c>
       <c r="AA31">
-        <v>18.6</v>
+        <v>26.8</v>
       </c>
     </row>
     <row r="32" spans="1:27">
       <c r="A32">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
@@ -5927,129 +5883,129 @@
       <c r="C32" t="s">
         <v>82</v>
       </c>
+      <c r="D32">
+        <v>70</v>
+      </c>
       <c r="E32">
-        <v>83</v>
+        <v>57.4</v>
+      </c>
+      <c r="F32">
+        <v>15.6</v>
       </c>
       <c r="G32">
-        <v>26.3</v>
+        <v>10.5</v>
+      </c>
+      <c r="H32">
+        <v>9</v>
       </c>
       <c r="I32">
-        <v>15.3</v>
+        <v>4.6</v>
+      </c>
+      <c r="J32">
+        <v>8.9</v>
       </c>
       <c r="K32">
-        <v>21.2</v>
+        <v>4.7</v>
+      </c>
+      <c r="L32">
+        <v>11.6</v>
       </c>
       <c r="M32">
-        <v>20.9</v>
+        <v>7.2</v>
+      </c>
+      <c r="N32">
+        <v>12.9</v>
       </c>
       <c r="O32">
-        <v>21.1</v>
+        <v>7.9</v>
+      </c>
+      <c r="P32">
+        <v>15.6</v>
       </c>
       <c r="Q32">
-        <v>23.7</v>
+        <v>10.8</v>
+      </c>
+      <c r="R32">
+        <v>17</v>
       </c>
       <c r="S32">
-        <v>26.6</v>
+        <v>11.9</v>
+      </c>
+      <c r="T32">
+        <v>16.9</v>
       </c>
       <c r="U32">
-        <v>26.2</v>
+        <v>12.4</v>
+      </c>
+      <c r="V32">
+        <v>16.9</v>
       </c>
       <c r="W32">
-        <v>27</v>
+        <v>13.2</v>
+      </c>
+      <c r="X32">
+        <v>15.1</v>
       </c>
       <c r="Y32">
-        <v>25.7</v>
+        <v>12.3</v>
+      </c>
+      <c r="Z32">
+        <v>16</v>
       </c>
       <c r="AA32">
-        <v>26.8</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="33" spans="1:27">
       <c r="A33">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33" t="s">
-        <v>83</v>
-      </c>
-      <c r="D33">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="E33">
-        <v>57.4</v>
-      </c>
-      <c r="F33">
-        <v>15.6</v>
+        <v>59.8</v>
       </c>
       <c r="G33">
-        <v>10.5</v>
-      </c>
-      <c r="H33">
-        <v>9</v>
+        <v>13.8</v>
       </c>
       <c r="I33">
-        <v>4.6</v>
-      </c>
-      <c r="J33">
-        <v>8.9</v>
+        <v>10.8</v>
       </c>
       <c r="K33">
-        <v>4.7</v>
-      </c>
-      <c r="L33">
-        <v>11.6</v>
+        <v>15.3</v>
       </c>
       <c r="M33">
-        <v>7.2</v>
-      </c>
-      <c r="N33">
-        <v>12.9</v>
+        <v>17.3</v>
       </c>
       <c r="O33">
-        <v>7.9</v>
-      </c>
-      <c r="P33">
-        <v>15.6</v>
+        <v>18.6</v>
       </c>
       <c r="Q33">
-        <v>10.8</v>
-      </c>
-      <c r="R33">
-        <v>17</v>
+        <v>18.6</v>
       </c>
       <c r="S33">
-        <v>11.9</v>
-      </c>
-      <c r="T33">
-        <v>16.9</v>
+        <v>17.4</v>
       </c>
       <c r="U33">
-        <v>12.4</v>
-      </c>
-      <c r="V33">
-        <v>16.9</v>
+        <v>18</v>
       </c>
       <c r="W33">
-        <v>13.2</v>
-      </c>
-      <c r="X33">
-        <v>15.1</v>
+        <v>19.9</v>
       </c>
       <c r="Y33">
-        <v>12.3</v>
-      </c>
-      <c r="Z33">
-        <v>16</v>
+        <v>19.9</v>
       </c>
       <c r="AA33">
-        <v>13.1</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="34" spans="1:27">
       <c r="A34">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
@@ -6057,353 +6013,353 @@
       <c r="C34" t="s">
         <v>82</v>
       </c>
+      <c r="D34">
+        <v>109.2</v>
+      </c>
       <c r="E34">
-        <v>59.8</v>
+        <v>65.3</v>
+      </c>
+      <c r="F34">
+        <v>66.2</v>
       </c>
       <c r="G34">
-        <v>13.8</v>
+        <v>34.4</v>
+      </c>
+      <c r="H34">
+        <v>53.4</v>
       </c>
       <c r="I34">
-        <v>10.8</v>
+        <v>26.7</v>
+      </c>
+      <c r="J34">
+        <v>37.7</v>
       </c>
       <c r="K34">
-        <v>15.3</v>
+        <v>17.4</v>
+      </c>
+      <c r="L34">
+        <v>29.1</v>
       </c>
       <c r="M34">
-        <v>17.3</v>
+        <v>13.4</v>
+      </c>
+      <c r="N34">
+        <v>18.8</v>
       </c>
       <c r="O34">
-        <v>18.6</v>
+        <v>6.5</v>
+      </c>
+      <c r="P34">
+        <v>13.1</v>
       </c>
       <c r="Q34">
-        <v>18.6</v>
+        <v>2.7</v>
+      </c>
+      <c r="R34">
+        <v>12.4</v>
       </c>
       <c r="S34">
-        <v>17.4</v>
+        <v>2.8</v>
+      </c>
+      <c r="T34">
+        <v>12</v>
       </c>
       <c r="U34">
-        <v>18</v>
+        <v>2.3</v>
+      </c>
+      <c r="V34">
+        <v>12.8</v>
       </c>
       <c r="W34">
-        <v>19.9</v>
+        <v>2.7</v>
+      </c>
+      <c r="X34">
+        <v>12.6</v>
       </c>
       <c r="Y34">
-        <v>19.9</v>
+        <v>2.3</v>
+      </c>
+      <c r="Z34">
+        <v>12.3</v>
       </c>
       <c r="AA34">
-        <v>20.9</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="35" spans="1:27">
       <c r="A35">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D35">
-        <v>109.2</v>
+        <v>75.5</v>
       </c>
       <c r="E35">
-        <v>65.3</v>
+        <v>63.3</v>
       </c>
       <c r="F35">
-        <v>66.2</v>
+        <v>20</v>
       </c>
       <c r="G35">
-        <v>34.4</v>
+        <v>19.6</v>
       </c>
       <c r="H35">
-        <v>53.4</v>
+        <v>13.5</v>
       </c>
       <c r="I35">
-        <v>26.7</v>
+        <v>13.6</v>
       </c>
       <c r="J35">
-        <v>37.7</v>
+        <v>16.3</v>
       </c>
       <c r="K35">
-        <v>17.4</v>
+        <v>18.6</v>
       </c>
       <c r="L35">
-        <v>29.1</v>
+        <v>18.6</v>
       </c>
       <c r="M35">
-        <v>13.4</v>
+        <v>20.6</v>
       </c>
       <c r="N35">
-        <v>18.8</v>
+        <v>15</v>
       </c>
       <c r="O35">
-        <v>6.5</v>
+        <v>19.6</v>
       </c>
       <c r="P35">
-        <v>13.1</v>
+        <v>17.8</v>
       </c>
       <c r="Q35">
-        <v>2.7</v>
+        <v>23.1</v>
       </c>
       <c r="R35">
-        <v>12.4</v>
+        <v>20</v>
       </c>
       <c r="S35">
-        <v>2.8</v>
+        <v>25.9</v>
       </c>
       <c r="T35">
-        <v>12</v>
+        <v>18.6</v>
       </c>
       <c r="U35">
-        <v>2.3</v>
+        <v>24.7</v>
       </c>
       <c r="V35">
-        <v>12.8</v>
+        <v>18.2</v>
       </c>
       <c r="W35">
-        <v>2.7</v>
+        <v>24.4</v>
       </c>
       <c r="X35">
-        <v>12.6</v>
+        <v>17.6</v>
       </c>
       <c r="Y35">
-        <v>2.3</v>
+        <v>24</v>
       </c>
       <c r="Z35">
-        <v>12.3</v>
+        <v>18.1</v>
       </c>
       <c r="AA35">
-        <v>1.8</v>
+        <v>23.8</v>
       </c>
     </row>
     <row r="36" spans="1:27">
       <c r="A36">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36" t="s">
-        <v>83</v>
-      </c>
-      <c r="D36">
-        <v>75.5</v>
+        <v>81</v>
       </c>
       <c r="E36">
-        <v>63.3</v>
-      </c>
-      <c r="F36">
-        <v>20</v>
+        <v>25.3</v>
       </c>
       <c r="G36">
-        <v>19.6</v>
-      </c>
-      <c r="H36">
-        <v>13.5</v>
+        <v>14.7</v>
       </c>
       <c r="I36">
-        <v>13.6</v>
-      </c>
-      <c r="J36">
-        <v>16.3</v>
+        <v>5.5</v>
       </c>
       <c r="K36">
-        <v>18.6</v>
-      </c>
-      <c r="L36">
-        <v>18.6</v>
+        <v>8.5</v>
       </c>
       <c r="M36">
-        <v>20.6</v>
-      </c>
-      <c r="N36">
-        <v>15</v>
+        <v>12.8</v>
       </c>
       <c r="O36">
-        <v>19.6</v>
-      </c>
-      <c r="P36">
-        <v>17.8</v>
+        <v>13</v>
       </c>
       <c r="Q36">
-        <v>23.1</v>
-      </c>
-      <c r="R36">
-        <v>20</v>
+        <v>14.2</v>
       </c>
       <c r="S36">
-        <v>25.9</v>
-      </c>
-      <c r="T36">
-        <v>18.6</v>
+        <v>14.2</v>
       </c>
       <c r="U36">
-        <v>24.7</v>
-      </c>
-      <c r="V36">
-        <v>18.2</v>
+        <v>14.3</v>
       </c>
       <c r="W36">
-        <v>24.4</v>
-      </c>
-      <c r="X36">
-        <v>17.6</v>
+        <v>14.7</v>
       </c>
       <c r="Y36">
-        <v>24</v>
-      </c>
-      <c r="Z36">
-        <v>18.1</v>
+        <v>14.3</v>
       </c>
       <c r="AA36">
-        <v>23.8</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="37" spans="1:27">
       <c r="A37">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E37">
-        <v>25.3</v>
+        <v>50</v>
       </c>
       <c r="G37">
-        <v>14.7</v>
+        <v>18.2</v>
       </c>
       <c r="I37">
-        <v>5.5</v>
+        <v>12.4</v>
       </c>
       <c r="K37">
-        <v>8.5</v>
+        <v>17.1</v>
       </c>
       <c r="M37">
-        <v>12.8</v>
+        <v>19.7</v>
       </c>
       <c r="O37">
-        <v>13</v>
+        <v>18.8</v>
       </c>
       <c r="Q37">
-        <v>14.2</v>
+        <v>17.7</v>
       </c>
       <c r="S37">
-        <v>14.2</v>
+        <v>17.1</v>
       </c>
       <c r="U37">
-        <v>14.3</v>
+        <v>18.3</v>
       </c>
       <c r="W37">
-        <v>14.7</v>
+        <v>19.3</v>
       </c>
       <c r="Y37">
-        <v>14.3</v>
+        <v>18.8</v>
       </c>
       <c r="AA37">
-        <v>14.5</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="38" spans="1:27">
       <c r="A38">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E38">
-        <v>50</v>
+        <v>48.7</v>
       </c>
       <c r="G38">
-        <v>18.2</v>
+        <v>25.1</v>
       </c>
       <c r="I38">
-        <v>12.4</v>
+        <v>18.1</v>
       </c>
       <c r="K38">
-        <v>17.1</v>
+        <v>15.9</v>
       </c>
       <c r="M38">
-        <v>19.7</v>
+        <v>18.8</v>
       </c>
       <c r="O38">
-        <v>18.8</v>
+        <v>13.8</v>
       </c>
       <c r="Q38">
-        <v>17.7</v>
+        <v>10</v>
       </c>
       <c r="S38">
-        <v>17.1</v>
+        <v>3.5</v>
       </c>
       <c r="U38">
-        <v>18.3</v>
+        <v>-1.5</v>
       </c>
       <c r="W38">
-        <v>19.3</v>
+        <v>-6</v>
       </c>
       <c r="Y38">
-        <v>18.8</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="AA38">
-        <v>19.3</v>
+        <v>-9.1</v>
       </c>
     </row>
     <row r="39" spans="1:27">
       <c r="A39">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E39">
-        <v>48.7</v>
+        <v>74.3</v>
       </c>
       <c r="G39">
-        <v>25.1</v>
+        <v>-16.3</v>
       </c>
       <c r="I39">
-        <v>18.1</v>
+        <v>-23.2</v>
       </c>
       <c r="K39">
-        <v>15.9</v>
+        <v>-24</v>
       </c>
       <c r="M39">
-        <v>18.8</v>
+        <v>-18.2</v>
       </c>
       <c r="O39">
-        <v>13.8</v>
+        <v>-17.7</v>
       </c>
       <c r="Q39">
-        <v>10</v>
+        <v>-12.8</v>
       </c>
       <c r="S39">
-        <v>3.5</v>
+        <v>-11.4</v>
       </c>
       <c r="U39">
-        <v>-1.5</v>
+        <v>-8.6</v>
       </c>
       <c r="W39">
-        <v>-6</v>
+        <v>-5.1</v>
       </c>
       <c r="Y39">
-        <v>-8.300000000000001</v>
+        <v>-1.7</v>
       </c>
       <c r="AA39">
-        <v>-9.1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="40" spans="1:27">
       <c r="A40">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
@@ -6411,212 +6367,212 @@
       <c r="C40" t="s">
         <v>82</v>
       </c>
+      <c r="D40">
+        <v>78.3</v>
+      </c>
       <c r="E40">
-        <v>74.3</v>
+        <v>83.90000000000001</v>
+      </c>
+      <c r="F40">
+        <v>20</v>
       </c>
       <c r="G40">
-        <v>-16.3</v>
+        <v>20.9</v>
+      </c>
+      <c r="H40">
+        <v>3.4</v>
       </c>
       <c r="I40">
-        <v>-23.2</v>
+        <v>2.2</v>
+      </c>
+      <c r="J40">
+        <v>-7.9</v>
       </c>
       <c r="K40">
-        <v>-24</v>
+        <v>-12.9</v>
+      </c>
+      <c r="L40">
+        <v>-7</v>
       </c>
       <c r="M40">
-        <v>-18.2</v>
+        <v>-12.1</v>
+      </c>
+      <c r="N40">
+        <v>4.3</v>
       </c>
       <c r="O40">
-        <v>-17.7</v>
+        <v>-1.3</v>
+      </c>
+      <c r="P40">
+        <v>10</v>
       </c>
       <c r="Q40">
-        <v>-12.8</v>
+        <v>4.9</v>
+      </c>
+      <c r="R40">
+        <v>13.1</v>
       </c>
       <c r="S40">
-        <v>-11.4</v>
+        <v>7.9</v>
+      </c>
+      <c r="T40">
+        <v>11.9</v>
       </c>
       <c r="U40">
-        <v>-8.6</v>
+        <v>7.9</v>
+      </c>
+      <c r="V40">
+        <v>11.5</v>
       </c>
       <c r="W40">
-        <v>-5.1</v>
+        <v>7.7</v>
+      </c>
+      <c r="X40">
+        <v>11.9</v>
       </c>
       <c r="Y40">
-        <v>-1.7</v>
+        <v>7.5</v>
+      </c>
+      <c r="Z40">
+        <v>14.3</v>
       </c>
       <c r="AA40">
-        <v>1.5</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="41" spans="1:27">
       <c r="A41">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D41">
-        <v>78.3</v>
+        <v>150.9</v>
       </c>
       <c r="E41">
-        <v>83.90000000000001</v>
+        <v>101.3</v>
       </c>
       <c r="F41">
-        <v>20</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="G41">
+        <v>56.9</v>
+      </c>
+      <c r="H41">
+        <v>49.2</v>
+      </c>
+      <c r="I41">
+        <v>29</v>
+      </c>
+      <c r="J41">
+        <v>42.4</v>
+      </c>
+      <c r="K41">
+        <v>22.9</v>
+      </c>
+      <c r="L41">
+        <v>50.6</v>
+      </c>
+      <c r="M41">
+        <v>28.1</v>
+      </c>
+      <c r="N41">
+        <v>48</v>
+      </c>
+      <c r="O41">
+        <v>25.4</v>
+      </c>
+      <c r="P41">
+        <v>41.6</v>
+      </c>
+      <c r="Q41">
+        <v>22.9</v>
+      </c>
+      <c r="R41">
+        <v>35.5</v>
+      </c>
+      <c r="S41">
         <v>20.9</v>
       </c>
-      <c r="H41">
-        <v>3.4</v>
-      </c>
-      <c r="I41">
-        <v>2.2</v>
-      </c>
-      <c r="J41">
-        <v>-7.9</v>
-      </c>
-      <c r="K41">
-        <v>-12.9</v>
-      </c>
-      <c r="L41">
-        <v>-7</v>
-      </c>
-      <c r="M41">
-        <v>-12.1</v>
-      </c>
-      <c r="N41">
-        <v>4.3</v>
-      </c>
-      <c r="O41">
-        <v>-1.3</v>
-      </c>
-      <c r="P41">
-        <v>10</v>
-      </c>
-      <c r="Q41">
-        <v>4.9</v>
-      </c>
-      <c r="R41">
-        <v>13.1</v>
-      </c>
-      <c r="S41">
-        <v>7.9</v>
-      </c>
       <c r="T41">
-        <v>11.9</v>
+        <v>31.6</v>
       </c>
       <c r="U41">
-        <v>7.9</v>
+        <v>18.9</v>
       </c>
       <c r="V41">
-        <v>11.5</v>
+        <v>38.2</v>
       </c>
       <c r="W41">
-        <v>7.7</v>
+        <v>23.2</v>
       </c>
       <c r="X41">
-        <v>11.9</v>
+        <v>32.9</v>
       </c>
       <c r="Y41">
-        <v>7.5</v>
+        <v>20.3</v>
       </c>
       <c r="Z41">
-        <v>14.3</v>
+        <v>32.9</v>
       </c>
       <c r="AA41">
-        <v>9.9</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="42" spans="1:27">
       <c r="A42">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42" t="s">
-        <v>83</v>
-      </c>
-      <c r="D42">
-        <v>150.9</v>
+        <v>81</v>
       </c>
       <c r="E42">
-        <v>101.3</v>
-      </c>
-      <c r="F42">
-        <v>84.59999999999999</v>
+        <v>35.6</v>
       </c>
       <c r="G42">
-        <v>56.9</v>
-      </c>
-      <c r="H42">
-        <v>49.2</v>
+        <v>18.7</v>
       </c>
       <c r="I42">
-        <v>29</v>
-      </c>
-      <c r="J42">
-        <v>42.4</v>
+        <v>13.8</v>
       </c>
       <c r="K42">
-        <v>22.9</v>
-      </c>
-      <c r="L42">
-        <v>50.6</v>
+        <v>19.4</v>
       </c>
       <c r="M42">
-        <v>28.1</v>
-      </c>
-      <c r="N42">
-        <v>48</v>
+        <v>25.2</v>
       </c>
       <c r="O42">
-        <v>25.4</v>
-      </c>
-      <c r="P42">
-        <v>41.6</v>
+        <v>24.9</v>
       </c>
       <c r="Q42">
-        <v>22.9</v>
-      </c>
-      <c r="R42">
-        <v>35.5</v>
+        <v>24.7</v>
       </c>
       <c r="S42">
-        <v>20.9</v>
-      </c>
-      <c r="T42">
-        <v>31.6</v>
+        <v>23.2</v>
       </c>
       <c r="U42">
-        <v>18.9</v>
-      </c>
-      <c r="V42">
-        <v>38.2</v>
+        <v>22.3</v>
       </c>
       <c r="W42">
-        <v>23.2</v>
-      </c>
-      <c r="X42">
-        <v>32.9</v>
+        <v>21.6</v>
       </c>
       <c r="Y42">
-        <v>20.3</v>
-      </c>
-      <c r="Z42">
-        <v>32.9</v>
+        <v>20.7</v>
       </c>
       <c r="AA42">
-        <v>20.6</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="43" spans="1:27">
       <c r="A43">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>68</v>
@@ -6624,723 +6580,676 @@
       <c r="C43" t="s">
         <v>82</v>
       </c>
+      <c r="D43">
+        <v>42.7</v>
+      </c>
       <c r="E43">
-        <v>35.6</v>
+        <v>28.4</v>
+      </c>
+      <c r="F43">
+        <v>20.4</v>
       </c>
       <c r="G43">
-        <v>18.7</v>
+        <v>10</v>
+      </c>
+      <c r="H43">
+        <v>19.6</v>
       </c>
       <c r="I43">
-        <v>13.8</v>
+        <v>7.4</v>
+      </c>
+      <c r="J43">
+        <v>14.5</v>
       </c>
       <c r="K43">
-        <v>19.4</v>
+        <v>7.5</v>
+      </c>
+      <c r="L43">
+        <v>21.5</v>
       </c>
       <c r="M43">
-        <v>25.2</v>
+        <v>16.9</v>
+      </c>
+      <c r="N43">
+        <v>24.3</v>
       </c>
       <c r="O43">
+        <v>22.4</v>
+      </c>
+      <c r="P43">
+        <v>25.3</v>
+      </c>
+      <c r="Q43">
+        <v>25.9</v>
+      </c>
+      <c r="R43">
+        <v>25.1</v>
+      </c>
+      <c r="S43">
+        <v>26.4</v>
+      </c>
+      <c r="T43">
+        <v>23</v>
+      </c>
+      <c r="U43">
+        <v>25.1</v>
+      </c>
+      <c r="V43">
+        <v>22.3</v>
+      </c>
+      <c r="W43">
         <v>24.9</v>
       </c>
-      <c r="Q43">
-        <v>24.7</v>
-      </c>
-      <c r="S43">
-        <v>23.2</v>
-      </c>
-      <c r="U43">
-        <v>22.3</v>
-      </c>
-      <c r="W43">
-        <v>21.6</v>
+      <c r="X43">
+        <v>21.4</v>
       </c>
       <c r="Y43">
-        <v>20.7</v>
+        <v>24.8</v>
+      </c>
+      <c r="Z43">
+        <v>21.1</v>
       </c>
       <c r="AA43">
-        <v>21.6</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="44" spans="1:27">
       <c r="A44">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>69</v>
       </c>
       <c r="C44" t="s">
-        <v>83</v>
-      </c>
-      <c r="D44">
-        <v>42.7</v>
+        <v>81</v>
       </c>
       <c r="E44">
-        <v>28.4</v>
-      </c>
-      <c r="F44">
-        <v>20.4</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="G44">
-        <v>10</v>
-      </c>
-      <c r="H44">
-        <v>19.6</v>
+        <v>41.2</v>
       </c>
       <c r="I44">
-        <v>7.4</v>
-      </c>
-      <c r="J44">
-        <v>14.5</v>
+        <v>38.8</v>
       </c>
       <c r="K44">
-        <v>7.5</v>
-      </c>
-      <c r="L44">
-        <v>21.5</v>
+        <v>38.6</v>
       </c>
       <c r="M44">
-        <v>16.9</v>
-      </c>
-      <c r="N44">
-        <v>24.3</v>
+        <v>45.2</v>
       </c>
       <c r="O44">
-        <v>22.4</v>
-      </c>
-      <c r="P44">
-        <v>25.3</v>
+        <v>46.8</v>
       </c>
       <c r="Q44">
-        <v>25.9</v>
-      </c>
-      <c r="R44">
-        <v>25.1</v>
+        <v>50.6</v>
       </c>
       <c r="S44">
-        <v>26.4</v>
-      </c>
-      <c r="T44">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="U44">
-        <v>25.1</v>
-      </c>
-      <c r="V44">
-        <v>22.3</v>
+        <v>46.5</v>
       </c>
       <c r="W44">
-        <v>24.9</v>
-      </c>
-      <c r="X44">
-        <v>21.4</v>
+        <v>43.4</v>
       </c>
       <c r="Y44">
-        <v>24.8</v>
-      </c>
-      <c r="Z44">
-        <v>21.1</v>
+        <v>41.2</v>
       </c>
       <c r="AA44">
-        <v>25.3</v>
+        <v>41.7</v>
       </c>
     </row>
     <row r="45" spans="1:27">
       <c r="A45">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>70</v>
       </c>
       <c r="C45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E45">
-        <v>71.09999999999999</v>
+        <v>30.3</v>
       </c>
       <c r="G45">
-        <v>41.2</v>
+        <v>25</v>
       </c>
       <c r="I45">
-        <v>38.8</v>
+        <v>24.2</v>
       </c>
       <c r="K45">
-        <v>38.6</v>
+        <v>24.4</v>
       </c>
       <c r="M45">
-        <v>45.2</v>
+        <v>28.3</v>
       </c>
       <c r="O45">
-        <v>46.8</v>
+        <v>28.3</v>
       </c>
       <c r="Q45">
-        <v>50.6</v>
+        <v>29.4</v>
       </c>
       <c r="S45">
-        <v>49</v>
+        <v>27.5</v>
       </c>
       <c r="U45">
-        <v>46.5</v>
+        <v>25.8</v>
       </c>
       <c r="W45">
-        <v>43.4</v>
+        <v>23.7</v>
       </c>
       <c r="Y45">
-        <v>41.2</v>
+        <v>22.4</v>
       </c>
       <c r="AA45">
-        <v>41.7</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="46" spans="1:27">
       <c r="A46">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>71</v>
       </c>
       <c r="C46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E46">
-        <v>30.3</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="G46">
-        <v>25</v>
+        <v>32.4</v>
       </c>
       <c r="I46">
-        <v>24.2</v>
+        <v>22.7</v>
       </c>
       <c r="K46">
-        <v>24.4</v>
+        <v>25.7</v>
       </c>
       <c r="M46">
-        <v>28.3</v>
+        <v>25.3</v>
       </c>
       <c r="O46">
-        <v>28.3</v>
+        <v>20.6</v>
       </c>
       <c r="Q46">
-        <v>29.4</v>
+        <v>19.9</v>
       </c>
       <c r="S46">
-        <v>27.5</v>
+        <v>18.8</v>
       </c>
       <c r="U46">
-        <v>25.8</v>
+        <v>19.6</v>
       </c>
       <c r="W46">
-        <v>23.7</v>
+        <v>19.9</v>
       </c>
       <c r="Y46">
-        <v>22.4</v>
+        <v>19.7</v>
       </c>
       <c r="AA46">
-        <v>21.7</v>
+        <v>21.1</v>
       </c>
     </row>
     <row r="47" spans="1:27">
       <c r="A47">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>72</v>
       </c>
       <c r="C47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E47">
-        <v>93.09999999999999</v>
+        <v>12.1</v>
       </c>
       <c r="G47">
-        <v>32.4</v>
+        <v>12.1</v>
       </c>
       <c r="I47">
-        <v>22.7</v>
+        <v>19.8</v>
       </c>
       <c r="K47">
-        <v>25.7</v>
+        <v>21.8</v>
       </c>
       <c r="M47">
-        <v>25.3</v>
+        <v>24.8</v>
       </c>
       <c r="O47">
-        <v>20.6</v>
+        <v>25.5</v>
       </c>
       <c r="Q47">
-        <v>19.9</v>
+        <v>26.3</v>
       </c>
       <c r="S47">
+        <v>23.9</v>
+      </c>
+      <c r="U47">
+        <v>21.9</v>
+      </c>
+      <c r="W47">
         <v>18.8</v>
       </c>
-      <c r="U47">
-        <v>19.6</v>
-      </c>
-      <c r="W47">
-        <v>19.9</v>
-      </c>
       <c r="Y47">
-        <v>19.7</v>
+        <v>17.6</v>
       </c>
       <c r="AA47">
-        <v>21.1</v>
+        <v>18.9</v>
       </c>
     </row>
     <row r="48" spans="1:27">
       <c r="A48">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>73</v>
       </c>
       <c r="C48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E48">
-        <v>12.1</v>
+        <v>7.3</v>
       </c>
       <c r="G48">
-        <v>12.1</v>
+        <v>4.9</v>
       </c>
       <c r="I48">
-        <v>19.8</v>
+        <v>7.1</v>
       </c>
       <c r="K48">
-        <v>21.8</v>
+        <v>7.7</v>
       </c>
       <c r="M48">
-        <v>24.8</v>
+        <v>11.4</v>
       </c>
       <c r="O48">
-        <v>25.5</v>
+        <v>11.5</v>
       </c>
       <c r="Q48">
-        <v>26.3</v>
+        <v>11.4</v>
       </c>
       <c r="S48">
-        <v>23.9</v>
+        <v>7.3</v>
       </c>
       <c r="U48">
-        <v>21.9</v>
+        <v>4.3</v>
       </c>
       <c r="W48">
-        <v>18.8</v>
+        <v>2.6</v>
       </c>
       <c r="Y48">
-        <v>17.6</v>
+        <v>-0.6</v>
       </c>
       <c r="AA48">
-        <v>18.9</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="49" spans="1:27">
       <c r="A49">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>74</v>
       </c>
       <c r="C49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E49">
-        <v>7.3</v>
+        <v>45.6</v>
       </c>
       <c r="G49">
-        <v>4.9</v>
+        <v>17.4</v>
       </c>
       <c r="I49">
-        <v>7.1</v>
+        <v>12.6</v>
       </c>
       <c r="K49">
-        <v>7.7</v>
+        <v>13.5</v>
       </c>
       <c r="M49">
-        <v>11.4</v>
+        <v>15.8</v>
       </c>
       <c r="O49">
-        <v>11.5</v>
+        <v>15.2</v>
       </c>
       <c r="Q49">
-        <v>11.4</v>
+        <v>16.5</v>
       </c>
       <c r="S49">
-        <v>7.3</v>
+        <v>17.1</v>
       </c>
       <c r="U49">
-        <v>4.3</v>
+        <v>16.6</v>
       </c>
       <c r="W49">
-        <v>2.6</v>
+        <v>17</v>
       </c>
       <c r="Y49">
-        <v>-0.6</v>
+        <v>17.3</v>
       </c>
       <c r="AA49">
-        <v>-1.8</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="50" spans="1:27">
       <c r="A50">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>75</v>
       </c>
       <c r="C50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E50">
-        <v>45.6</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="G50">
-        <v>17.4</v>
+        <v>37.1</v>
       </c>
       <c r="I50">
-        <v>12.6</v>
+        <v>28.6</v>
       </c>
       <c r="K50">
-        <v>13.5</v>
+        <v>25.4</v>
       </c>
       <c r="M50">
-        <v>15.8</v>
+        <v>29.3</v>
       </c>
       <c r="O50">
-        <v>15.2</v>
+        <v>29.8</v>
       </c>
       <c r="Q50">
-        <v>16.5</v>
+        <v>31.3</v>
       </c>
       <c r="S50">
-        <v>17.1</v>
+        <v>32.6</v>
       </c>
       <c r="U50">
-        <v>16.6</v>
+        <v>30.4</v>
       </c>
       <c r="W50">
-        <v>17</v>
+        <v>30.9</v>
       </c>
       <c r="Y50">
-        <v>17.3</v>
+        <v>31</v>
       </c>
       <c r="AA50">
-        <v>17.6</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="51" spans="1:27">
       <c r="A51">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>76</v>
       </c>
       <c r="C51" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="D51">
+        <v>-53.5</v>
       </c>
       <c r="E51">
-        <v>67.59999999999999</v>
+        <v>-55.5</v>
+      </c>
+      <c r="F51">
+        <v>-38.9</v>
       </c>
       <c r="G51">
-        <v>37.1</v>
+        <v>-40.1</v>
+      </c>
+      <c r="H51">
+        <v>-23.4</v>
       </c>
       <c r="I51">
-        <v>28.6</v>
+        <v>-27.3</v>
+      </c>
+      <c r="J51">
+        <v>-19.5</v>
       </c>
       <c r="K51">
-        <v>25.4</v>
+        <v>-23.5</v>
+      </c>
+      <c r="L51">
+        <v>-5.3</v>
       </c>
       <c r="M51">
-        <v>29.3</v>
+        <v>-11.9</v>
+      </c>
+      <c r="N51">
+        <v>4.9</v>
       </c>
       <c r="O51">
-        <v>29.8</v>
+        <v>-6.6</v>
+      </c>
+      <c r="P51">
+        <v>14.8</v>
       </c>
       <c r="Q51">
-        <v>31.3</v>
+        <v>0.9</v>
+      </c>
+      <c r="R51">
+        <v>22.9</v>
       </c>
       <c r="S51">
-        <v>32.6</v>
+        <v>7.5</v>
+      </c>
+      <c r="T51">
+        <v>32.7</v>
       </c>
       <c r="U51">
-        <v>30.4</v>
+        <v>16</v>
+      </c>
+      <c r="V51">
+        <v>37.5</v>
       </c>
       <c r="W51">
-        <v>30.9</v>
+        <v>19.1</v>
+      </c>
+      <c r="X51">
+        <v>44.4</v>
       </c>
       <c r="Y51">
-        <v>31</v>
+        <v>24.7</v>
+      </c>
+      <c r="Z51">
+        <v>45.8</v>
       </c>
       <c r="AA51">
-        <v>32.5</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="52" spans="1:27">
       <c r="A52">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>77</v>
       </c>
       <c r="C52" t="s">
-        <v>84</v>
-      </c>
-      <c r="D52">
-        <v>-53.5</v>
+        <v>81</v>
       </c>
       <c r="E52">
-        <v>-55.5</v>
-      </c>
-      <c r="F52">
-        <v>-38.9</v>
+        <v>11.9</v>
       </c>
       <c r="G52">
-        <v>-40.1</v>
-      </c>
-      <c r="H52">
-        <v>-23.4</v>
+        <v>-4.7</v>
       </c>
       <c r="I52">
-        <v>-27.3</v>
-      </c>
-      <c r="J52">
-        <v>-19.5</v>
+        <v>-7.9</v>
       </c>
       <c r="K52">
-        <v>-23.5</v>
-      </c>
-      <c r="L52">
-        <v>-5.3</v>
+        <v>-2.1</v>
       </c>
       <c r="M52">
-        <v>-11.9</v>
-      </c>
-      <c r="N52">
-        <v>4.9</v>
+        <v>2.2</v>
       </c>
       <c r="O52">
-        <v>-6.6</v>
-      </c>
-      <c r="P52">
-        <v>14.8</v>
+        <v>2.2</v>
       </c>
       <c r="Q52">
-        <v>0.9</v>
-      </c>
-      <c r="R52">
-        <v>22.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S52">
-        <v>7.5</v>
-      </c>
-      <c r="T52">
-        <v>32.7</v>
+        <v>12</v>
       </c>
       <c r="U52">
-        <v>16</v>
-      </c>
-      <c r="V52">
-        <v>37.5</v>
+        <v>14.9</v>
       </c>
       <c r="W52">
-        <v>19.1</v>
-      </c>
-      <c r="X52">
-        <v>44.4</v>
+        <v>17.5</v>
       </c>
       <c r="Y52">
-        <v>24.7</v>
-      </c>
-      <c r="Z52">
-        <v>45.8</v>
+        <v>17.2</v>
       </c>
       <c r="AA52">
-        <v>27.6</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="53" spans="1:27">
       <c r="A53">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>78</v>
       </c>
       <c r="C53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E53">
-        <v>11.9</v>
+        <v>-7.3</v>
       </c>
       <c r="G53">
-        <v>-4.7</v>
+        <v>-28.9</v>
       </c>
       <c r="I53">
-        <v>-7.9</v>
+        <v>-24.6</v>
       </c>
       <c r="K53">
-        <v>-2.1</v>
+        <v>-22.5</v>
       </c>
       <c r="M53">
-        <v>2.2</v>
+        <v>-15.8</v>
       </c>
       <c r="O53">
-        <v>2.2</v>
+        <v>-12.9</v>
       </c>
       <c r="Q53">
-        <v>9.699999999999999</v>
+        <v>-7.4</v>
       </c>
       <c r="S53">
-        <v>12</v>
+        <v>-2.9</v>
       </c>
       <c r="U53">
-        <v>14.9</v>
+        <v>0.7</v>
       </c>
       <c r="W53">
-        <v>17.5</v>
+        <v>3.5</v>
       </c>
       <c r="Y53">
-        <v>17.2</v>
+        <v>4.5</v>
       </c>
       <c r="AA53">
-        <v>18.3</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="54" spans="1:27">
       <c r="A54">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>79</v>
       </c>
       <c r="C54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E54">
-        <v>-7.3</v>
+        <v>5</v>
       </c>
       <c r="G54">
-        <v>-28.9</v>
+        <v>-0.4</v>
       </c>
       <c r="I54">
-        <v>-24.6</v>
+        <v>16.5</v>
       </c>
       <c r="K54">
-        <v>-22.5</v>
+        <v>10</v>
       </c>
       <c r="M54">
-        <v>-15.8</v>
+        <v>18.9</v>
       </c>
       <c r="O54">
-        <v>-12.9</v>
+        <v>18.9</v>
       </c>
       <c r="Q54">
-        <v>-7.4</v>
+        <v>18.9</v>
       </c>
       <c r="S54">
-        <v>-2.9</v>
+        <v>21</v>
       </c>
       <c r="U54">
-        <v>0.7</v>
+        <v>22.8</v>
       </c>
       <c r="W54">
-        <v>3.5</v>
+        <v>39.7</v>
       </c>
       <c r="Y54">
-        <v>4.5</v>
+        <v>36.8</v>
       </c>
       <c r="AA54">
-        <v>5.2</v>
+        <v>44.7</v>
       </c>
     </row>
     <row r="55" spans="1:27">
       <c r="A55">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>80</v>
       </c>
       <c r="C55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E55">
-        <v>5</v>
+        <v>44.4</v>
       </c>
       <c r="G55">
-        <v>-0.4</v>
+        <v>15.9</v>
       </c>
       <c r="I55">
-        <v>16.5</v>
+        <v>11</v>
       </c>
       <c r="K55">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="M55">
-        <v>18.9</v>
+        <v>13</v>
       </c>
       <c r="O55">
-        <v>18.9</v>
+        <v>12.1</v>
       </c>
       <c r="Q55">
-        <v>18.9</v>
+        <v>11.4</v>
       </c>
       <c r="S55">
-        <v>21</v>
+        <v>13.3</v>
       </c>
       <c r="U55">
-        <v>22.8</v>
+        <v>12.2</v>
       </c>
       <c r="W55">
-        <v>39.7</v>
+        <v>12.2</v>
       </c>
       <c r="Y55">
-        <v>36.8</v>
+        <v>12.2</v>
       </c>
       <c r="AA55">
-        <v>44.7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27">
-      <c r="A56">
-        <v>54</v>
-      </c>
-      <c r="B56" t="s">
-        <v>81</v>
-      </c>
-      <c r="C56" t="s">
-        <v>82</v>
-      </c>
-      <c r="E56">
-        <v>44.4</v>
-      </c>
-      <c r="G56">
-        <v>15.9</v>
-      </c>
-      <c r="I56">
-        <v>11</v>
-      </c>
-      <c r="K56">
-        <v>12.5</v>
-      </c>
-      <c r="M56">
-        <v>13</v>
-      </c>
-      <c r="O56">
-        <v>12.1</v>
-      </c>
-      <c r="Q56">
-        <v>11.4</v>
-      </c>
-      <c r="S56">
-        <v>13.3</v>
-      </c>
-      <c r="U56">
-        <v>12.2</v>
-      </c>
-      <c r="W56">
-        <v>12.2</v>
-      </c>
-      <c r="Y56">
-        <v>12.2</v>
-      </c>
-      <c r="AA56">
         <v>12.8</v>
       </c>
     </row>

--- a/data/xuat_nhap/nhap_khau_2024.xlsx
+++ b/data/xuat_nhap/nhap_khau_2024.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Year 3\HK2\-Visualization-Overview-of-Viet-Nam-socio-economic\data\xuat_nhap\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE6379D-C725-454C-99F0-4325E2F005C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Số trong tháng báo cáo" sheetId="1" r:id="rId1"/>
     <sheet name="So với cùng kỳ" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -272,8 +278,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,13 +342,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -380,7 +394,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -414,6 +428,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -448,9 +463,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -623,14 +639,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -713,7 +760,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -760,7 +807,7 @@
         <v>306119172</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -807,7 +854,7 @@
         <v>99231052</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -854,7 +901,7 @@
         <v>304277033</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -937,7 +984,7 @@
         <v>184735768</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1020,7 +1067,7 @@
         <v>100890792</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1103,7 +1150,7 @@
         <v>343294691</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1186,7 +1233,7 @@
         <v>110579486</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1233,7 +1280,7 @@
         <v>142204237</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1280,7 +1327,7 @@
         <v>75215541</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1327,7 +1374,7 @@
         <v>123137642</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1374,7 +1421,7 @@
         <v>456998003</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1421,7 +1468,7 @@
         <v>105331836</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1504,7 +1551,7 @@
         <v>233998600</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1587,7 +1634,7 @@
         <v>593089551</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1670,7 +1717,7 @@
         <v>636960522</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1753,7 +1800,7 @@
         <v>836519217</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1836,7 +1883,7 @@
         <v>138052771</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1883,7 +1930,7 @@
         <v>183484127</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1930,7 +1977,7 @@
         <v>710704765</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1977,7 +2024,7 @@
         <v>699246125</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2024,7 +2071,7 @@
         <v>53394508</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2071,7 +2118,7 @@
         <v>518165974</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2154,7 +2201,7 @@
         <v>124343250</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2201,7 +2248,7 @@
         <v>132969644</v>
       </c>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2248,7 +2295,7 @@
         <v>97059719</v>
       </c>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2331,7 +2378,7 @@
         <v>1115656038</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2378,7 +2425,7 @@
         <v>833222659</v>
       </c>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2461,7 +2508,7 @@
         <v>380030584</v>
       </c>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2508,7 +2555,7 @@
         <v>105477075</v>
       </c>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2555,7 +2602,7 @@
         <v>257341223</v>
       </c>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2638,7 +2685,7 @@
         <v>209007037</v>
       </c>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2685,7 +2732,7 @@
         <v>104997168</v>
       </c>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2768,7 +2815,7 @@
         <v>233376725</v>
       </c>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2851,7 +2898,7 @@
         <v>238312729</v>
       </c>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2898,7 +2945,7 @@
         <v>1330217118</v>
       </c>
     </row>
-    <row r="37" spans="1:27">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2945,7 +2992,7 @@
         <v>643601847</v>
       </c>
     </row>
-    <row r="38" spans="1:27">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2992,7 +3039,7 @@
         <v>120063745</v>
       </c>
     </row>
-    <row r="39" spans="1:27">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3039,7 +3086,7 @@
         <v>87641377</v>
       </c>
     </row>
-    <row r="40" spans="1:27">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3122,7 +3169,7 @@
         <v>210833561</v>
       </c>
     </row>
-    <row r="41" spans="1:27">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3205,7 +3252,7 @@
         <v>1080665390</v>
       </c>
     </row>
-    <row r="42" spans="1:27">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3252,7 +3299,7 @@
         <v>609842971</v>
       </c>
     </row>
-    <row r="43" spans="1:27">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3335,7 +3382,7 @@
         <v>902312960</v>
       </c>
     </row>
-    <row r="44" spans="1:27">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3382,7 +3429,7 @@
         <v>308847820</v>
       </c>
     </row>
-    <row r="45" spans="1:27">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3429,7 +3476,7 @@
         <v>9322183671</v>
       </c>
     </row>
-    <row r="46" spans="1:27">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3476,7 +3523,7 @@
         <v>208943470</v>
       </c>
     </row>
-    <row r="47" spans="1:27">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3523,7 +3570,7 @@
         <v>973970092</v>
       </c>
     </row>
-    <row r="48" spans="1:27">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3570,7 +3617,7 @@
         <v>195265139</v>
       </c>
     </row>
-    <row r="49" spans="1:27">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3617,7 +3664,7 @@
         <v>4685472325</v>
       </c>
     </row>
-    <row r="50" spans="1:27">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3664,7 +3711,7 @@
         <v>348344743</v>
       </c>
     </row>
-    <row r="51" spans="1:27">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3747,7 +3794,7 @@
         <v>303571525</v>
       </c>
     </row>
-    <row r="52" spans="1:27">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3794,7 +3841,7 @@
         <v>478983075</v>
       </c>
     </row>
-    <row r="53" spans="1:27">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3841,7 +3888,7 @@
         <v>60646829</v>
       </c>
     </row>
-    <row r="54" spans="1:27">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3888,7 +3935,7 @@
         <v>260012285</v>
       </c>
     </row>
-    <row r="55" spans="1:27">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3941,14 +3988,45 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA55"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4031,7 +4109,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4054,7 +4132,7 @@
         <v>-7.6</v>
       </c>
       <c r="M2">
-        <v>-4.6</v>
+        <v>-4.5999999999999996</v>
       </c>
       <c r="O2">
         <v>-5.5</v>
@@ -4078,7 +4156,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4089,7 +4167,7 @@
         <v>81</v>
       </c>
       <c r="E3">
-        <v>-8.199999999999999</v>
+        <v>-8.1999999999999993</v>
       </c>
       <c r="G3">
         <v>-25</v>
@@ -4125,7 +4203,7 @@
         <v>-2.8</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4142,7 +4220,7 @@
         <v>23.2</v>
       </c>
       <c r="I4">
-        <v>17.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="K4">
         <v>13.6</v>
@@ -4172,7 +4250,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4186,10 +4264,10 @@
         <v>-11.4</v>
       </c>
       <c r="E5">
-        <v>-19.1</v>
+        <v>-19.100000000000001</v>
       </c>
       <c r="F5">
-        <v>-18.6</v>
+        <v>-18.600000000000001</v>
       </c>
       <c r="G5">
         <v>-24.3</v>
@@ -4201,7 +4279,7 @@
         <v>5.6</v>
       </c>
       <c r="J5">
-        <v>17.9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="K5">
         <v>10.3</v>
@@ -4225,25 +4303,25 @@
         <v>0.6</v>
       </c>
       <c r="R5">
-        <v>-4.1</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="S5">
-        <v>-2.2</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="T5">
         <v>-7.1</v>
       </c>
       <c r="U5">
-        <v>-2.2</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="V5">
         <v>-8.5</v>
       </c>
       <c r="W5">
-        <v>-1.1</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="X5">
-        <v>-10.2</v>
+        <v>-10.199999999999999</v>
       </c>
       <c r="Y5">
         <v>-1.3</v>
@@ -4255,7 +4333,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4326,10 +4404,10 @@
         <v>7.1</v>
       </c>
       <c r="X6">
-        <v>34.8</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="Y6">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="Z6">
         <v>22.5</v>
@@ -4338,7 +4416,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4352,10 +4430,10 @@
         <v>24.9</v>
       </c>
       <c r="E7">
-        <v>-4.9</v>
+        <v>-4.9000000000000004</v>
       </c>
       <c r="F7">
-        <v>34.2</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="G7">
         <v>1.8</v>
@@ -4364,7 +4442,7 @@
         <v>27</v>
       </c>
       <c r="I7">
-        <v>-4.9</v>
+        <v>-4.9000000000000004</v>
       </c>
       <c r="J7">
         <v>23.9</v>
@@ -4376,7 +4454,7 @@
         <v>30.7</v>
       </c>
       <c r="M7">
-        <v>-2.2</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="N7">
         <v>31.8</v>
@@ -4385,7 +4463,7 @@
         <v>-0.9</v>
       </c>
       <c r="P7">
-        <v>34.3</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="Q7">
         <v>1.9</v>
@@ -4400,7 +4478,7 @@
         <v>24.3</v>
       </c>
       <c r="U7">
-        <v>-2.3</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="V7">
         <v>24.7</v>
@@ -4421,7 +4499,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4444,7 +4522,7 @@
         <v>-9.5</v>
       </c>
       <c r="H8">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I8">
         <v>-14.4</v>
@@ -4459,16 +4537,16 @@
         <v>13.9</v>
       </c>
       <c r="M8">
-        <v>-10.2</v>
+        <v>-10.199999999999999</v>
       </c>
       <c r="N8">
-        <v>-4.4</v>
+        <v>-4.4000000000000004</v>
       </c>
       <c r="O8">
         <v>-22.6</v>
       </c>
       <c r="P8">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="Q8">
         <v>-11.9</v>
@@ -4480,7 +4558,7 @@
         <v>-13.9</v>
       </c>
       <c r="T8">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="U8">
         <v>-11.7</v>
@@ -4492,19 +4570,19 @@
         <v>-8.1</v>
       </c>
       <c r="X8">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="Y8">
         <v>-3</v>
       </c>
       <c r="Z8">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="AA8">
         <v>-3.6</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4515,7 +4593,7 @@
         <v>81</v>
       </c>
       <c r="E9">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="G9">
         <v>-10.1</v>
@@ -4530,7 +4608,7 @@
         <v>0.9</v>
       </c>
       <c r="O9">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -4551,7 +4629,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4562,10 +4640,10 @@
         <v>81</v>
       </c>
       <c r="E10">
-        <v>64.59999999999999</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="G10">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="I10">
         <v>3.9</v>
@@ -4595,10 +4673,10 @@
         <v>13.1</v>
       </c>
       <c r="AA10">
-        <v>17.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4618,7 +4696,7 @@
         <v>-12.6</v>
       </c>
       <c r="K11">
-        <v>-10.2</v>
+        <v>-10.199999999999999</v>
       </c>
       <c r="M11">
         <v>-7.5</v>
@@ -4645,7 +4723,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4674,7 +4752,7 @@
         <v>7.9</v>
       </c>
       <c r="Q12">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="S12">
         <v>-2.1</v>
@@ -4692,7 +4770,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4730,7 +4808,7 @@
         <v>42.3</v>
       </c>
       <c r="W13">
-        <v>35.7</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="Y13">
         <v>27.8</v>
@@ -4739,7 +4817,7 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4759,7 +4837,7 @@
         <v>34</v>
       </c>
       <c r="G14">
-        <v>39.7</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="H14">
         <v>46</v>
@@ -4777,7 +4855,7 @@
         <v>35.1</v>
       </c>
       <c r="M14">
-        <v>36.8</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="N14">
         <v>31.7</v>
@@ -4822,7 +4900,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4839,7 +4917,7 @@
         <v>150</v>
       </c>
       <c r="F15">
-        <v>94.09999999999999</v>
+        <v>94.1</v>
       </c>
       <c r="G15">
         <v>60.1</v>
@@ -4848,13 +4926,13 @@
         <v>76.7</v>
       </c>
       <c r="I15">
-        <v>36.8</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="J15">
-        <v>73.40000000000001</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="K15">
-        <v>34.8</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="L15">
         <v>60.9</v>
@@ -4863,7 +4941,7 @@
         <v>30</v>
       </c>
       <c r="N15">
-        <v>39.2</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="O15">
         <v>15.1</v>
@@ -4872,16 +4950,16 @@
         <v>36.9</v>
       </c>
       <c r="Q15">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="R15">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="S15">
         <v>16</v>
       </c>
       <c r="T15">
-        <v>32.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="U15">
         <v>14.9</v>
@@ -4905,7 +4983,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4940,7 +5018,7 @@
         <v>20.2</v>
       </c>
       <c r="L16">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="M16">
         <v>19.5</v>
@@ -4979,7 +5057,7 @@
         <v>24.2</v>
       </c>
       <c r="Y16">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="Z16">
         <v>20</v>
@@ -4988,7 +5066,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5035,7 +5113,7 @@
         <v>5.6</v>
       </c>
       <c r="P17">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q17">
         <v>2.1</v>
@@ -5062,16 +5140,16 @@
         <v>-1.3</v>
       </c>
       <c r="Y17">
-        <v>-8.800000000000001</v>
+        <v>-8.8000000000000007</v>
       </c>
       <c r="Z17">
         <v>3.6</v>
       </c>
       <c r="AA17">
-        <v>-4.6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27">
+        <v>-4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5097,7 +5175,7 @@
         <v>27.5</v>
       </c>
       <c r="I18">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="J18">
         <v>21.1</v>
@@ -5112,10 +5190,10 @@
         <v>21.3</v>
       </c>
       <c r="N18">
-        <v>35.8</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="O18">
-        <v>34.2</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="P18">
         <v>24</v>
@@ -5133,13 +5211,13 @@
         <v>24.7</v>
       </c>
       <c r="U18">
-        <v>33.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="V18">
         <v>25.6</v>
       </c>
       <c r="W18">
-        <v>34.3</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="X18">
         <v>27.4</v>
@@ -5154,7 +5232,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5201,7 +5279,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5227,7 +5305,7 @@
         <v>9.1</v>
       </c>
       <c r="O20">
-        <v>9.300000000000001</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="Q20">
         <v>11.4</v>
@@ -5248,7 +5326,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5259,7 +5337,7 @@
         <v>81</v>
       </c>
       <c r="E21">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="G21">
         <v>3.5</v>
@@ -5274,7 +5352,7 @@
         <v>1.3</v>
       </c>
       <c r="O21">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5295,7 +5373,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5312,7 +5390,7 @@
         <v>3</v>
       </c>
       <c r="I22">
-        <v>-2.3</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="K22">
         <v>3.7</v>
@@ -5327,7 +5405,7 @@
         <v>3.3</v>
       </c>
       <c r="S22">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="U22">
         <v>4</v>
@@ -5342,7 +5420,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5389,7 +5467,7 @@
         <v>27.9</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5403,7 +5481,7 @@
         <v>196.3</v>
       </c>
       <c r="E24">
-        <v>142.3</v>
+        <v>142.30000000000001</v>
       </c>
       <c r="F24">
         <v>117.2</v>
@@ -5424,7 +5502,7 @@
         <v>49.5</v>
       </c>
       <c r="L24">
-        <v>74.40000000000001</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="M24">
         <v>53.7</v>
@@ -5448,7 +5526,7 @@
         <v>36.9</v>
       </c>
       <c r="T24">
-        <v>32.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="U24">
         <v>29.7</v>
@@ -5472,7 +5550,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5489,7 +5567,7 @@
         <v>19.2</v>
       </c>
       <c r="I25">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="K25">
         <v>10.8</v>
@@ -5507,7 +5585,7 @@
         <v>16.7</v>
       </c>
       <c r="U25">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="W25">
         <v>16.5</v>
@@ -5516,10 +5594,10 @@
         <v>16.8</v>
       </c>
       <c r="AA25">
-        <v>17.4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5533,7 +5611,7 @@
         <v>50.3</v>
       </c>
       <c r="G26">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I26">
         <v>-0.3</v>
@@ -5551,7 +5629,7 @@
         <v>16.3</v>
       </c>
       <c r="S26">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="U26">
         <v>13.5</v>
@@ -5566,7 +5644,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5610,7 +5688,7 @@
         <v>25.1</v>
       </c>
       <c r="O27">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="P27">
         <v>24.8</v>
@@ -5628,19 +5706,19 @@
         <v>22</v>
       </c>
       <c r="U27">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="V27">
         <v>21.3</v>
       </c>
       <c r="W27">
-        <v>17.9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="X27">
         <v>21.3</v>
       </c>
       <c r="Y27">
-        <v>18.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="Z27">
         <v>23.3</v>
@@ -5649,7 +5727,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5672,13 +5750,13 @@
         <v>16</v>
       </c>
       <c r="M28">
-        <v>17.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="O28">
         <v>16.7</v>
       </c>
       <c r="Q28">
-        <v>17.9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="S28">
         <v>17.3</v>
@@ -5687,16 +5765,16 @@
         <v>16.5</v>
       </c>
       <c r="W28">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="Y28">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="AA28">
-        <v>17.9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5707,13 +5785,13 @@
         <v>82</v>
       </c>
       <c r="D29">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="E29">
         <v>49.6</v>
       </c>
       <c r="F29">
-        <v>17.9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="G29">
         <v>22.3</v>
@@ -5773,13 +5851,13 @@
         <v>31.1</v>
       </c>
       <c r="Z29">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AA29">
-        <v>33.3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27">
+        <v>33.299999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5796,7 +5874,7 @@
         <v>16.3</v>
       </c>
       <c r="I30">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="K30">
         <v>10.5</v>
@@ -5820,13 +5898,13 @@
         <v>16.2</v>
       </c>
       <c r="Y30">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="AA30">
-        <v>18.6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5873,7 +5951,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5899,7 +5977,7 @@
         <v>9</v>
       </c>
       <c r="I32">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="J32">
         <v>8.9</v>
@@ -5932,13 +6010,13 @@
         <v>11.9</v>
       </c>
       <c r="T32">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="U32">
         <v>12.4</v>
       </c>
       <c r="V32">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="W32">
         <v>13.2</v>
@@ -5956,7 +6034,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5982,28 +6060,28 @@
         <v>17.3</v>
       </c>
       <c r="O33">
-        <v>18.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="Q33">
-        <v>18.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="S33">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="U33">
         <v>18</v>
       </c>
       <c r="W33">
-        <v>19.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="Y33">
-        <v>19.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="AA33">
         <v>20.9</v>
       </c>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -6032,10 +6110,10 @@
         <v>26.7</v>
       </c>
       <c r="J34">
-        <v>37.7</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="K34">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="L34">
         <v>29.1</v>
@@ -6065,7 +6143,7 @@
         <v>12</v>
       </c>
       <c r="U34">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="V34">
         <v>12.8</v>
@@ -6077,7 +6155,7 @@
         <v>12.6</v>
       </c>
       <c r="Y34">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="Z34">
         <v>12.3</v>
@@ -6086,7 +6164,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -6106,7 +6184,7 @@
         <v>20</v>
       </c>
       <c r="G35">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="H35">
         <v>13.5</v>
@@ -6118,10 +6196,10 @@
         <v>16.3</v>
       </c>
       <c r="K35">
-        <v>18.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="L35">
-        <v>18.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="M35">
         <v>20.6</v>
@@ -6130,7 +6208,7 @@
         <v>15</v>
       </c>
       <c r="O35">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="P35">
         <v>17.8</v>
@@ -6145,7 +6223,7 @@
         <v>25.9</v>
       </c>
       <c r="T35">
-        <v>18.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="U35">
         <v>24.7</v>
@@ -6157,19 +6235,19 @@
         <v>24.4</v>
       </c>
       <c r="X35">
-        <v>17.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="Y35">
         <v>24</v>
       </c>
       <c r="Z35">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="AA35">
         <v>23.8</v>
       </c>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -6216,7 +6294,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="37" spans="1:27">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -6236,7 +6314,7 @@
         <v>12.4</v>
       </c>
       <c r="K37">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="M37">
         <v>19.7</v>
@@ -6248,7 +6326,7 @@
         <v>17.7</v>
       </c>
       <c r="S37">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="U37">
         <v>18.3</v>
@@ -6263,7 +6341,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="38" spans="1:27">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -6280,7 +6358,7 @@
         <v>25.1</v>
       </c>
       <c r="I38">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="K38">
         <v>15.9</v>
@@ -6304,13 +6382,13 @@
         <v>-6</v>
       </c>
       <c r="Y38">
-        <v>-8.300000000000001</v>
+        <v>-8.3000000000000007</v>
       </c>
       <c r="AA38">
         <v>-9.1</v>
       </c>
     </row>
-    <row r="39" spans="1:27">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -6348,7 +6426,7 @@
         <v>-8.6</v>
       </c>
       <c r="W39">
-        <v>-5.1</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="Y39">
         <v>-1.7</v>
@@ -6357,7 +6435,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="40" spans="1:27">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -6371,7 +6449,7 @@
         <v>78.3</v>
       </c>
       <c r="E40">
-        <v>83.90000000000001</v>
+        <v>83.9</v>
       </c>
       <c r="F40">
         <v>20</v>
@@ -6383,7 +6461,7 @@
         <v>3.4</v>
       </c>
       <c r="I40">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J40">
         <v>-7.9</v>
@@ -6407,7 +6485,7 @@
         <v>10</v>
       </c>
       <c r="Q40">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="R40">
         <v>13.1</v>
@@ -6440,7 +6518,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="41" spans="1:27">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -6457,7 +6535,7 @@
         <v>101.3</v>
       </c>
       <c r="F41">
-        <v>84.59999999999999</v>
+        <v>84.6</v>
       </c>
       <c r="G41">
         <v>56.9</v>
@@ -6502,10 +6580,10 @@
         <v>31.6</v>
       </c>
       <c r="U41">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="V41">
-        <v>38.2</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="W41">
         <v>23.2</v>
@@ -6523,7 +6601,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="42" spans="1:27">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -6543,7 +6621,7 @@
         <v>13.8</v>
       </c>
       <c r="K42">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="M42">
         <v>25.2</v>
@@ -6570,7 +6648,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="43" spans="1:27">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -6587,13 +6665,13 @@
         <v>28.4</v>
       </c>
       <c r="F43">
-        <v>20.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="G43">
         <v>10</v>
       </c>
       <c r="H43">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="I43">
         <v>7.4</v>
@@ -6608,7 +6686,7 @@
         <v>21.5</v>
       </c>
       <c r="M43">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="N43">
         <v>24.3</v>
@@ -6653,7 +6731,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="44" spans="1:27">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -6664,13 +6742,13 @@
         <v>81</v>
       </c>
       <c r="E44">
-        <v>71.09999999999999</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="G44">
         <v>41.2</v>
       </c>
       <c r="I44">
-        <v>38.8</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="K44">
         <v>38.6</v>
@@ -6700,7 +6778,7 @@
         <v>41.7</v>
       </c>
     </row>
-    <row r="45" spans="1:27">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -6747,7 +6825,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="46" spans="1:27">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -6758,7 +6836,7 @@
         <v>81</v>
       </c>
       <c r="E46">
-        <v>93.09999999999999</v>
+        <v>93.1</v>
       </c>
       <c r="G46">
         <v>32.4</v>
@@ -6776,16 +6854,16 @@
         <v>20.6</v>
       </c>
       <c r="Q46">
-        <v>19.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="S46">
         <v>18.8</v>
       </c>
       <c r="U46">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="W46">
-        <v>19.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="Y46">
         <v>19.7</v>
@@ -6794,7 +6872,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="47" spans="1:27">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -6835,13 +6913,13 @@
         <v>18.8</v>
       </c>
       <c r="Y47">
-        <v>17.6</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="AA47">
-        <v>18.9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -6855,7 +6933,7 @@
         <v>7.3</v>
       </c>
       <c r="G48">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I48">
         <v>7.1</v>
@@ -6888,7 +6966,7 @@
         <v>-1.8</v>
       </c>
     </row>
-    <row r="49" spans="1:27">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -6902,7 +6980,7 @@
         <v>45.6</v>
       </c>
       <c r="G49">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="I49">
         <v>12.6</v>
@@ -6920,10 +6998,10 @@
         <v>16.5</v>
       </c>
       <c r="S49">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="U49">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="W49">
         <v>17</v>
@@ -6932,10 +7010,10 @@
         <v>17.3</v>
       </c>
       <c r="AA49">
-        <v>17.6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -6946,7 +7024,7 @@
         <v>81</v>
       </c>
       <c r="E50">
-        <v>67.59999999999999</v>
+        <v>67.599999999999994</v>
       </c>
       <c r="G50">
         <v>37.1</v>
@@ -6982,7 +7060,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="51" spans="1:27">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -7023,7 +7101,7 @@
         <v>-11.9</v>
       </c>
       <c r="N51">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="O51">
         <v>-6.6</v>
@@ -7041,7 +7119,7 @@
         <v>7.5</v>
       </c>
       <c r="T51">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="U51">
         <v>16</v>
@@ -7050,7 +7128,7 @@
         <v>37.5</v>
       </c>
       <c r="W51">
-        <v>19.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="X51">
         <v>44.4</v>
@@ -7065,7 +7143,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="52" spans="1:27">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -7088,13 +7166,13 @@
         <v>-2.1</v>
       </c>
       <c r="M52">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="O52">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="Q52">
-        <v>9.699999999999999</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="S52">
         <v>12</v>
@@ -7112,7 +7190,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="53" spans="1:27">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -7159,7 +7237,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="54" spans="1:27">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -7182,13 +7260,13 @@
         <v>10</v>
       </c>
       <c r="M54">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="O54">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="Q54">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="S54">
         <v>21</v>
@@ -7197,16 +7275,16 @@
         <v>22.8</v>
       </c>
       <c r="W54">
-        <v>39.7</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="Y54">
-        <v>36.8</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="AA54">
         <v>44.7</v>
       </c>
     </row>
-    <row r="55" spans="1:27">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
